--- a/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga2_RGB_Vector.xlsx
+++ b/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga2_RGB_Vector.xlsx
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,37 +453,37 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>967</v>
+        <v>25444</v>
       </c>
       <c r="B2">
-        <v>241.75</v>
+        <v>254.44</v>
       </c>
       <c r="C2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="D2">
         <v>255</v>
       </c>
       <c r="E2">
-        <v>262.25</v>
+        <v>1.824646464646468</v>
       </c>
       <c r="F2">
-        <v>16.19413474070165</v>
+        <v>1.350794752968218</v>
       </c>
       <c r="G2">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="I2">
         <v>255</v>
       </c>
       <c r="J2">
-        <v>231.75</v>
+        <v>255</v>
       </c>
       <c r="K2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="L2">
         <v>255</v>
@@ -491,75 +491,75 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>807</v>
+        <v>25476</v>
       </c>
       <c r="B3">
-        <v>201.75</v>
+        <v>254.76</v>
       </c>
       <c r="C3">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="D3">
-        <v>171</v>
+        <v>255</v>
       </c>
       <c r="E3">
-        <v>854.9166666666666</v>
+        <v>0.5680808080808096</v>
       </c>
       <c r="F3">
-        <v>29.23895802977026</v>
+        <v>0.7537113559452383</v>
       </c>
       <c r="G3">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>171</v>
+        <v>250</v>
       </c>
       <c r="I3">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="J3">
-        <v>180.75</v>
+        <v>255</v>
       </c>
       <c r="K3">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="L3">
-        <v>222</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>883</v>
+        <v>25469</v>
       </c>
       <c r="B4">
-        <v>220.75</v>
+        <v>254.69</v>
       </c>
       <c r="C4">
-        <v>224.5</v>
+        <v>255</v>
       </c>
       <c r="D4">
         <v>255</v>
       </c>
       <c r="E4">
-        <v>1601.583333333333</v>
+        <v>0.9837373737373755</v>
       </c>
       <c r="F4">
-        <v>40.01978677271199</v>
+        <v>0.991835356164205</v>
       </c>
       <c r="G4">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>179</v>
+        <v>250</v>
       </c>
       <c r="I4">
         <v>255</v>
       </c>
       <c r="J4">
-        <v>190.25</v>
+        <v>255</v>
       </c>
       <c r="K4">
-        <v>224.5</v>
+        <v>255</v>
       </c>
       <c r="L4">
         <v>255</v>
@@ -567,40 +567,3688 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>875</v>
+        <v>25451</v>
       </c>
       <c r="B5">
-        <v>218.75</v>
+        <v>254.51</v>
       </c>
       <c r="C5">
-        <v>230.5</v>
+        <v>255</v>
       </c>
       <c r="D5">
+        <v>255</v>
+      </c>
+      <c r="E5">
+        <v>1.747373737373739</v>
+      </c>
+      <c r="F5">
+        <v>1.321882648866282</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>249</v>
+      </c>
+      <c r="I5">
+        <v>255</v>
+      </c>
+      <c r="J5">
+        <v>255</v>
+      </c>
+      <c r="K5">
+        <v>255</v>
+      </c>
+      <c r="L5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>25430</v>
+      </c>
+      <c r="B6">
+        <v>254.3</v>
+      </c>
+      <c r="C6">
+        <v>255</v>
+      </c>
+      <c r="D6">
+        <v>255</v>
+      </c>
+      <c r="E6">
+        <v>2.010101010101008</v>
+      </c>
+      <c r="F6">
+        <v>1.417780310944192</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>248</v>
+      </c>
+      <c r="I6">
+        <v>255</v>
+      </c>
+      <c r="J6">
+        <v>254</v>
+      </c>
+      <c r="K6">
+        <v>255</v>
+      </c>
+      <c r="L6">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>25376</v>
+      </c>
+      <c r="B7">
+        <v>253.76</v>
+      </c>
+      <c r="C7">
+        <v>254.5</v>
+      </c>
+      <c r="D7">
+        <v>255</v>
+      </c>
+      <c r="E7">
+        <v>3.355959595959591</v>
+      </c>
+      <c r="F7">
+        <v>1.831927835903912</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>247</v>
+      </c>
+      <c r="I7">
+        <v>255</v>
+      </c>
+      <c r="J7">
+        <v>254</v>
+      </c>
+      <c r="K7">
+        <v>254.5</v>
+      </c>
+      <c r="L7">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>25322</v>
+      </c>
+      <c r="B8">
+        <v>253.22</v>
+      </c>
+      <c r="C8">
+        <v>255</v>
+      </c>
+      <c r="D8">
+        <v>255</v>
+      </c>
+      <c r="E8">
+        <v>13.26424242424243</v>
+      </c>
+      <c r="F8">
+        <v>3.64201076662912</v>
+      </c>
+      <c r="G8">
+        <v>27</v>
+      </c>
+      <c r="H8">
+        <v>228</v>
+      </c>
+      <c r="I8">
+        <v>255</v>
+      </c>
+      <c r="J8">
+        <v>253</v>
+      </c>
+      <c r="K8">
+        <v>255</v>
+      </c>
+      <c r="L8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>25115</v>
+      </c>
+      <c r="B9">
+        <v>251.15</v>
+      </c>
+      <c r="C9">
+        <v>255</v>
+      </c>
+      <c r="D9">
+        <v>255</v>
+      </c>
+      <c r="E9">
+        <v>319.3409090909087</v>
+      </c>
+      <c r="F9">
+        <v>17.87011217342825</v>
+      </c>
+      <c r="G9">
+        <v>140</v>
+      </c>
+      <c r="H9">
+        <v>115</v>
+      </c>
+      <c r="I9">
+        <v>255</v>
+      </c>
+      <c r="J9">
+        <v>254</v>
+      </c>
+      <c r="K9">
+        <v>255</v>
+      </c>
+      <c r="L9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>24467</v>
+      </c>
+      <c r="B10">
+        <v>244.67</v>
+      </c>
+      <c r="C10">
+        <v>255</v>
+      </c>
+      <c r="D10">
+        <v>255</v>
+      </c>
+      <c r="E10">
+        <v>774.9910101010095</v>
+      </c>
+      <c r="F10">
+        <v>27.83866035032953</v>
+      </c>
+      <c r="G10">
+        <v>179</v>
+      </c>
+      <c r="H10">
+        <v>76</v>
+      </c>
+      <c r="I10">
+        <v>255</v>
+      </c>
+      <c r="J10">
+        <v>251</v>
+      </c>
+      <c r="K10">
+        <v>255</v>
+      </c>
+      <c r="L10">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>24110</v>
+      </c>
+      <c r="B11">
+        <v>241.1</v>
+      </c>
+      <c r="C11">
+        <v>255</v>
+      </c>
+      <c r="D11">
+        <v>255</v>
+      </c>
+      <c r="E11">
+        <v>911.7070707070721</v>
+      </c>
+      <c r="F11">
+        <v>30.19448742249274</v>
+      </c>
+      <c r="G11">
+        <v>173</v>
+      </c>
+      <c r="H11">
+        <v>82</v>
+      </c>
+      <c r="I11">
+        <v>255</v>
+      </c>
+      <c r="J11">
+        <v>238</v>
+      </c>
+      <c r="K11">
+        <v>255</v>
+      </c>
+      <c r="L11">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>23963</v>
+      </c>
+      <c r="B12">
+        <v>239.63</v>
+      </c>
+      <c r="C12">
+        <v>255</v>
+      </c>
+      <c r="D12">
+        <v>255</v>
+      </c>
+      <c r="E12">
+        <v>786.9021212121222</v>
+      </c>
+      <c r="F12">
+        <v>28.05177572297558</v>
+      </c>
+      <c r="G12">
+        <v>138</v>
+      </c>
+      <c r="H12">
+        <v>117</v>
+      </c>
+      <c r="I12">
+        <v>255</v>
+      </c>
+      <c r="J12">
+        <v>235</v>
+      </c>
+      <c r="K12">
+        <v>255</v>
+      </c>
+      <c r="L12">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>23915</v>
+      </c>
+      <c r="B13">
+        <v>239.15</v>
+      </c>
+      <c r="C13">
+        <v>252</v>
+      </c>
+      <c r="D13">
+        <v>255</v>
+      </c>
+      <c r="E13">
+        <v>559.6843434343427</v>
+      </c>
+      <c r="F13">
+        <v>23.65764873004802</v>
+      </c>
+      <c r="G13">
+        <v>117</v>
+      </c>
+      <c r="H13">
+        <v>138</v>
+      </c>
+      <c r="I13">
+        <v>255</v>
+      </c>
+      <c r="J13">
+        <v>231</v>
+      </c>
+      <c r="K13">
+        <v>252</v>
+      </c>
+      <c r="L13">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>23856</v>
+      </c>
+      <c r="B14">
+        <v>238.56</v>
+      </c>
+      <c r="C14">
+        <v>251.5</v>
+      </c>
+      <c r="D14">
+        <v>255</v>
+      </c>
+      <c r="E14">
+        <v>597.4004040404041</v>
+      </c>
+      <c r="F14">
+        <v>24.44177579555962</v>
+      </c>
+      <c r="G14">
+        <v>110</v>
+      </c>
+      <c r="H14">
+        <v>145</v>
+      </c>
+      <c r="I14">
+        <v>255</v>
+      </c>
+      <c r="J14">
+        <v>229</v>
+      </c>
+      <c r="K14">
+        <v>251.5</v>
+      </c>
+      <c r="L14">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>23865</v>
+      </c>
+      <c r="B15">
+        <v>238.65</v>
+      </c>
+      <c r="C15">
+        <v>251</v>
+      </c>
+      <c r="D15">
+        <v>255</v>
+      </c>
+      <c r="E15">
+        <v>485.6641414141418</v>
+      </c>
+      <c r="F15">
+        <v>22.03778894113794</v>
+      </c>
+      <c r="G15">
+        <v>94</v>
+      </c>
+      <c r="H15">
+        <v>161</v>
+      </c>
+      <c r="I15">
+        <v>255</v>
+      </c>
+      <c r="J15">
+        <v>227</v>
+      </c>
+      <c r="K15">
+        <v>251</v>
+      </c>
+      <c r="L15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>23944</v>
+      </c>
+      <c r="B16">
+        <v>239.44</v>
+      </c>
+      <c r="C16">
+        <v>250</v>
+      </c>
+      <c r="D16">
+        <v>255</v>
+      </c>
+      <c r="E16">
+        <v>418.673131313131</v>
+      </c>
+      <c r="F16">
+        <v>20.46150364252664</v>
+      </c>
+      <c r="G16">
+        <v>91</v>
+      </c>
+      <c r="H16">
+        <v>164</v>
+      </c>
+      <c r="I16">
+        <v>255</v>
+      </c>
+      <c r="J16">
+        <v>224</v>
+      </c>
+      <c r="K16">
+        <v>250</v>
+      </c>
+      <c r="L16">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>23655</v>
+      </c>
+      <c r="B17">
+        <v>236.55</v>
+      </c>
+      <c r="C17">
+        <v>249</v>
+      </c>
+      <c r="D17">
+        <v>255</v>
+      </c>
+      <c r="E17">
+        <v>446.7954545454542</v>
+      </c>
+      <c r="F17">
+        <v>21.13753662434329</v>
+      </c>
+      <c r="G17">
+        <v>92</v>
+      </c>
+      <c r="H17">
+        <v>163</v>
+      </c>
+      <c r="I17">
+        <v>255</v>
+      </c>
+      <c r="J17">
+        <v>219.75</v>
+      </c>
+      <c r="K17">
+        <v>249</v>
+      </c>
+      <c r="L17">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>23186</v>
+      </c>
+      <c r="B18">
+        <v>231.86</v>
+      </c>
+      <c r="C18">
+        <v>238</v>
+      </c>
+      <c r="D18">
+        <v>255</v>
+      </c>
+      <c r="E18">
+        <v>620.9498989898993</v>
+      </c>
+      <c r="F18">
+        <v>24.91886632633795</v>
+      </c>
+      <c r="G18">
+        <v>102</v>
+      </c>
+      <c r="H18">
+        <v>153</v>
+      </c>
+      <c r="I18">
+        <v>255</v>
+      </c>
+      <c r="J18">
+        <v>213</v>
+      </c>
+      <c r="K18">
+        <v>238</v>
+      </c>
+      <c r="L18">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>22774</v>
+      </c>
+      <c r="B19">
+        <v>227.74</v>
+      </c>
+      <c r="C19">
+        <v>234</v>
+      </c>
+      <c r="D19">
+        <v>255</v>
+      </c>
+      <c r="E19">
+        <v>819.487272727273</v>
+      </c>
+      <c r="F19">
+        <v>28.62668812013141</v>
+      </c>
+      <c r="G19">
+        <v>122</v>
+      </c>
+      <c r="H19">
+        <v>133</v>
+      </c>
+      <c r="I19">
+        <v>255</v>
+      </c>
+      <c r="J19">
+        <v>208.75</v>
+      </c>
+      <c r="K19">
+        <v>234</v>
+      </c>
+      <c r="L19">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>22788</v>
+      </c>
+      <c r="B20">
+        <v>227.88</v>
+      </c>
+      <c r="C20">
+        <v>238</v>
+      </c>
+      <c r="D20">
+        <v>255</v>
+      </c>
+      <c r="E20">
+        <v>998.7531313131306</v>
+      </c>
+      <c r="F20">
+        <v>31.60305572746298</v>
+      </c>
+      <c r="G20">
+        <v>128</v>
+      </c>
+      <c r="H20">
+        <v>127</v>
+      </c>
+      <c r="I20">
+        <v>255</v>
+      </c>
+      <c r="J20">
+        <v>213.75</v>
+      </c>
+      <c r="K20">
+        <v>238</v>
+      </c>
+      <c r="L20">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>22967</v>
+      </c>
+      <c r="B21">
+        <v>229.67</v>
+      </c>
+      <c r="C21">
+        <v>237</v>
+      </c>
+      <c r="D21">
+        <v>255</v>
+      </c>
+      <c r="E21">
+        <v>844.0819191919205</v>
+      </c>
+      <c r="F21">
+        <v>29.05308794589519</v>
+      </c>
+      <c r="G21">
+        <v>127</v>
+      </c>
+      <c r="H21">
+        <v>128</v>
+      </c>
+      <c r="I21">
+        <v>255</v>
+      </c>
+      <c r="J21">
+        <v>219.5</v>
+      </c>
+      <c r="K21">
+        <v>237</v>
+      </c>
+      <c r="L21">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>23052</v>
+      </c>
+      <c r="B22">
+        <v>230.52</v>
+      </c>
+      <c r="C22">
+        <v>238</v>
+      </c>
+      <c r="D22">
+        <v>255</v>
+      </c>
+      <c r="E22">
+        <v>706.4743434343432</v>
+      </c>
+      <c r="F22">
+        <v>26.57958508770111</v>
+      </c>
+      <c r="G22">
+        <v>112</v>
+      </c>
+      <c r="H22">
+        <v>143</v>
+      </c>
+      <c r="I22">
+        <v>255</v>
+      </c>
+      <c r="J22">
+        <v>215.5</v>
+      </c>
+      <c r="K22">
+        <v>238</v>
+      </c>
+      <c r="L22">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>23341</v>
+      </c>
+      <c r="B23">
+        <v>233.41</v>
+      </c>
+      <c r="C23">
+        <v>238</v>
+      </c>
+      <c r="D23">
+        <v>255</v>
+      </c>
+      <c r="E23">
+        <v>602.8302020202024</v>
+      </c>
+      <c r="F23">
+        <v>24.55260071805434</v>
+      </c>
+      <c r="G23">
+        <v>117</v>
+      </c>
+      <c r="H23">
+        <v>138</v>
+      </c>
+      <c r="I23">
+        <v>255</v>
+      </c>
+      <c r="J23">
+        <v>225.75</v>
+      </c>
+      <c r="K23">
+        <v>238</v>
+      </c>
+      <c r="L23">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>23461</v>
+      </c>
+      <c r="B24">
+        <v>234.61</v>
+      </c>
+      <c r="C24">
+        <v>241</v>
+      </c>
+      <c r="D24">
+        <v>255</v>
+      </c>
+      <c r="E24">
+        <v>532.624141414141</v>
+      </c>
+      <c r="F24">
+        <v>23.0786512043954</v>
+      </c>
+      <c r="G24">
+        <v>111</v>
+      </c>
+      <c r="H24">
+        <v>144</v>
+      </c>
+      <c r="I24">
+        <v>255</v>
+      </c>
+      <c r="J24">
+        <v>226.75</v>
+      </c>
+      <c r="K24">
+        <v>241</v>
+      </c>
+      <c r="L24">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>23284</v>
+      </c>
+      <c r="B25">
+        <v>232.84</v>
+      </c>
+      <c r="C25">
+        <v>238</v>
+      </c>
+      <c r="D25">
+        <v>255</v>
+      </c>
+      <c r="E25">
+        <v>530.418585858586</v>
+      </c>
+      <c r="F25">
+        <v>23.03081817605675</v>
+      </c>
+      <c r="G25">
+        <v>109</v>
+      </c>
+      <c r="H25">
+        <v>146</v>
+      </c>
+      <c r="I25">
+        <v>255</v>
+      </c>
+      <c r="J25">
+        <v>222.75</v>
+      </c>
+      <c r="K25">
+        <v>238</v>
+      </c>
+      <c r="L25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>23322</v>
+      </c>
+      <c r="B26">
+        <v>233.22</v>
+      </c>
+      <c r="C26">
+        <v>237.5</v>
+      </c>
+      <c r="D26">
+        <v>255</v>
+      </c>
+      <c r="E26">
+        <v>573.9511111111111</v>
+      </c>
+      <c r="F26">
+        <v>23.95727678829777</v>
+      </c>
+      <c r="G26">
+        <v>127</v>
+      </c>
+      <c r="H26">
+        <v>128</v>
+      </c>
+      <c r="I26">
+        <v>255</v>
+      </c>
+      <c r="J26">
+        <v>221.25</v>
+      </c>
+      <c r="K26">
+        <v>237.5</v>
+      </c>
+      <c r="L26">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>23365</v>
+      </c>
+      <c r="B27">
+        <v>233.65</v>
+      </c>
+      <c r="C27">
+        <v>235</v>
+      </c>
+      <c r="D27">
+        <v>255</v>
+      </c>
+      <c r="E27">
+        <v>518.4520202020209</v>
+      </c>
+      <c r="F27">
+        <v>22.76954150179623</v>
+      </c>
+      <c r="G27">
+        <v>111</v>
+      </c>
+      <c r="H27">
+        <v>144</v>
+      </c>
+      <c r="I27">
+        <v>255</v>
+      </c>
+      <c r="J27">
+        <v>227.75</v>
+      </c>
+      <c r="K27">
+        <v>235</v>
+      </c>
+      <c r="L27">
+        <v>254.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>23408</v>
+      </c>
+      <c r="B28">
+        <v>234.08</v>
+      </c>
+      <c r="C28">
+        <v>237</v>
+      </c>
+      <c r="D28">
+        <v>255</v>
+      </c>
+      <c r="E28">
+        <v>509.7713131313129</v>
+      </c>
+      <c r="F28">
+        <v>22.57811580117599</v>
+      </c>
+      <c r="G28">
+        <v>108</v>
+      </c>
+      <c r="H28">
+        <v>147</v>
+      </c>
+      <c r="I28">
+        <v>255</v>
+      </c>
+      <c r="J28">
+        <v>227</v>
+      </c>
+      <c r="K28">
+        <v>237</v>
+      </c>
+      <c r="L28">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>23395</v>
+      </c>
+      <c r="B29">
+        <v>233.95</v>
+      </c>
+      <c r="C29">
+        <v>238.5</v>
+      </c>
+      <c r="D29">
+        <v>255</v>
+      </c>
+      <c r="E29">
+        <v>521.0782828282828</v>
+      </c>
+      <c r="F29">
+        <v>22.82713917310452</v>
+      </c>
+      <c r="G29">
+        <v>97</v>
+      </c>
+      <c r="H29">
+        <v>158</v>
+      </c>
+      <c r="I29">
+        <v>255</v>
+      </c>
+      <c r="J29">
+        <v>227</v>
+      </c>
+      <c r="K29">
+        <v>238.5</v>
+      </c>
+      <c r="L29">
+        <v>253.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>23344</v>
+      </c>
+      <c r="B30">
+        <v>233.44</v>
+      </c>
+      <c r="C30">
+        <v>237.5</v>
+      </c>
+      <c r="D30">
+        <v>255</v>
+      </c>
+      <c r="E30">
+        <v>529.4812121212119</v>
+      </c>
+      <c r="F30">
+        <v>23.01045875512289</v>
+      </c>
+      <c r="G30">
+        <v>102</v>
+      </c>
+      <c r="H30">
+        <v>153</v>
+      </c>
+      <c r="I30">
+        <v>255</v>
+      </c>
+      <c r="J30">
+        <v>226</v>
+      </c>
+      <c r="K30">
+        <v>237.5</v>
+      </c>
+      <c r="L30">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>23274</v>
+      </c>
+      <c r="B31">
+        <v>232.74</v>
+      </c>
+      <c r="C31">
+        <v>235.5</v>
+      </c>
+      <c r="D31">
+        <v>255</v>
+      </c>
+      <c r="E31">
+        <v>523.8711111111107</v>
+      </c>
+      <c r="F31">
+        <v>22.88823084275215</v>
+      </c>
+      <c r="G31">
+        <v>102</v>
+      </c>
+      <c r="H31">
+        <v>153</v>
+      </c>
+      <c r="I31">
+        <v>255</v>
+      </c>
+      <c r="J31">
+        <v>225</v>
+      </c>
+      <c r="K31">
+        <v>235.5</v>
+      </c>
+      <c r="L31">
+        <v>252.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>23256</v>
+      </c>
+      <c r="B32">
+        <v>232.56</v>
+      </c>
+      <c r="C32">
+        <v>238.5</v>
+      </c>
+      <c r="D32">
+        <v>255</v>
+      </c>
+      <c r="E32">
+        <v>539.2387878787875</v>
+      </c>
+      <c r="F32">
+        <v>23.221515624067</v>
+      </c>
+      <c r="G32">
+        <v>102</v>
+      </c>
+      <c r="H32">
+        <v>153</v>
+      </c>
+      <c r="I32">
+        <v>255</v>
+      </c>
+      <c r="J32">
+        <v>223</v>
+      </c>
+      <c r="K32">
+        <v>238.5</v>
+      </c>
+      <c r="L32">
+        <v>252.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>23205</v>
+      </c>
+      <c r="B33">
+        <v>232.05</v>
+      </c>
+      <c r="C33">
+        <v>237.5</v>
+      </c>
+      <c r="D33">
+        <v>255</v>
+      </c>
+      <c r="E33">
+        <v>574.8964646464643</v>
+      </c>
+      <c r="F33">
+        <v>23.97699865801523</v>
+      </c>
+      <c r="G33">
+        <v>108</v>
+      </c>
+      <c r="H33">
+        <v>147</v>
+      </c>
+      <c r="I33">
+        <v>255</v>
+      </c>
+      <c r="J33">
+        <v>220</v>
+      </c>
+      <c r="K33">
+        <v>237.5</v>
+      </c>
+      <c r="L33">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>23072</v>
+      </c>
+      <c r="B34">
+        <v>230.72</v>
+      </c>
+      <c r="C34">
+        <v>238</v>
+      </c>
+      <c r="D34">
+        <v>255</v>
+      </c>
+      <c r="E34">
+        <v>579.6985858585861</v>
+      </c>
+      <c r="F34">
+        <v>24.07693057386232</v>
+      </c>
+      <c r="G34">
+        <v>102</v>
+      </c>
+      <c r="H34">
+        <v>153</v>
+      </c>
+      <c r="I34">
+        <v>255</v>
+      </c>
+      <c r="J34">
+        <v>218</v>
+      </c>
+      <c r="K34">
+        <v>238</v>
+      </c>
+      <c r="L34">
+        <v>250.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>23085</v>
+      </c>
+      <c r="B35">
+        <v>230.85</v>
+      </c>
+      <c r="C35">
+        <v>236</v>
+      </c>
+      <c r="D35">
+        <v>255</v>
+      </c>
+      <c r="E35">
+        <v>565.0782828282834</v>
+      </c>
+      <c r="F35">
+        <v>23.77137528264369</v>
+      </c>
+      <c r="G35">
+        <v>91</v>
+      </c>
+      <c r="H35">
+        <v>164</v>
+      </c>
+      <c r="I35">
+        <v>255</v>
+      </c>
+      <c r="J35">
+        <v>217.5</v>
+      </c>
+      <c r="K35">
+        <v>236</v>
+      </c>
+      <c r="L35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>22913</v>
+      </c>
+      <c r="B36">
+        <v>229.13</v>
+      </c>
+      <c r="C36">
+        <v>237</v>
+      </c>
+      <c r="D36">
+        <v>255</v>
+      </c>
+      <c r="E36">
+        <v>642.9021212121211</v>
+      </c>
+      <c r="F36">
+        <v>25.35551461146315</v>
+      </c>
+      <c r="G36">
+        <v>95</v>
+      </c>
+      <c r="H36">
         <v>160</v>
       </c>
-      <c r="E5">
-        <v>1994.25</v>
-      </c>
-      <c r="F5">
-        <v>44.65702632285316</v>
-      </c>
-      <c r="G5">
-        <v>94</v>
-      </c>
-      <c r="H5">
+      <c r="I36">
+        <v>255</v>
+      </c>
+      <c r="J36">
+        <v>212</v>
+      </c>
+      <c r="K36">
+        <v>237</v>
+      </c>
+      <c r="L36">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>22651</v>
+      </c>
+      <c r="B37">
+        <v>226.51</v>
+      </c>
+      <c r="C37">
+        <v>237.5</v>
+      </c>
+      <c r="D37">
+        <v>255</v>
+      </c>
+      <c r="E37">
+        <v>728.0100000000002</v>
+      </c>
+      <c r="F37">
+        <v>26.98166043815688</v>
+      </c>
+      <c r="G37">
+        <v>99</v>
+      </c>
+      <c r="H37">
+        <v>156</v>
+      </c>
+      <c r="I37">
+        <v>255</v>
+      </c>
+      <c r="J37">
+        <v>207</v>
+      </c>
+      <c r="K37">
+        <v>237.5</v>
+      </c>
+      <c r="L37">
+        <v>250.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>22494</v>
+      </c>
+      <c r="B38">
+        <v>224.94</v>
+      </c>
+      <c r="C38">
+        <v>236</v>
+      </c>
+      <c r="D38">
+        <v>255</v>
+      </c>
+      <c r="E38">
+        <v>771.7943434343434</v>
+      </c>
+      <c r="F38">
+        <v>27.78118686151373</v>
+      </c>
+      <c r="G38">
+        <v>99</v>
+      </c>
+      <c r="H38">
+        <v>156</v>
+      </c>
+      <c r="I38">
+        <v>255</v>
+      </c>
+      <c r="J38">
+        <v>208</v>
+      </c>
+      <c r="K38">
+        <v>236</v>
+      </c>
+      <c r="L38">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>22452</v>
+      </c>
+      <c r="B39">
+        <v>224.52</v>
+      </c>
+      <c r="C39">
+        <v>233</v>
+      </c>
+      <c r="D39">
+        <v>255</v>
+      </c>
+      <c r="E39">
+        <v>743.9692929292931</v>
+      </c>
+      <c r="F39">
+        <v>27.27580050024734</v>
+      </c>
+      <c r="G39">
+        <v>98</v>
+      </c>
+      <c r="H39">
+        <v>157</v>
+      </c>
+      <c r="I39">
+        <v>255</v>
+      </c>
+      <c r="J39">
+        <v>206</v>
+      </c>
+      <c r="K39">
+        <v>233</v>
+      </c>
+      <c r="L39">
+        <v>247.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>22431</v>
+      </c>
+      <c r="B40">
+        <v>224.31</v>
+      </c>
+      <c r="C40">
+        <v>233</v>
+      </c>
+      <c r="D40">
+        <v>255</v>
+      </c>
+      <c r="E40">
+        <v>759.2059595959593</v>
+      </c>
+      <c r="F40">
+        <v>27.55369230422593</v>
+      </c>
+      <c r="G40">
+        <v>87</v>
+      </c>
+      <c r="H40">
+        <v>168</v>
+      </c>
+      <c r="I40">
+        <v>255</v>
+      </c>
+      <c r="J40">
+        <v>205</v>
+      </c>
+      <c r="K40">
+        <v>233</v>
+      </c>
+      <c r="L40">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>22401</v>
+      </c>
+      <c r="B41">
+        <v>224.01</v>
+      </c>
+      <c r="C41">
+        <v>234.5</v>
+      </c>
+      <c r="D41">
+        <v>255</v>
+      </c>
+      <c r="E41">
+        <v>810.7776767676762</v>
+      </c>
+      <c r="F41">
+        <v>28.47415805195434</v>
+      </c>
+      <c r="G41">
+        <v>90</v>
+      </c>
+      <c r="H41">
+        <v>165</v>
+      </c>
+      <c r="I41">
+        <v>255</v>
+      </c>
+      <c r="J41">
+        <v>202.75</v>
+      </c>
+      <c r="K41">
+        <v>234.5</v>
+      </c>
+      <c r="L41">
+        <v>249.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>22416</v>
+      </c>
+      <c r="B42">
+        <v>224.16</v>
+      </c>
+      <c r="C42">
+        <v>235.5</v>
+      </c>
+      <c r="D42">
+        <v>255</v>
+      </c>
+      <c r="E42">
+        <v>773.4286868686864</v>
+      </c>
+      <c r="F42">
+        <v>27.81058587783951</v>
+      </c>
+      <c r="G42">
+        <v>93</v>
+      </c>
+      <c r="H42">
+        <v>162</v>
+      </c>
+      <c r="I42">
+        <v>255</v>
+      </c>
+      <c r="J42">
+        <v>203</v>
+      </c>
+      <c r="K42">
+        <v>235.5</v>
+      </c>
+      <c r="L42">
+        <v>249.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>22319</v>
+      </c>
+      <c r="B43">
+        <v>223.19</v>
+      </c>
+      <c r="C43">
+        <v>231.5</v>
+      </c>
+      <c r="D43">
+        <v>255</v>
+      </c>
+      <c r="E43">
+        <v>784.8625252525251</v>
+      </c>
+      <c r="F43">
+        <v>28.01539800275065</v>
+      </c>
+      <c r="G43">
+        <v>102</v>
+      </c>
+      <c r="H43">
+        <v>153</v>
+      </c>
+      <c r="I43">
+        <v>255</v>
+      </c>
+      <c r="J43">
+        <v>202.75</v>
+      </c>
+      <c r="K43">
+        <v>231.5</v>
+      </c>
+      <c r="L43">
+        <v>251.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>22225</v>
+      </c>
+      <c r="B44">
+        <v>222.25</v>
+      </c>
+      <c r="C44">
+        <v>227</v>
+      </c>
+      <c r="D44">
+        <v>255</v>
+      </c>
+      <c r="E44">
+        <v>789.0176767676768</v>
+      </c>
+      <c r="F44">
+        <v>28.08945846341073</v>
+      </c>
+      <c r="G44">
+        <v>95</v>
+      </c>
+      <c r="H44">
         <v>160</v>
       </c>
-      <c r="I5">
+      <c r="I44">
+        <v>255</v>
+      </c>
+      <c r="J44">
+        <v>202</v>
+      </c>
+      <c r="K44">
+        <v>227</v>
+      </c>
+      <c r="L44">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>22213</v>
+      </c>
+      <c r="B45">
+        <v>222.13</v>
+      </c>
+      <c r="C45">
+        <v>227.5</v>
+      </c>
+      <c r="D45">
+        <v>255</v>
+      </c>
+      <c r="E45">
+        <v>766.7405050505049</v>
+      </c>
+      <c r="F45">
+        <v>27.69007954214839</v>
+      </c>
+      <c r="G45">
+        <v>95</v>
+      </c>
+      <c r="H45">
+        <v>160</v>
+      </c>
+      <c r="I45">
+        <v>255</v>
+      </c>
+      <c r="J45">
+        <v>204.5</v>
+      </c>
+      <c r="K45">
+        <v>227.5</v>
+      </c>
+      <c r="L45">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46">
+        <v>22196</v>
+      </c>
+      <c r="B46">
+        <v>221.96</v>
+      </c>
+      <c r="C46">
+        <v>227.5</v>
+      </c>
+      <c r="D46">
+        <v>255</v>
+      </c>
+      <c r="E46">
+        <v>741.1498989898992</v>
+      </c>
+      <c r="F46">
+        <v>27.22406837689582</v>
+      </c>
+      <c r="G46">
+        <v>90</v>
+      </c>
+      <c r="H46">
+        <v>165</v>
+      </c>
+      <c r="I46">
+        <v>255</v>
+      </c>
+      <c r="J46">
+        <v>199.5</v>
+      </c>
+      <c r="K46">
+        <v>227.5</v>
+      </c>
+      <c r="L46">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47">
+        <v>22111</v>
+      </c>
+      <c r="B47">
+        <v>221.11</v>
+      </c>
+      <c r="C47">
+        <v>221.5</v>
+      </c>
+      <c r="D47">
+        <v>255</v>
+      </c>
+      <c r="E47">
+        <v>712.1190909090906</v>
+      </c>
+      <c r="F47">
+        <v>26.68555959520224</v>
+      </c>
+      <c r="G47">
+        <v>85</v>
+      </c>
+      <c r="H47">
+        <v>170</v>
+      </c>
+      <c r="I47">
+        <v>255</v>
+      </c>
+      <c r="J47">
+        <v>200</v>
+      </c>
+      <c r="K47">
+        <v>221.5</v>
+      </c>
+      <c r="L47">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48">
+        <v>21982</v>
+      </c>
+      <c r="B48">
+        <v>219.82</v>
+      </c>
+      <c r="C48">
+        <v>215</v>
+      </c>
+      <c r="D48">
+        <v>255</v>
+      </c>
+      <c r="E48">
+        <v>725.5632323232325</v>
+      </c>
+      <c r="F48">
+        <v>26.9362809668156</v>
+      </c>
+      <c r="G48">
+        <v>84</v>
+      </c>
+      <c r="H48">
+        <v>171</v>
+      </c>
+      <c r="I48">
+        <v>255</v>
+      </c>
+      <c r="J48">
+        <v>200</v>
+      </c>
+      <c r="K48">
+        <v>215</v>
+      </c>
+      <c r="L48">
+        <v>249.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49">
+        <v>21992</v>
+      </c>
+      <c r="B49">
+        <v>219.92</v>
+      </c>
+      <c r="C49">
+        <v>217.5</v>
+      </c>
+      <c r="D49">
+        <v>255</v>
+      </c>
+      <c r="E49">
+        <v>704.6804040404041</v>
+      </c>
+      <c r="F49">
+        <v>26.54581707238269</v>
+      </c>
+      <c r="G49">
+        <v>86</v>
+      </c>
+      <c r="H49">
+        <v>169</v>
+      </c>
+      <c r="I49">
+        <v>255</v>
+      </c>
+      <c r="J49">
+        <v>198.75</v>
+      </c>
+      <c r="K49">
+        <v>217.5</v>
+      </c>
+      <c r="L49">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50">
+        <v>21854</v>
+      </c>
+      <c r="B50">
+        <v>218.54</v>
+      </c>
+      <c r="C50">
+        <v>217</v>
+      </c>
+      <c r="D50">
+        <v>255</v>
+      </c>
+      <c r="E50">
+        <v>719.9276767676768</v>
+      </c>
+      <c r="F50">
+        <v>26.8314680322877</v>
+      </c>
+      <c r="G50">
+        <v>82</v>
+      </c>
+      <c r="H50">
+        <v>173</v>
+      </c>
+      <c r="I50">
+        <v>255</v>
+      </c>
+      <c r="J50">
+        <v>194.75</v>
+      </c>
+      <c r="K50">
+        <v>217</v>
+      </c>
+      <c r="L50">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51">
+        <v>21734</v>
+      </c>
+      <c r="B51">
+        <v>217.34</v>
+      </c>
+      <c r="C51">
+        <v>209.5</v>
+      </c>
+      <c r="D51">
+        <v>255</v>
+      </c>
+      <c r="E51">
+        <v>738.2064646464644</v>
+      </c>
+      <c r="F51">
+        <v>27.16995518300434</v>
+      </c>
+      <c r="G51">
+        <v>77</v>
+      </c>
+      <c r="H51">
+        <v>178</v>
+      </c>
+      <c r="I51">
+        <v>255</v>
+      </c>
+      <c r="J51">
+        <v>193.75</v>
+      </c>
+      <c r="K51">
+        <v>209.5</v>
+      </c>
+      <c r="L51">
+        <v>246.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52">
+        <v>21582</v>
+      </c>
+      <c r="B52">
+        <v>215.82</v>
+      </c>
+      <c r="C52">
+        <v>207</v>
+      </c>
+      <c r="D52">
+        <v>255</v>
+      </c>
+      <c r="E52">
+        <v>763.2197979797983</v>
+      </c>
+      <c r="F52">
+        <v>27.62643295794443</v>
+      </c>
+      <c r="G52">
+        <v>83</v>
+      </c>
+      <c r="H52">
+        <v>172</v>
+      </c>
+      <c r="I52">
+        <v>255</v>
+      </c>
+      <c r="J52">
+        <v>193.5</v>
+      </c>
+      <c r="K52">
+        <v>207</v>
+      </c>
+      <c r="L52">
+        <v>246.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53">
+        <v>21426</v>
+      </c>
+      <c r="B53">
+        <v>214.26</v>
+      </c>
+      <c r="C53">
+        <v>203</v>
+      </c>
+      <c r="D53">
+        <v>255</v>
+      </c>
+      <c r="E53">
+        <v>800.5983838383839</v>
+      </c>
+      <c r="F53">
+        <v>28.29484730190965</v>
+      </c>
+      <c r="G53">
+        <v>79</v>
+      </c>
+      <c r="H53">
+        <v>176</v>
+      </c>
+      <c r="I53">
+        <v>255</v>
+      </c>
+      <c r="J53">
+        <v>190</v>
+      </c>
+      <c r="K53">
+        <v>203</v>
+      </c>
+      <c r="L53">
+        <v>246.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54">
+        <v>21326</v>
+      </c>
+      <c r="B54">
+        <v>213.26</v>
+      </c>
+      <c r="C54">
+        <v>203.5</v>
+      </c>
+      <c r="D54">
+        <v>255</v>
+      </c>
+      <c r="E54">
+        <v>830.6185858585858</v>
+      </c>
+      <c r="F54">
+        <v>28.82045429653366</v>
+      </c>
+      <c r="G54">
+        <v>83</v>
+      </c>
+      <c r="H54">
+        <v>172</v>
+      </c>
+      <c r="I54">
+        <v>255</v>
+      </c>
+      <c r="J54">
+        <v>189</v>
+      </c>
+      <c r="K54">
+        <v>203.5</v>
+      </c>
+      <c r="L54">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55">
+        <v>21338</v>
+      </c>
+      <c r="B55">
+        <v>213.38</v>
+      </c>
+      <c r="C55">
+        <v>203</v>
+      </c>
+      <c r="D55">
+        <v>255</v>
+      </c>
+      <c r="E55">
+        <v>820.3793939393942</v>
+      </c>
+      <c r="F55">
+        <v>28.64226586601336</v>
+      </c>
+      <c r="G55">
+        <v>81</v>
+      </c>
+      <c r="H55">
+        <v>174</v>
+      </c>
+      <c r="I55">
+        <v>255</v>
+      </c>
+      <c r="J55">
+        <v>189</v>
+      </c>
+      <c r="K55">
+        <v>203</v>
+      </c>
+      <c r="L55">
+        <v>245.25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56">
+        <v>21312</v>
+      </c>
+      <c r="B56">
+        <v>213.12</v>
+      </c>
+      <c r="C56">
+        <v>203.5</v>
+      </c>
+      <c r="D56">
+        <v>255</v>
+      </c>
+      <c r="E56">
+        <v>805.379393939394</v>
+      </c>
+      <c r="F56">
+        <v>28.37920707030755</v>
+      </c>
+      <c r="G56">
+        <v>78</v>
+      </c>
+      <c r="H56">
+        <v>177</v>
+      </c>
+      <c r="I56">
+        <v>255</v>
+      </c>
+      <c r="J56">
+        <v>189</v>
+      </c>
+      <c r="K56">
+        <v>203.5</v>
+      </c>
+      <c r="L56">
+        <v>245.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>21243</v>
+      </c>
+      <c r="B57">
+        <v>212.43</v>
+      </c>
+      <c r="C57">
+        <v>199.5</v>
+      </c>
+      <c r="D57">
+        <v>255</v>
+      </c>
+      <c r="E57">
+        <v>878.3081818181817</v>
+      </c>
+      <c r="F57">
+        <v>29.63626464010236</v>
+      </c>
+      <c r="G57">
+        <v>84</v>
+      </c>
+      <c r="H57">
+        <v>171</v>
+      </c>
+      <c r="I57">
+        <v>255</v>
+      </c>
+      <c r="J57">
+        <v>187</v>
+      </c>
+      <c r="K57">
+        <v>199.5</v>
+      </c>
+      <c r="L57">
+        <v>244.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58">
+        <v>21174</v>
+      </c>
+      <c r="B58">
+        <v>211.74</v>
+      </c>
+      <c r="C58">
+        <v>199.5</v>
+      </c>
+      <c r="D58">
+        <v>255</v>
+      </c>
+      <c r="E58">
+        <v>883.0428282828281</v>
+      </c>
+      <c r="F58">
+        <v>29.71603655070487</v>
+      </c>
+      <c r="G58">
+        <v>86</v>
+      </c>
+      <c r="H58">
+        <v>169</v>
+      </c>
+      <c r="I58">
+        <v>255</v>
+      </c>
+      <c r="J58">
+        <v>186.75</v>
+      </c>
+      <c r="K58">
+        <v>199.5</v>
+      </c>
+      <c r="L58">
+        <v>240.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59">
+        <v>21165</v>
+      </c>
+      <c r="B59">
+        <v>211.65</v>
+      </c>
+      <c r="C59">
+        <v>194.5</v>
+      </c>
+      <c r="D59">
+        <v>255</v>
+      </c>
+      <c r="E59">
+        <v>903.2601010101017</v>
+      </c>
+      <c r="F59">
+        <v>30.05428590085117</v>
+      </c>
+      <c r="G59">
+        <v>82</v>
+      </c>
+      <c r="H59">
+        <v>173</v>
+      </c>
+      <c r="I59">
+        <v>255</v>
+      </c>
+      <c r="J59">
+        <v>186</v>
+      </c>
+      <c r="K59">
+        <v>194.5</v>
+      </c>
+      <c r="L59">
+        <v>245.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60">
+        <v>21270</v>
+      </c>
+      <c r="B60">
+        <v>212.7</v>
+      </c>
+      <c r="C60">
+        <v>198</v>
+      </c>
+      <c r="D60">
+        <v>255</v>
+      </c>
+      <c r="E60">
+        <v>910.6565656565659</v>
+      </c>
+      <c r="F60">
+        <v>30.17708676556711</v>
+      </c>
+      <c r="G60">
+        <v>82</v>
+      </c>
+      <c r="H60">
+        <v>173</v>
+      </c>
+      <c r="I60">
+        <v>255</v>
+      </c>
+      <c r="J60">
+        <v>187</v>
+      </c>
+      <c r="K60">
+        <v>198</v>
+      </c>
+      <c r="L60">
+        <v>248.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61">
+        <v>21283</v>
+      </c>
+      <c r="B61">
+        <v>212.83</v>
+      </c>
+      <c r="C61">
+        <v>198.5</v>
+      </c>
+      <c r="D61">
+        <v>255</v>
+      </c>
+      <c r="E61">
+        <v>864.6273737373738</v>
+      </c>
+      <c r="F61">
+        <v>29.40454682081283</v>
+      </c>
+      <c r="G61">
+        <v>82</v>
+      </c>
+      <c r="H61">
+        <v>173</v>
+      </c>
+      <c r="I61">
+        <v>255</v>
+      </c>
+      <c r="J61">
+        <v>187</v>
+      </c>
+      <c r="K61">
+        <v>198.5</v>
+      </c>
+      <c r="L61">
+        <v>246.25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62">
+        <v>21293</v>
+      </c>
+      <c r="B62">
+        <v>212.93</v>
+      </c>
+      <c r="C62">
+        <v>201</v>
+      </c>
+      <c r="D62">
+        <v>255</v>
+      </c>
+      <c r="E62">
+        <v>882.0253535353539</v>
+      </c>
+      <c r="F62">
+        <v>29.6989116557384</v>
+      </c>
+      <c r="G62">
+        <v>80</v>
+      </c>
+      <c r="H62">
+        <v>175</v>
+      </c>
+      <c r="I62">
+        <v>255</v>
+      </c>
+      <c r="J62">
+        <v>185.75</v>
+      </c>
+      <c r="K62">
+        <v>201</v>
+      </c>
+      <c r="L62">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63">
+        <v>21229</v>
+      </c>
+      <c r="B63">
+        <v>212.29</v>
+      </c>
+      <c r="C63">
+        <v>198.5</v>
+      </c>
+      <c r="D63">
+        <v>255</v>
+      </c>
+      <c r="E63">
+        <v>913.7433333333339</v>
+      </c>
+      <c r="F63">
+        <v>30.22818772823362</v>
+      </c>
+      <c r="G63">
+        <v>80</v>
+      </c>
+      <c r="H63">
+        <v>175</v>
+      </c>
+      <c r="I63">
+        <v>255</v>
+      </c>
+      <c r="J63">
+        <v>185</v>
+      </c>
+      <c r="K63">
+        <v>198.5</v>
+      </c>
+      <c r="L63">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64">
+        <v>21174</v>
+      </c>
+      <c r="B64">
+        <v>211.74</v>
+      </c>
+      <c r="C64">
+        <v>194.5</v>
+      </c>
+      <c r="D64">
+        <v>255</v>
+      </c>
+      <c r="E64">
+        <v>1001.16404040404</v>
+      </c>
+      <c r="F64">
+        <v>31.6411763435565</v>
+      </c>
+      <c r="G64">
+        <v>88</v>
+      </c>
+      <c r="H64">
+        <v>167</v>
+      </c>
+      <c r="I64">
+        <v>255</v>
+      </c>
+      <c r="J64">
+        <v>184</v>
+      </c>
+      <c r="K64">
+        <v>194.5</v>
+      </c>
+      <c r="L64">
+        <v>246.25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65">
+        <v>21187</v>
+      </c>
+      <c r="B65">
+        <v>211.87</v>
+      </c>
+      <c r="C65">
+        <v>195</v>
+      </c>
+      <c r="D65">
+        <v>255</v>
+      </c>
+      <c r="E65">
+        <v>985.2253535353531</v>
+      </c>
+      <c r="F65">
+        <v>31.38829962797209</v>
+      </c>
+      <c r="G65">
+        <v>82</v>
+      </c>
+      <c r="H65">
+        <v>173</v>
+      </c>
+      <c r="I65">
+        <v>255</v>
+      </c>
+      <c r="J65">
+        <v>183</v>
+      </c>
+      <c r="K65">
+        <v>195</v>
+      </c>
+      <c r="L65">
+        <v>247.75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66">
+        <v>21217</v>
+      </c>
+      <c r="B66">
+        <v>212.17</v>
+      </c>
+      <c r="C66">
+        <v>204.5</v>
+      </c>
+      <c r="D66">
+        <v>255</v>
+      </c>
+      <c r="E66">
+        <v>1002.849595959595</v>
+      </c>
+      <c r="F66">
+        <v>31.66780061765571</v>
+      </c>
+      <c r="G66">
+        <v>85</v>
+      </c>
+      <c r="H66">
+        <v>170</v>
+      </c>
+      <c r="I66">
+        <v>255</v>
+      </c>
+      <c r="J66">
+        <v>181.75</v>
+      </c>
+      <c r="K66">
+        <v>204.5</v>
+      </c>
+      <c r="L66">
+        <v>249.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67">
+        <v>21128</v>
+      </c>
+      <c r="B67">
+        <v>211.28</v>
+      </c>
+      <c r="C67">
+        <v>199</v>
+      </c>
+      <c r="D67">
+        <v>255</v>
+      </c>
+      <c r="E67">
+        <v>1134.870303030303</v>
+      </c>
+      <c r="F67">
+        <v>33.68783612864297</v>
+      </c>
+      <c r="G67">
+        <v>87</v>
+      </c>
+      <c r="H67">
+        <v>168</v>
+      </c>
+      <c r="I67">
+        <v>255</v>
+      </c>
+      <c r="J67">
+        <v>179.75</v>
+      </c>
+      <c r="K67">
+        <v>199</v>
+      </c>
+      <c r="L67">
         <v>254</v>
       </c>
-      <c r="J5">
-        <v>196</v>
-      </c>
-      <c r="K5">
-        <v>230.5</v>
-      </c>
-      <c r="L5">
-        <v>253.25</v>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68">
+        <v>21155</v>
+      </c>
+      <c r="B68">
+        <v>211.55</v>
+      </c>
+      <c r="C68">
+        <v>201</v>
+      </c>
+      <c r="D68">
+        <v>255</v>
+      </c>
+      <c r="E68">
+        <v>1155.684343434343</v>
+      </c>
+      <c r="F68">
+        <v>33.99535767475235</v>
+      </c>
+      <c r="G68">
+        <v>89</v>
+      </c>
+      <c r="H68">
+        <v>166</v>
+      </c>
+      <c r="I68">
+        <v>255</v>
+      </c>
+      <c r="J68">
+        <v>179</v>
+      </c>
+      <c r="K68">
+        <v>201</v>
+      </c>
+      <c r="L68">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69">
+        <v>21271</v>
+      </c>
+      <c r="B69">
+        <v>212.71</v>
+      </c>
+      <c r="C69">
+        <v>201.5</v>
+      </c>
+      <c r="D69">
+        <v>255</v>
+      </c>
+      <c r="E69">
+        <v>1081.500909090908</v>
+      </c>
+      <c r="F69">
+        <v>32.88618112659036</v>
+      </c>
+      <c r="G69">
+        <v>86</v>
+      </c>
+      <c r="H69">
+        <v>169</v>
+      </c>
+      <c r="I69">
+        <v>255</v>
+      </c>
+      <c r="J69">
+        <v>182</v>
+      </c>
+      <c r="K69">
+        <v>201.5</v>
+      </c>
+      <c r="L69">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70">
+        <v>21187</v>
+      </c>
+      <c r="B70">
+        <v>211.87</v>
+      </c>
+      <c r="C70">
+        <v>206</v>
+      </c>
+      <c r="D70">
+        <v>255</v>
+      </c>
+      <c r="E70">
+        <v>1147.609191919192</v>
+      </c>
+      <c r="F70">
+        <v>33.87638103338654</v>
+      </c>
+      <c r="G70">
+        <v>88</v>
+      </c>
+      <c r="H70">
+        <v>167</v>
+      </c>
+      <c r="I70">
+        <v>255</v>
+      </c>
+      <c r="J70">
+        <v>181</v>
+      </c>
+      <c r="K70">
+        <v>206</v>
+      </c>
+      <c r="L70">
+        <v>254.25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71">
+        <v>21261</v>
+      </c>
+      <c r="B71">
+        <v>212.61</v>
+      </c>
+      <c r="C71">
+        <v>207.5</v>
+      </c>
+      <c r="D71">
+        <v>255</v>
+      </c>
+      <c r="E71">
+        <v>1158.886767676768</v>
+      </c>
+      <c r="F71">
+        <v>34.04242599575959</v>
+      </c>
+      <c r="G71">
+        <v>88</v>
+      </c>
+      <c r="H71">
+        <v>167</v>
+      </c>
+      <c r="I71">
+        <v>255</v>
+      </c>
+      <c r="J71">
+        <v>179.75</v>
+      </c>
+      <c r="K71">
+        <v>207.5</v>
+      </c>
+      <c r="L71">
+        <v>254.25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72">
+        <v>21291</v>
+      </c>
+      <c r="B72">
+        <v>212.91</v>
+      </c>
+      <c r="C72">
+        <v>209</v>
+      </c>
+      <c r="D72">
+        <v>255</v>
+      </c>
+      <c r="E72">
+        <v>1234.365555555555</v>
+      </c>
+      <c r="F72">
+        <v>35.13353889882936</v>
+      </c>
+      <c r="G72">
+        <v>91</v>
+      </c>
+      <c r="H72">
+        <v>164</v>
+      </c>
+      <c r="I72">
+        <v>255</v>
+      </c>
+      <c r="J72">
+        <v>175.75</v>
+      </c>
+      <c r="K72">
+        <v>209</v>
+      </c>
+      <c r="L72">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73">
+        <v>21294</v>
+      </c>
+      <c r="B73">
+        <v>212.94</v>
+      </c>
+      <c r="C73">
+        <v>212.5</v>
+      </c>
+      <c r="D73">
+        <v>255</v>
+      </c>
+      <c r="E73">
+        <v>1259.168080808081</v>
+      </c>
+      <c r="F73">
+        <v>35.48475842961427</v>
+      </c>
+      <c r="G73">
+        <v>92</v>
+      </c>
+      <c r="H73">
+        <v>163</v>
+      </c>
+      <c r="I73">
+        <v>255</v>
+      </c>
+      <c r="J73">
+        <v>176.75</v>
+      </c>
+      <c r="K73">
+        <v>212.5</v>
+      </c>
+      <c r="L73">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74">
+        <v>21399</v>
+      </c>
+      <c r="B74">
+        <v>213.99</v>
+      </c>
+      <c r="C74">
+        <v>212.5</v>
+      </c>
+      <c r="D74">
+        <v>255</v>
+      </c>
+      <c r="E74">
+        <v>1281.807979797979</v>
+      </c>
+      <c r="F74">
+        <v>35.80234600969577</v>
+      </c>
+      <c r="G74">
+        <v>91</v>
+      </c>
+      <c r="H74">
+        <v>164</v>
+      </c>
+      <c r="I74">
+        <v>255</v>
+      </c>
+      <c r="J74">
+        <v>177</v>
+      </c>
+      <c r="K74">
+        <v>212.5</v>
+      </c>
+      <c r="L74">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75">
+        <v>21445</v>
+      </c>
+      <c r="B75">
+        <v>214.45</v>
+      </c>
+      <c r="C75">
+        <v>214</v>
+      </c>
+      <c r="D75">
+        <v>255</v>
+      </c>
+      <c r="E75">
+        <v>1284.169191919193</v>
+      </c>
+      <c r="F75">
+        <v>35.83530649958491</v>
+      </c>
+      <c r="G75">
+        <v>92</v>
+      </c>
+      <c r="H75">
+        <v>163</v>
+      </c>
+      <c r="I75">
+        <v>255</v>
+      </c>
+      <c r="J75">
+        <v>177.75</v>
+      </c>
+      <c r="K75">
+        <v>214</v>
+      </c>
+      <c r="L75">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76">
+        <v>21594</v>
+      </c>
+      <c r="B76">
+        <v>215.94</v>
+      </c>
+      <c r="C76">
+        <v>217</v>
+      </c>
+      <c r="D76">
+        <v>255</v>
+      </c>
+      <c r="E76">
+        <v>1229.592323232323</v>
+      </c>
+      <c r="F76">
+        <v>35.06554324735784</v>
+      </c>
+      <c r="G76">
+        <v>93</v>
+      </c>
+      <c r="H76">
+        <v>162</v>
+      </c>
+      <c r="I76">
+        <v>255</v>
+      </c>
+      <c r="J76">
+        <v>178.75</v>
+      </c>
+      <c r="K76">
+        <v>217</v>
+      </c>
+      <c r="L76">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77">
+        <v>21561</v>
+      </c>
+      <c r="B77">
+        <v>215.61</v>
+      </c>
+      <c r="C77">
+        <v>216.5</v>
+      </c>
+      <c r="D77">
+        <v>255</v>
+      </c>
+      <c r="E77">
+        <v>1294.422121212122</v>
+      </c>
+      <c r="F77">
+        <v>35.97807834240347</v>
+      </c>
+      <c r="G77">
+        <v>95</v>
+      </c>
+      <c r="H77">
+        <v>160</v>
+      </c>
+      <c r="I77">
+        <v>255</v>
+      </c>
+      <c r="J77">
+        <v>178</v>
+      </c>
+      <c r="K77">
+        <v>216.5</v>
+      </c>
+      <c r="L77">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78">
+        <v>21668</v>
+      </c>
+      <c r="B78">
+        <v>216.68</v>
+      </c>
+      <c r="C78">
+        <v>218</v>
+      </c>
+      <c r="D78">
+        <v>255</v>
+      </c>
+      <c r="E78">
+        <v>1324.219797979798</v>
+      </c>
+      <c r="F78">
+        <v>36.38983096937657</v>
+      </c>
+      <c r="G78">
+        <v>96</v>
+      </c>
+      <c r="H78">
+        <v>159</v>
+      </c>
+      <c r="I78">
+        <v>255</v>
+      </c>
+      <c r="J78">
+        <v>177</v>
+      </c>
+      <c r="K78">
+        <v>218</v>
+      </c>
+      <c r="L78">
+        <v>252.25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79">
+        <v>21724</v>
+      </c>
+      <c r="B79">
+        <v>217.24</v>
+      </c>
+      <c r="C79">
+        <v>242</v>
+      </c>
+      <c r="D79">
+        <v>255</v>
+      </c>
+      <c r="E79">
+        <v>1357.315555555555</v>
+      </c>
+      <c r="F79">
+        <v>36.84176374110712</v>
+      </c>
+      <c r="G79">
+        <v>93</v>
+      </c>
+      <c r="H79">
+        <v>162</v>
+      </c>
+      <c r="I79">
+        <v>255</v>
+      </c>
+      <c r="J79">
+        <v>177.75</v>
+      </c>
+      <c r="K79">
+        <v>242</v>
+      </c>
+      <c r="L79">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80">
+        <v>21802</v>
+      </c>
+      <c r="B80">
+        <v>218.02</v>
+      </c>
+      <c r="C80">
+        <v>242</v>
+      </c>
+      <c r="D80">
+        <v>255</v>
+      </c>
+      <c r="E80">
+        <v>1346.524848484848</v>
+      </c>
+      <c r="F80">
+        <v>36.69502484649449</v>
+      </c>
+      <c r="G80">
+        <v>106</v>
+      </c>
+      <c r="H80">
+        <v>149</v>
+      </c>
+      <c r="I80">
+        <v>255</v>
+      </c>
+      <c r="J80">
+        <v>179.25</v>
+      </c>
+      <c r="K80">
+        <v>242</v>
+      </c>
+      <c r="L80">
+        <v>252.25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81">
+        <v>21827</v>
+      </c>
+      <c r="B81">
+        <v>218.27</v>
+      </c>
+      <c r="C81">
+        <v>234</v>
+      </c>
+      <c r="D81">
+        <v>255</v>
+      </c>
+      <c r="E81">
+        <v>1290.360707070707</v>
+      </c>
+      <c r="F81">
+        <v>35.92159109881838</v>
+      </c>
+      <c r="G81">
+        <v>100</v>
+      </c>
+      <c r="H81">
+        <v>155</v>
+      </c>
+      <c r="I81">
+        <v>255</v>
+      </c>
+      <c r="J81">
+        <v>183.75</v>
+      </c>
+      <c r="K81">
+        <v>234</v>
+      </c>
+      <c r="L81">
+        <v>252.25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82">
+        <v>21934</v>
+      </c>
+      <c r="B82">
+        <v>219.34</v>
+      </c>
+      <c r="C82">
+        <v>234</v>
+      </c>
+      <c r="D82">
+        <v>255</v>
+      </c>
+      <c r="E82">
+        <v>1182.004444444444</v>
+      </c>
+      <c r="F82">
+        <v>34.38029151191775</v>
+      </c>
+      <c r="G82">
+        <v>95</v>
+      </c>
+      <c r="H82">
+        <v>160</v>
+      </c>
+      <c r="I82">
+        <v>255</v>
+      </c>
+      <c r="J82">
+        <v>182.75</v>
+      </c>
+      <c r="K82">
+        <v>234</v>
+      </c>
+      <c r="L82">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83">
+        <v>22002</v>
+      </c>
+      <c r="B83">
+        <v>220.02</v>
+      </c>
+      <c r="C83">
+        <v>232.5</v>
+      </c>
+      <c r="D83">
+        <v>255</v>
+      </c>
+      <c r="E83">
+        <v>1103.070303030303</v>
+      </c>
+      <c r="F83">
+        <v>33.21250220971469</v>
+      </c>
+      <c r="G83">
+        <v>97</v>
+      </c>
+      <c r="H83">
+        <v>158</v>
+      </c>
+      <c r="I83">
+        <v>255</v>
+      </c>
+      <c r="J83">
+        <v>188.75</v>
+      </c>
+      <c r="K83">
+        <v>232.5</v>
+      </c>
+      <c r="L83">
+        <v>251.25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84">
+        <v>22024</v>
+      </c>
+      <c r="B84">
+        <v>220.24</v>
+      </c>
+      <c r="C84">
+        <v>235.5</v>
+      </c>
+      <c r="D84">
+        <v>255</v>
+      </c>
+      <c r="E84">
+        <v>1096.224646464646</v>
+      </c>
+      <c r="F84">
+        <v>33.10928338796608</v>
+      </c>
+      <c r="G84">
+        <v>99</v>
+      </c>
+      <c r="H84">
+        <v>156</v>
+      </c>
+      <c r="I84">
+        <v>255</v>
+      </c>
+      <c r="J84">
+        <v>186</v>
+      </c>
+      <c r="K84">
+        <v>235.5</v>
+      </c>
+      <c r="L84">
+        <v>251.25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85">
+        <v>21824</v>
+      </c>
+      <c r="B85">
+        <v>218.24</v>
+      </c>
+      <c r="C85">
+        <v>235</v>
+      </c>
+      <c r="D85">
+        <v>255</v>
+      </c>
+      <c r="E85">
+        <v>1270.628686868688</v>
+      </c>
+      <c r="F85">
+        <v>35.64587896052905</v>
+      </c>
+      <c r="G85">
+        <v>105</v>
+      </c>
+      <c r="H85">
+        <v>150</v>
+      </c>
+      <c r="I85">
+        <v>255</v>
+      </c>
+      <c r="J85">
+        <v>181</v>
+      </c>
+      <c r="K85">
+        <v>235</v>
+      </c>
+      <c r="L85">
+        <v>251.25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86">
+        <v>21624</v>
+      </c>
+      <c r="B86">
+        <v>216.24</v>
+      </c>
+      <c r="C86">
+        <v>235.5</v>
+      </c>
+      <c r="D86">
+        <v>255</v>
+      </c>
+      <c r="E86">
+        <v>1461.113535353535</v>
+      </c>
+      <c r="F86">
+        <v>38.22451484785039</v>
+      </c>
+      <c r="G86">
+        <v>107</v>
+      </c>
+      <c r="H86">
+        <v>148</v>
+      </c>
+      <c r="I86">
+        <v>255</v>
+      </c>
+      <c r="J86">
+        <v>176.75</v>
+      </c>
+      <c r="K86">
+        <v>235.5</v>
+      </c>
+      <c r="L86">
+        <v>251.25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87">
+        <v>21479</v>
+      </c>
+      <c r="B87">
+        <v>214.79</v>
+      </c>
+      <c r="C87">
+        <v>232.5</v>
+      </c>
+      <c r="D87">
+        <v>255</v>
+      </c>
+      <c r="E87">
+        <v>1606.187777777776</v>
+      </c>
+      <c r="F87">
+        <v>40.07727258406909</v>
+      </c>
+      <c r="G87">
+        <v>112</v>
+      </c>
+      <c r="H87">
+        <v>143</v>
+      </c>
+      <c r="I87">
+        <v>255</v>
+      </c>
+      <c r="J87">
+        <v>173</v>
+      </c>
+      <c r="K87">
+        <v>232.5</v>
+      </c>
+      <c r="L87">
+        <v>251.25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88">
+        <v>21405</v>
+      </c>
+      <c r="B88">
+        <v>214.05</v>
+      </c>
+      <c r="C88">
+        <v>234</v>
+      </c>
+      <c r="D88">
+        <v>255</v>
+      </c>
+      <c r="E88">
+        <v>1844.189393939394</v>
+      </c>
+      <c r="F88">
+        <v>42.94402628933847</v>
+      </c>
+      <c r="G88">
+        <v>122</v>
+      </c>
+      <c r="H88">
+        <v>133</v>
+      </c>
+      <c r="I88">
+        <v>255</v>
+      </c>
+      <c r="J88">
+        <v>176.75</v>
+      </c>
+      <c r="K88">
+        <v>234</v>
+      </c>
+      <c r="L88">
+        <v>252.25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89">
+        <v>21682</v>
+      </c>
+      <c r="B89">
+        <v>216.82</v>
+      </c>
+      <c r="C89">
+        <v>238</v>
+      </c>
+      <c r="D89">
+        <v>255</v>
+      </c>
+      <c r="E89">
+        <v>1763.341010101008</v>
+      </c>
+      <c r="F89">
+        <v>41.99215414932899</v>
+      </c>
+      <c r="G89">
+        <v>119</v>
+      </c>
+      <c r="H89">
+        <v>136</v>
+      </c>
+      <c r="I89">
+        <v>255</v>
+      </c>
+      <c r="J89">
+        <v>183.25</v>
+      </c>
+      <c r="K89">
+        <v>238</v>
+      </c>
+      <c r="L89">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90">
+        <v>22510</v>
+      </c>
+      <c r="B90">
+        <v>225.1</v>
+      </c>
+      <c r="C90">
+        <v>241</v>
+      </c>
+      <c r="D90">
+        <v>255</v>
+      </c>
+      <c r="E90">
+        <v>1035.121212121212</v>
+      </c>
+      <c r="F90">
+        <v>32.17329967723565</v>
+      </c>
+      <c r="G90">
+        <v>90</v>
+      </c>
+      <c r="H90">
+        <v>165</v>
+      </c>
+      <c r="I90">
+        <v>255</v>
+      </c>
+      <c r="J90">
+        <v>199.5</v>
+      </c>
+      <c r="K90">
+        <v>241</v>
+      </c>
+      <c r="L90">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91">
+        <v>23270</v>
+      </c>
+      <c r="B91">
+        <v>232.7</v>
+      </c>
+      <c r="C91">
+        <v>245</v>
+      </c>
+      <c r="D91">
+        <v>255</v>
+      </c>
+      <c r="E91">
+        <v>561.6868686868687</v>
+      </c>
+      <c r="F91">
+        <v>23.69993393844947</v>
+      </c>
+      <c r="G91">
+        <v>69</v>
+      </c>
+      <c r="H91">
+        <v>186</v>
+      </c>
+      <c r="I91">
+        <v>255</v>
+      </c>
+      <c r="J91">
+        <v>214</v>
+      </c>
+      <c r="K91">
+        <v>245</v>
+      </c>
+      <c r="L91">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92">
+        <v>23899</v>
+      </c>
+      <c r="B92">
+        <v>238.99</v>
+      </c>
+      <c r="C92">
+        <v>248</v>
+      </c>
+      <c r="D92">
+        <v>255</v>
+      </c>
+      <c r="E92">
+        <v>292.959494949495</v>
+      </c>
+      <c r="F92">
+        <v>17.11605956257149</v>
+      </c>
+      <c r="G92">
+        <v>48</v>
+      </c>
+      <c r="H92">
+        <v>207</v>
+      </c>
+      <c r="I92">
+        <v>255</v>
+      </c>
+      <c r="J92">
+        <v>223.75</v>
+      </c>
+      <c r="K92">
+        <v>248</v>
+      </c>
+      <c r="L92">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93">
+        <v>24355</v>
+      </c>
+      <c r="B93">
+        <v>243.55</v>
+      </c>
+      <c r="C93">
+        <v>251</v>
+      </c>
+      <c r="D93">
+        <v>255</v>
+      </c>
+      <c r="E93">
+        <v>165.3611111111111</v>
+      </c>
+      <c r="F93">
+        <v>12.85928112730689</v>
+      </c>
+      <c r="G93">
+        <v>37</v>
+      </c>
+      <c r="H93">
+        <v>218</v>
+      </c>
+      <c r="I93">
+        <v>255</v>
+      </c>
+      <c r="J93">
+        <v>231.75</v>
+      </c>
+      <c r="K93">
+        <v>251</v>
+      </c>
+      <c r="L93">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94">
+        <v>24745</v>
+      </c>
+      <c r="B94">
+        <v>247.45</v>
+      </c>
+      <c r="C94">
+        <v>250</v>
+      </c>
+      <c r="D94">
+        <v>255</v>
+      </c>
+      <c r="E94">
+        <v>64.91666666666674</v>
+      </c>
+      <c r="F94">
+        <v>8.057087976847885</v>
+      </c>
+      <c r="G94">
+        <v>23</v>
+      </c>
+      <c r="H94">
+        <v>232</v>
+      </c>
+      <c r="I94">
+        <v>255</v>
+      </c>
+      <c r="J94">
+        <v>240</v>
+      </c>
+      <c r="K94">
+        <v>250</v>
+      </c>
+      <c r="L94">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95">
+        <v>24964</v>
+      </c>
+      <c r="B95">
+        <v>249.64</v>
+      </c>
+      <c r="C95">
+        <v>252</v>
+      </c>
+      <c r="D95">
+        <v>255</v>
+      </c>
+      <c r="E95">
+        <v>31.76808080808082</v>
+      </c>
+      <c r="F95">
+        <v>5.636318018714063</v>
+      </c>
+      <c r="G95">
+        <v>16</v>
+      </c>
+      <c r="H95">
+        <v>239</v>
+      </c>
+      <c r="I95">
+        <v>255</v>
+      </c>
+      <c r="J95">
+        <v>244</v>
+      </c>
+      <c r="K95">
+        <v>252</v>
+      </c>
+      <c r="L95">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96">
+        <v>25240</v>
+      </c>
+      <c r="B96">
+        <v>252.4</v>
+      </c>
+      <c r="C96">
+        <v>254</v>
+      </c>
+      <c r="D96">
+        <v>255</v>
+      </c>
+      <c r="E96">
+        <v>9.353535353535353</v>
+      </c>
+      <c r="F96">
+        <v>3.058355007767305</v>
+      </c>
+      <c r="G96">
+        <v>9</v>
+      </c>
+      <c r="H96">
+        <v>246</v>
+      </c>
+      <c r="I96">
+        <v>255</v>
+      </c>
+      <c r="J96">
+        <v>251</v>
+      </c>
+      <c r="K96">
+        <v>254</v>
+      </c>
+      <c r="L96">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97">
+        <v>25455</v>
+      </c>
+      <c r="B97">
+        <v>254.55</v>
+      </c>
+      <c r="C97">
+        <v>255</v>
+      </c>
+      <c r="D97">
+        <v>255</v>
+      </c>
+      <c r="E97">
+        <v>0.4318181818181804</v>
+      </c>
+      <c r="F97">
+        <v>0.6571287406727698</v>
+      </c>
+      <c r="G97">
+        <v>2</v>
+      </c>
+      <c r="H97">
+        <v>253</v>
+      </c>
+      <c r="I97">
+        <v>255</v>
+      </c>
+      <c r="J97">
+        <v>254</v>
+      </c>
+      <c r="K97">
+        <v>255</v>
+      </c>
+      <c r="L97">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98">
+        <v>25456</v>
+      </c>
+      <c r="B98">
+        <v>254.56</v>
+      </c>
+      <c r="C98">
+        <v>255</v>
+      </c>
+      <c r="D98">
+        <v>255</v>
+      </c>
+      <c r="E98">
+        <v>0.2892929292929285</v>
+      </c>
+      <c r="F98">
+        <v>0.5378595813899094</v>
+      </c>
+      <c r="G98">
+        <v>2</v>
+      </c>
+      <c r="H98">
+        <v>253</v>
+      </c>
+      <c r="I98">
+        <v>255</v>
+      </c>
+      <c r="J98">
+        <v>254</v>
+      </c>
+      <c r="K98">
+        <v>255</v>
+      </c>
+      <c r="L98">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99">
+        <v>25485</v>
+      </c>
+      <c r="B99">
+        <v>254.85</v>
+      </c>
+      <c r="C99">
+        <v>255</v>
+      </c>
+      <c r="D99">
+        <v>255</v>
+      </c>
+      <c r="E99">
+        <v>0.1287878787878785</v>
+      </c>
+      <c r="F99">
+        <v>0.3588702812826363</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>254</v>
+      </c>
+      <c r="I99">
+        <v>255</v>
+      </c>
+      <c r="J99">
+        <v>255</v>
+      </c>
+      <c r="K99">
+        <v>255</v>
+      </c>
+      <c r="L99">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100">
+        <v>25500</v>
+      </c>
+      <c r="B100">
+        <v>255</v>
+      </c>
+      <c r="C100">
+        <v>255</v>
+      </c>
+      <c r="D100">
+        <v>255</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>255</v>
+      </c>
+      <c r="I100">
+        <v>255</v>
+      </c>
+      <c r="J100">
+        <v>255</v>
+      </c>
+      <c r="K100">
+        <v>255</v>
+      </c>
+      <c r="L100">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101">
+        <v>25500</v>
+      </c>
+      <c r="B101">
+        <v>255</v>
+      </c>
+      <c r="C101">
+        <v>255</v>
+      </c>
+      <c r="D101">
+        <v>255</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>255</v>
+      </c>
+      <c r="I101">
+        <v>255</v>
+      </c>
+      <c r="J101">
+        <v>255</v>
+      </c>
+      <c r="K101">
+        <v>255</v>
+      </c>
+      <c r="L101">
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga2_RGB_Vector.xlsx
+++ b/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga2_RGB_Vector.xlsx
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,10 +453,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>25444</v>
+        <v>50886</v>
       </c>
       <c r="B2">
-        <v>254.44</v>
+        <v>254.43</v>
       </c>
       <c r="C2">
         <v>255</v>
@@ -465,16 +465,16 @@
         <v>255</v>
       </c>
       <c r="E2">
-        <v>1.824646464646468</v>
+        <v>1.82422110552765</v>
       </c>
       <c r="F2">
-        <v>1.350794752968218</v>
+        <v>1.350637296067175</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I2">
         <v>255</v>
@@ -491,10 +491,10 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>25476</v>
+        <v>50893</v>
       </c>
       <c r="B3">
-        <v>254.76</v>
+        <v>254.465</v>
       </c>
       <c r="C3">
         <v>255</v>
@@ -503,16 +503,16 @@
         <v>255</v>
       </c>
       <c r="E3">
-        <v>0.5680808080808096</v>
+        <v>1.757562814070355</v>
       </c>
       <c r="F3">
-        <v>0.7537113559452383</v>
+        <v>1.325731048919937</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I3">
         <v>255</v>
@@ -529,10 +529,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>25469</v>
+        <v>50933</v>
       </c>
       <c r="B4">
-        <v>254.69</v>
+        <v>254.665</v>
       </c>
       <c r="C4">
         <v>255</v>
@@ -541,16 +541,16 @@
         <v>255</v>
       </c>
       <c r="E4">
-        <v>0.9837373737373755</v>
+        <v>0.7967587939698442</v>
       </c>
       <c r="F4">
-        <v>0.991835356164205</v>
+        <v>0.8926134627989005</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I4">
         <v>255</v>
@@ -567,10 +567,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>25451</v>
+        <v>50970</v>
       </c>
       <c r="B5">
-        <v>254.51</v>
+        <v>254.85</v>
       </c>
       <c r="C5">
         <v>255</v>
@@ -579,10 +579,10 @@
         <v>255</v>
       </c>
       <c r="E5">
-        <v>1.747373737373739</v>
+        <v>0.5100502512562841</v>
       </c>
       <c r="F5">
-        <v>1.321882648866282</v>
+        <v>0.714178024904354</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -605,10 +605,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>25430</v>
+        <v>50950</v>
       </c>
       <c r="B6">
-        <v>254.3</v>
+        <v>254.75</v>
       </c>
       <c r="C6">
         <v>255</v>
@@ -617,22 +617,22 @@
         <v>255</v>
       </c>
       <c r="E6">
-        <v>2.010101010101008</v>
+        <v>0.7311557788944724</v>
       </c>
       <c r="F6">
-        <v>1.417780310944192</v>
+        <v>0.8550764754654828</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I6">
         <v>255</v>
       </c>
       <c r="J6">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K6">
         <v>255</v>
@@ -643,37 +643,37 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
-        <v>25376</v>
+        <v>50924</v>
       </c>
       <c r="B7">
-        <v>253.76</v>
+        <v>254.62</v>
       </c>
       <c r="C7">
-        <v>254.5</v>
+        <v>255</v>
       </c>
       <c r="D7">
         <v>255</v>
       </c>
       <c r="E7">
-        <v>3.355959595959591</v>
+        <v>1.161407035175877</v>
       </c>
       <c r="F7">
-        <v>1.831927835903912</v>
+        <v>1.077685963152475</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H7">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I7">
         <v>255</v>
       </c>
       <c r="J7">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K7">
-        <v>254.5</v>
+        <v>255</v>
       </c>
       <c r="L7">
         <v>255</v>
@@ -681,10 +681,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>25322</v>
+        <v>50905</v>
       </c>
       <c r="B8">
-        <v>253.22</v>
+        <v>254.525</v>
       </c>
       <c r="C8">
         <v>255</v>
@@ -693,22 +693,22 @@
         <v>255</v>
       </c>
       <c r="E8">
-        <v>13.26424242424243</v>
+        <v>1.748115577889442</v>
       </c>
       <c r="F8">
-        <v>3.64201076662912</v>
+        <v>1.32216321908055</v>
       </c>
       <c r="G8">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="H8">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="I8">
         <v>255</v>
       </c>
       <c r="J8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K8">
         <v>255</v>
@@ -719,10 +719,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
-        <v>25115</v>
+        <v>50897</v>
       </c>
       <c r="B9">
-        <v>251.15</v>
+        <v>254.485</v>
       </c>
       <c r="C9">
         <v>255</v>
@@ -731,22 +731,22 @@
         <v>255</v>
       </c>
       <c r="E9">
-        <v>319.3409090909087</v>
+        <v>2.009824120603016</v>
       </c>
       <c r="F9">
-        <v>17.87011217342825</v>
+        <v>1.417682658638038</v>
       </c>
       <c r="G9">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="H9">
-        <v>115</v>
+        <v>248</v>
       </c>
       <c r="I9">
         <v>255</v>
       </c>
       <c r="J9">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K9">
         <v>255</v>
@@ -757,10 +757,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
-        <v>24467</v>
+        <v>50866</v>
       </c>
       <c r="B10">
-        <v>244.67</v>
+        <v>254.33</v>
       </c>
       <c r="C10">
         <v>255</v>
@@ -769,22 +769,22 @@
         <v>255</v>
       </c>
       <c r="E10">
-        <v>774.9910101010095</v>
+        <v>2.141809045226129</v>
       </c>
       <c r="F10">
-        <v>27.83866035032953</v>
+        <v>1.463492072143245</v>
       </c>
       <c r="G10">
-        <v>179</v>
+        <v>8</v>
       </c>
       <c r="H10">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="I10">
         <v>255</v>
       </c>
       <c r="J10">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K10">
         <v>255</v>
@@ -795,10 +795,10 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
-        <v>24110</v>
+        <v>50853</v>
       </c>
       <c r="B11">
-        <v>241.1</v>
+        <v>254.265</v>
       </c>
       <c r="C11">
         <v>255</v>
@@ -807,22 +807,22 @@
         <v>255</v>
       </c>
       <c r="E11">
-        <v>911.7070707070721</v>
+        <v>1.944497487437186</v>
       </c>
       <c r="F11">
-        <v>30.19448742249274</v>
+        <v>1.39445239697782</v>
       </c>
       <c r="G11">
-        <v>173</v>
+        <v>7</v>
       </c>
       <c r="H11">
-        <v>82</v>
+        <v>248</v>
       </c>
       <c r="I11">
         <v>255</v>
       </c>
       <c r="J11">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="K11">
         <v>255</v>
@@ -833,10 +833,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12">
-        <v>23963</v>
+        <v>50819</v>
       </c>
       <c r="B12">
-        <v>239.63</v>
+        <v>254.095</v>
       </c>
       <c r="C12">
         <v>255</v>
@@ -845,22 +845,22 @@
         <v>255</v>
       </c>
       <c r="E12">
-        <v>786.9021212121222</v>
+        <v>2.418065326633171</v>
       </c>
       <c r="F12">
-        <v>28.05177572297558</v>
+        <v>1.555012966709015</v>
       </c>
       <c r="G12">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="H12">
-        <v>117</v>
+        <v>247</v>
       </c>
       <c r="I12">
         <v>255</v>
       </c>
       <c r="J12">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="K12">
         <v>255</v>
@@ -871,37 +871,37 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
-        <v>23915</v>
+        <v>50713</v>
       </c>
       <c r="B13">
-        <v>239.15</v>
+        <v>253.565</v>
       </c>
       <c r="C13">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D13">
         <v>255</v>
       </c>
       <c r="E13">
-        <v>559.6843434343427</v>
+        <v>5.593743718592956</v>
       </c>
       <c r="F13">
-        <v>23.65764873004802</v>
+        <v>2.365109663121978</v>
       </c>
       <c r="G13">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="H13">
-        <v>138</v>
+        <v>241</v>
       </c>
       <c r="I13">
         <v>255</v>
       </c>
       <c r="J13">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="K13">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L13">
         <v>255</v>
@@ -909,37 +909,37 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14">
-        <v>23856</v>
+        <v>50693</v>
       </c>
       <c r="B14">
-        <v>238.56</v>
+        <v>253.465</v>
       </c>
       <c r="C14">
-        <v>251.5</v>
+        <v>255</v>
       </c>
       <c r="D14">
         <v>255</v>
       </c>
       <c r="E14">
-        <v>597.4004040404041</v>
+        <v>6.591733668341706</v>
       </c>
       <c r="F14">
-        <v>24.44177579555962</v>
+        <v>2.567437179044836</v>
       </c>
       <c r="G14">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="H14">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="I14">
         <v>255</v>
       </c>
       <c r="J14">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="K14">
-        <v>251.5</v>
+        <v>255</v>
       </c>
       <c r="L14">
         <v>255</v>
@@ -947,37 +947,37 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15">
-        <v>23865</v>
+        <v>50527</v>
       </c>
       <c r="B15">
-        <v>238.65</v>
+        <v>252.635</v>
       </c>
       <c r="C15">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D15">
         <v>255</v>
       </c>
       <c r="E15">
-        <v>485.6641414141418</v>
+        <v>66.21283919598</v>
       </c>
       <c r="F15">
-        <v>22.03778894113794</v>
+        <v>8.137127207803747</v>
       </c>
       <c r="G15">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="H15">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="I15">
         <v>255</v>
       </c>
       <c r="J15">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="K15">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L15">
         <v>255</v>
@@ -985,37 +985,37 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16">
-        <v>23944</v>
+        <v>50321</v>
       </c>
       <c r="B16">
-        <v>239.44</v>
+        <v>251.605</v>
       </c>
       <c r="C16">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D16">
         <v>255</v>
       </c>
       <c r="E16">
-        <v>418.673131313131</v>
+        <v>252.50148241206</v>
       </c>
       <c r="F16">
-        <v>20.46150364252664</v>
+        <v>15.89029522734112</v>
       </c>
       <c r="G16">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="H16">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="I16">
         <v>255</v>
       </c>
       <c r="J16">
-        <v>224</v>
+        <v>253.75</v>
       </c>
       <c r="K16">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L16">
         <v>255</v>
@@ -1023,37 +1023,37 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17">
-        <v>23655</v>
+        <v>50131</v>
       </c>
       <c r="B17">
-        <v>236.55</v>
+        <v>250.655</v>
       </c>
       <c r="C17">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D17">
         <v>255</v>
       </c>
       <c r="E17">
-        <v>446.7954545454542</v>
+        <v>425.1316331658298</v>
       </c>
       <c r="F17">
-        <v>21.13753662434329</v>
+        <v>20.61872045413657</v>
       </c>
       <c r="G17">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="H17">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="I17">
         <v>255</v>
       </c>
       <c r="J17">
-        <v>219.75</v>
+        <v>254</v>
       </c>
       <c r="K17">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="L17">
         <v>255</v>
@@ -1061,37 +1061,37 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18">
-        <v>23186</v>
+        <v>49295</v>
       </c>
       <c r="B18">
-        <v>231.86</v>
+        <v>246.475</v>
       </c>
       <c r="C18">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="D18">
         <v>255</v>
       </c>
       <c r="E18">
-        <v>620.9498989898993</v>
+        <v>637.9089195979907</v>
       </c>
       <c r="F18">
-        <v>24.91886632633795</v>
+        <v>25.25685886245538</v>
       </c>
       <c r="G18">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="H18">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="I18">
         <v>255</v>
       </c>
       <c r="J18">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="K18">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="L18">
         <v>255</v>
@@ -1099,37 +1099,37 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19">
-        <v>22774</v>
+        <v>48765</v>
       </c>
       <c r="B19">
-        <v>227.74</v>
+        <v>243.825</v>
       </c>
       <c r="C19">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="D19">
         <v>255</v>
       </c>
       <c r="E19">
-        <v>819.487272727273</v>
+        <v>807.7129396984905</v>
       </c>
       <c r="F19">
-        <v>28.62668812013141</v>
+        <v>28.42029098546478</v>
       </c>
       <c r="G19">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="H19">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="I19">
         <v>255</v>
       </c>
       <c r="J19">
-        <v>208.75</v>
+        <v>249</v>
       </c>
       <c r="K19">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="L19">
         <v>255</v>
@@ -1137,37 +1137,37 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20">
-        <v>22788</v>
+        <v>48422</v>
       </c>
       <c r="B20">
-        <v>227.88</v>
+        <v>242.11</v>
       </c>
       <c r="C20">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="D20">
         <v>255</v>
       </c>
       <c r="E20">
-        <v>998.7531313131306</v>
+        <v>889.1134673366853</v>
       </c>
       <c r="F20">
-        <v>31.60305572746298</v>
+        <v>29.81800575720458</v>
       </c>
       <c r="G20">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="H20">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="I20">
         <v>255</v>
       </c>
       <c r="J20">
-        <v>213.75</v>
+        <v>241</v>
       </c>
       <c r="K20">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="L20">
         <v>255</v>
@@ -1175,37 +1175,37 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21">
-        <v>22967</v>
+        <v>47987</v>
       </c>
       <c r="B21">
-        <v>229.67</v>
+        <v>239.935</v>
       </c>
       <c r="C21">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="D21">
         <v>255</v>
       </c>
       <c r="E21">
-        <v>844.0819191919205</v>
+        <v>987.5987688442199</v>
       </c>
       <c r="F21">
-        <v>29.05308794589519</v>
+        <v>31.42608421111704</v>
       </c>
       <c r="G21">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="H21">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="I21">
         <v>255</v>
       </c>
       <c r="J21">
-        <v>219.5</v>
+        <v>239.75</v>
       </c>
       <c r="K21">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="L21">
         <v>255</v>
@@ -1213,37 +1213,37 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22">
-        <v>23052</v>
+        <v>47947</v>
       </c>
       <c r="B22">
-        <v>230.52</v>
+        <v>239.735</v>
       </c>
       <c r="C22">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="D22">
         <v>255</v>
       </c>
       <c r="E22">
-        <v>706.4743434343432</v>
+        <v>779.1103266331618</v>
       </c>
       <c r="F22">
-        <v>26.57958508770111</v>
+        <v>27.91254783485667</v>
       </c>
       <c r="G22">
+        <v>143</v>
+      </c>
+      <c r="H22">
         <v>112</v>
       </c>
-      <c r="H22">
-        <v>143</v>
-      </c>
       <c r="I22">
         <v>255</v>
       </c>
       <c r="J22">
-        <v>215.5</v>
+        <v>235</v>
       </c>
       <c r="K22">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="L22">
         <v>255</v>
@@ -1251,37 +1251,37 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23">
-        <v>23341</v>
+        <v>47901</v>
       </c>
       <c r="B23">
-        <v>233.41</v>
+        <v>239.505</v>
       </c>
       <c r="C23">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="D23">
         <v>255</v>
       </c>
       <c r="E23">
-        <v>602.8302020202024</v>
+        <v>661.9899246231158</v>
       </c>
       <c r="F23">
-        <v>24.55260071805434</v>
+        <v>25.72916486447074</v>
       </c>
       <c r="G23">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="H23">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="I23">
         <v>255</v>
       </c>
       <c r="J23">
-        <v>225.75</v>
+        <v>234</v>
       </c>
       <c r="K23">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="L23">
         <v>255</v>
@@ -1289,37 +1289,37 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24">
-        <v>23461</v>
+        <v>47838</v>
       </c>
       <c r="B24">
-        <v>234.61</v>
+        <v>239.19</v>
       </c>
       <c r="C24">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="D24">
         <v>255</v>
       </c>
       <c r="E24">
-        <v>532.624141414141</v>
+        <v>607.7325628140695</v>
       </c>
       <c r="F24">
-        <v>23.0786512043954</v>
+        <v>24.65223241035321</v>
       </c>
       <c r="G24">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="H24">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="I24">
         <v>255</v>
       </c>
       <c r="J24">
-        <v>226.75</v>
+        <v>231.75</v>
       </c>
       <c r="K24">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="L24">
         <v>255</v>
@@ -1327,37 +1327,37 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25">
-        <v>23284</v>
+        <v>47813</v>
       </c>
       <c r="B25">
-        <v>232.84</v>
+        <v>239.065</v>
       </c>
       <c r="C25">
-        <v>238</v>
+        <v>251.5</v>
       </c>
       <c r="D25">
         <v>255</v>
       </c>
       <c r="E25">
-        <v>530.418585858586</v>
+        <v>567.2470100502502</v>
       </c>
       <c r="F25">
-        <v>23.03081817605675</v>
+        <v>23.81694795833946</v>
       </c>
       <c r="G25">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="H25">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="I25">
         <v>255</v>
       </c>
       <c r="J25">
-        <v>222.75</v>
+        <v>232</v>
       </c>
       <c r="K25">
-        <v>238</v>
+        <v>251.5</v>
       </c>
       <c r="L25">
         <v>255</v>
@@ -1365,37 +1365,37 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26">
-        <v>23322</v>
+        <v>47733</v>
       </c>
       <c r="B26">
-        <v>233.22</v>
+        <v>238.665</v>
       </c>
       <c r="C26">
-        <v>237.5</v>
+        <v>251</v>
       </c>
       <c r="D26">
         <v>255</v>
       </c>
       <c r="E26">
-        <v>573.9511111111111</v>
+        <v>554.8269095477398</v>
       </c>
       <c r="F26">
-        <v>23.95727678829777</v>
+        <v>23.55476405204985</v>
       </c>
       <c r="G26">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="H26">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="I26">
         <v>255</v>
       </c>
       <c r="J26">
-        <v>221.25</v>
+        <v>230.75</v>
       </c>
       <c r="K26">
-        <v>237.5</v>
+        <v>251</v>
       </c>
       <c r="L26">
         <v>255</v>
@@ -1403,75 +1403,75 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27">
-        <v>23365</v>
+        <v>47697</v>
       </c>
       <c r="B27">
-        <v>233.65</v>
+        <v>238.485</v>
       </c>
       <c r="C27">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="D27">
         <v>255</v>
       </c>
       <c r="E27">
-        <v>518.4520202020209</v>
+        <v>563.3063065326638</v>
       </c>
       <c r="F27">
-        <v>22.76954150179623</v>
+        <v>23.73407479832875</v>
       </c>
       <c r="G27">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H27">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I27">
         <v>255</v>
       </c>
       <c r="J27">
-        <v>227.75</v>
+        <v>229.75</v>
       </c>
       <c r="K27">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="L27">
-        <v>254.25</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28">
-        <v>23408</v>
+        <v>47711</v>
       </c>
       <c r="B28">
-        <v>234.08</v>
+        <v>238.555</v>
       </c>
       <c r="C28">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="D28">
         <v>255</v>
       </c>
       <c r="E28">
-        <v>509.7713131313129</v>
+        <v>537.5245979899488</v>
       </c>
       <c r="F28">
-        <v>22.57811580117599</v>
+        <v>23.18457672656434</v>
       </c>
       <c r="G28">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H28">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="I28">
         <v>255</v>
       </c>
       <c r="J28">
-        <v>227</v>
+        <v>227.75</v>
       </c>
       <c r="K28">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="L28">
         <v>255</v>
@@ -1479,66 +1479,66 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29">
-        <v>23395</v>
+        <v>47752</v>
       </c>
       <c r="B29">
-        <v>233.95</v>
+        <v>238.76</v>
       </c>
       <c r="C29">
-        <v>238.5</v>
+        <v>251</v>
       </c>
       <c r="D29">
         <v>255</v>
       </c>
       <c r="E29">
-        <v>521.0782828282828</v>
+        <v>456.896884422109</v>
       </c>
       <c r="F29">
-        <v>22.82713917310452</v>
+        <v>21.37514641872913</v>
       </c>
       <c r="G29">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H29">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="I29">
         <v>255</v>
       </c>
       <c r="J29">
-        <v>227</v>
+        <v>226.75</v>
       </c>
       <c r="K29">
-        <v>238.5</v>
+        <v>251</v>
       </c>
       <c r="L29">
-        <v>253.25</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30">
-        <v>23344</v>
+        <v>47841</v>
       </c>
       <c r="B30">
-        <v>233.44</v>
+        <v>239.205</v>
       </c>
       <c r="C30">
-        <v>237.5</v>
+        <v>250</v>
       </c>
       <c r="D30">
         <v>255</v>
       </c>
       <c r="E30">
-        <v>529.4812121212119</v>
+        <v>394.9175628140708</v>
       </c>
       <c r="F30">
-        <v>23.01045875512289</v>
+        <v>19.87253287364424</v>
       </c>
       <c r="G30">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="H30">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I30">
         <v>255</v>
@@ -1547,1956 +1547,1956 @@
         <v>226</v>
       </c>
       <c r="K30">
-        <v>237.5</v>
+        <v>250</v>
       </c>
       <c r="L30">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31">
-        <v>23274</v>
+        <v>47802</v>
       </c>
       <c r="B31">
-        <v>232.74</v>
+        <v>239.01</v>
       </c>
       <c r="C31">
-        <v>235.5</v>
+        <v>250</v>
       </c>
       <c r="D31">
         <v>255</v>
       </c>
       <c r="E31">
-        <v>523.8711111111107</v>
+        <v>402.643115577889</v>
       </c>
       <c r="F31">
-        <v>22.88823084275215</v>
+        <v>20.06596909142165</v>
       </c>
       <c r="G31">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="H31">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="I31">
         <v>255</v>
       </c>
       <c r="J31">
-        <v>225</v>
+        <v>223.75</v>
       </c>
       <c r="K31">
-        <v>235.5</v>
+        <v>250</v>
       </c>
       <c r="L31">
-        <v>252.25</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32">
-        <v>23256</v>
+        <v>47559</v>
       </c>
       <c r="B32">
-        <v>232.56</v>
+        <v>237.795</v>
       </c>
       <c r="C32">
-        <v>238.5</v>
+        <v>250</v>
       </c>
       <c r="D32">
         <v>255</v>
       </c>
       <c r="E32">
-        <v>539.2387878787875</v>
+        <v>432.7266080402016</v>
       </c>
       <c r="F32">
-        <v>23.221515624067</v>
+        <v>20.80208181986124</v>
       </c>
       <c r="G32">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="H32">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I32">
         <v>255</v>
       </c>
       <c r="J32">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K32">
-        <v>238.5</v>
+        <v>250</v>
       </c>
       <c r="L32">
-        <v>252.25</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33">
-        <v>23205</v>
+        <v>47061</v>
       </c>
       <c r="B33">
-        <v>232.05</v>
+        <v>235.305</v>
       </c>
       <c r="C33">
-        <v>237.5</v>
+        <v>248</v>
       </c>
       <c r="D33">
         <v>255</v>
       </c>
       <c r="E33">
-        <v>574.8964646464643</v>
+        <v>498.3838944723617</v>
       </c>
       <c r="F33">
-        <v>23.97699865801523</v>
+        <v>22.32451330874565</v>
       </c>
       <c r="G33">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H33">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="I33">
         <v>255</v>
       </c>
       <c r="J33">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K33">
-        <v>237.5</v>
+        <v>248</v>
       </c>
       <c r="L33">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34">
-        <v>23072</v>
+        <v>46570</v>
       </c>
       <c r="B34">
-        <v>230.72</v>
+        <v>232.85</v>
       </c>
       <c r="C34">
-        <v>238</v>
+        <v>239.5</v>
       </c>
       <c r="D34">
         <v>255</v>
       </c>
       <c r="E34">
-        <v>579.6985858585861</v>
+        <v>564.902010050251</v>
       </c>
       <c r="F34">
-        <v>24.07693057386232</v>
+        <v>23.76766732454514</v>
       </c>
       <c r="G34">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H34">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I34">
         <v>255</v>
       </c>
       <c r="J34">
-        <v>218</v>
+        <v>214.75</v>
       </c>
       <c r="K34">
-        <v>238</v>
+        <v>239.5</v>
       </c>
       <c r="L34">
-        <v>250.25</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35">
-        <v>23085</v>
+        <v>46056</v>
       </c>
       <c r="B35">
-        <v>230.85</v>
+        <v>230.28</v>
       </c>
       <c r="C35">
-        <v>236</v>
+        <v>238.5</v>
       </c>
       <c r="D35">
         <v>255</v>
       </c>
       <c r="E35">
-        <v>565.0782828282834</v>
+        <v>674.4438190954771</v>
       </c>
       <c r="F35">
-        <v>23.77137528264369</v>
+        <v>25.97005620123833</v>
       </c>
       <c r="G35">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="H35">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="I35">
         <v>255</v>
       </c>
       <c r="J35">
-        <v>217.5</v>
+        <v>210.75</v>
       </c>
       <c r="K35">
-        <v>236</v>
+        <v>238.5</v>
       </c>
       <c r="L35">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36">
-        <v>22913</v>
+        <v>45522</v>
       </c>
       <c r="B36">
-        <v>229.13</v>
+        <v>227.61</v>
       </c>
       <c r="C36">
-        <v>237</v>
+        <v>234.5</v>
       </c>
       <c r="D36">
         <v>255</v>
       </c>
       <c r="E36">
-        <v>642.9021212121211</v>
+        <v>817.9576884422125</v>
       </c>
       <c r="F36">
-        <v>25.35551461146315</v>
+        <v>28.59995958812202</v>
       </c>
       <c r="G36">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="H36">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="I36">
         <v>255</v>
       </c>
       <c r="J36">
-        <v>212</v>
+        <v>205.75</v>
       </c>
       <c r="K36">
-        <v>237</v>
+        <v>234.5</v>
       </c>
       <c r="L36">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37">
-        <v>22651</v>
+        <v>45582</v>
       </c>
       <c r="B37">
-        <v>226.51</v>
+        <v>227.91</v>
       </c>
       <c r="C37">
-        <v>237.5</v>
+        <v>233.5</v>
       </c>
       <c r="D37">
         <v>255</v>
       </c>
       <c r="E37">
-        <v>728.0100000000002</v>
+        <v>847.0772864321599</v>
       </c>
       <c r="F37">
-        <v>26.98166043815688</v>
+        <v>29.1045921880407</v>
       </c>
       <c r="G37">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="H37">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="I37">
         <v>255</v>
       </c>
       <c r="J37">
-        <v>207</v>
+        <v>211.75</v>
       </c>
       <c r="K37">
-        <v>237.5</v>
+        <v>233.5</v>
       </c>
       <c r="L37">
-        <v>250.25</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38">
-        <v>22494</v>
+        <v>45612</v>
       </c>
       <c r="B38">
-        <v>224.94</v>
+        <v>228.06</v>
       </c>
       <c r="C38">
-        <v>236</v>
+        <v>235.5</v>
       </c>
       <c r="D38">
         <v>255</v>
       </c>
       <c r="E38">
-        <v>771.7943434343434</v>
+        <v>919.7853266331667</v>
       </c>
       <c r="F38">
-        <v>27.78118686151373</v>
+        <v>30.32796278409031</v>
       </c>
       <c r="G38">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="H38">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="I38">
         <v>255</v>
       </c>
       <c r="J38">
-        <v>208</v>
+        <v>212.75</v>
       </c>
       <c r="K38">
-        <v>236</v>
+        <v>235.5</v>
       </c>
       <c r="L38">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39">
-        <v>22452</v>
+        <v>45694</v>
       </c>
       <c r="B39">
-        <v>224.52</v>
+        <v>228.47</v>
       </c>
       <c r="C39">
-        <v>233</v>
+        <v>235.5</v>
       </c>
       <c r="D39">
         <v>255</v>
       </c>
       <c r="E39">
-        <v>743.9692929292931</v>
+        <v>963.607135678393</v>
       </c>
       <c r="F39">
-        <v>27.27580050024734</v>
+        <v>31.0420220939035</v>
       </c>
       <c r="G39">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="H39">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="I39">
         <v>255</v>
       </c>
       <c r="J39">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="K39">
-        <v>233</v>
+        <v>235.5</v>
       </c>
       <c r="L39">
-        <v>247.75</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40">
-        <v>22431</v>
+        <v>45856</v>
       </c>
       <c r="B40">
-        <v>224.31</v>
+        <v>229.28</v>
       </c>
       <c r="C40">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D40">
         <v>255</v>
       </c>
       <c r="E40">
-        <v>759.2059595959593</v>
+        <v>900.4739698492457</v>
       </c>
       <c r="F40">
-        <v>27.55369230422593</v>
+        <v>30.00789845772685</v>
       </c>
       <c r="G40">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="H40">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="I40">
         <v>255</v>
       </c>
       <c r="J40">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="K40">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L40">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41">
-        <v>22401</v>
+        <v>45976</v>
       </c>
       <c r="B41">
-        <v>224.01</v>
+        <v>229.88</v>
       </c>
       <c r="C41">
-        <v>234.5</v>
+        <v>237.5</v>
       </c>
       <c r="D41">
         <v>255</v>
       </c>
       <c r="E41">
-        <v>810.7776767676762</v>
+        <v>833.9453266331683</v>
       </c>
       <c r="F41">
-        <v>28.47415805195434</v>
+        <v>28.87811154894253</v>
       </c>
       <c r="G41">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="H41">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="I41">
         <v>255</v>
       </c>
       <c r="J41">
-        <v>202.75</v>
+        <v>217</v>
       </c>
       <c r="K41">
-        <v>234.5</v>
+        <v>237.5</v>
       </c>
       <c r="L41">
-        <v>249.25</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42">
-        <v>22416</v>
+        <v>46068</v>
       </c>
       <c r="B42">
-        <v>224.16</v>
+        <v>230.34</v>
       </c>
       <c r="C42">
-        <v>235.5</v>
+        <v>236</v>
       </c>
       <c r="D42">
         <v>255</v>
       </c>
       <c r="E42">
-        <v>773.4286868686864</v>
+        <v>736.8988944723612</v>
       </c>
       <c r="F42">
-        <v>27.81058587783951</v>
+        <v>27.14588172213902</v>
       </c>
       <c r="G42">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="H42">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="I42">
         <v>255</v>
       </c>
       <c r="J42">
-        <v>203</v>
+        <v>215.75</v>
       </c>
       <c r="K42">
-        <v>235.5</v>
+        <v>236</v>
       </c>
       <c r="L42">
-        <v>249.5</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43">
-        <v>22319</v>
+        <v>46211</v>
       </c>
       <c r="B43">
-        <v>223.19</v>
+        <v>231.055</v>
       </c>
       <c r="C43">
-        <v>231.5</v>
+        <v>238.5</v>
       </c>
       <c r="D43">
         <v>255</v>
       </c>
       <c r="E43">
-        <v>784.8625252525251</v>
+        <v>671.0371608040203</v>
       </c>
       <c r="F43">
-        <v>28.01539800275065</v>
+        <v>25.90438497251036</v>
       </c>
       <c r="G43">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="H43">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="I43">
         <v>255</v>
       </c>
       <c r="J43">
-        <v>202.75</v>
+        <v>217.75</v>
       </c>
       <c r="K43">
-        <v>231.5</v>
+        <v>238.5</v>
       </c>
       <c r="L43">
-        <v>251.25</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44">
-        <v>22225</v>
+        <v>46504</v>
       </c>
       <c r="B44">
-        <v>222.25</v>
+        <v>232.52</v>
       </c>
       <c r="C44">
-        <v>227</v>
+        <v>238.5</v>
       </c>
       <c r="D44">
         <v>255</v>
       </c>
       <c r="E44">
-        <v>789.0176767676768</v>
+        <v>642.5624120603007</v>
       </c>
       <c r="F44">
-        <v>28.08945846341073</v>
+        <v>25.34881480583068</v>
       </c>
       <c r="G44">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="H44">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="I44">
         <v>255</v>
       </c>
       <c r="J44">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="K44">
-        <v>227</v>
+        <v>238.5</v>
       </c>
       <c r="L44">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45">
-        <v>22213</v>
+        <v>46870</v>
       </c>
       <c r="B45">
-        <v>222.13</v>
+        <v>234.35</v>
       </c>
       <c r="C45">
-        <v>227.5</v>
+        <v>239</v>
       </c>
       <c r="D45">
         <v>255</v>
       </c>
       <c r="E45">
-        <v>766.7405050505049</v>
+        <v>570.0577889447242</v>
       </c>
       <c r="F45">
-        <v>27.69007954214839</v>
+        <v>23.8758829982207</v>
       </c>
       <c r="G45">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="H45">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="I45">
         <v>255</v>
       </c>
       <c r="J45">
-        <v>204.5</v>
+        <v>229</v>
       </c>
       <c r="K45">
-        <v>227.5</v>
+        <v>239</v>
       </c>
       <c r="L45">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46">
-        <v>22196</v>
+        <v>46983</v>
       </c>
       <c r="B46">
-        <v>221.96</v>
+        <v>234.915</v>
       </c>
       <c r="C46">
-        <v>227.5</v>
+        <v>240</v>
       </c>
       <c r="D46">
         <v>255</v>
       </c>
       <c r="E46">
-        <v>741.1498989898992</v>
+        <v>532.3595728643226</v>
       </c>
       <c r="F46">
-        <v>27.22406837689582</v>
+        <v>23.07291860307929</v>
       </c>
       <c r="G46">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="H46">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="I46">
         <v>255</v>
       </c>
       <c r="J46">
-        <v>199.5</v>
+        <v>228</v>
       </c>
       <c r="K46">
-        <v>227.5</v>
+        <v>240</v>
       </c>
       <c r="L46">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47">
-        <v>22111</v>
+        <v>46876</v>
       </c>
       <c r="B47">
-        <v>221.11</v>
+        <v>234.38</v>
       </c>
       <c r="C47">
-        <v>221.5</v>
+        <v>239</v>
       </c>
       <c r="D47">
         <v>255</v>
       </c>
       <c r="E47">
-        <v>712.1190909090906</v>
+        <v>511.6538693467333</v>
       </c>
       <c r="F47">
-        <v>26.68555959520224</v>
+        <v>22.61976722574159</v>
       </c>
       <c r="G47">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="H47">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="I47">
         <v>255</v>
       </c>
       <c r="J47">
-        <v>200</v>
+        <v>225.75</v>
       </c>
       <c r="K47">
-        <v>221.5</v>
+        <v>239</v>
       </c>
       <c r="L47">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48">
-        <v>21982</v>
+        <v>46580</v>
       </c>
       <c r="B48">
-        <v>219.82</v>
+        <v>232.9</v>
       </c>
       <c r="C48">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="D48">
         <v>255</v>
       </c>
       <c r="E48">
-        <v>725.5632323232325</v>
+        <v>529.1356783919605</v>
       </c>
       <c r="F48">
-        <v>26.9362809668156</v>
+        <v>23.00294934115972</v>
       </c>
       <c r="G48">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="H48">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="I48">
         <v>255</v>
       </c>
       <c r="J48">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="K48">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="L48">
-        <v>249.25</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49">
-        <v>21992</v>
+        <v>46578</v>
       </c>
       <c r="B49">
-        <v>219.92</v>
+        <v>232.89</v>
       </c>
       <c r="C49">
-        <v>217.5</v>
+        <v>238.5</v>
       </c>
       <c r="D49">
         <v>255</v>
       </c>
       <c r="E49">
-        <v>704.6804040404041</v>
+        <v>547.7868341708547</v>
       </c>
       <c r="F49">
-        <v>26.54581707238269</v>
+        <v>23.40484638212468</v>
       </c>
       <c r="G49">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="H49">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="I49">
         <v>255</v>
       </c>
       <c r="J49">
-        <v>198.75</v>
+        <v>220.75</v>
       </c>
       <c r="K49">
-        <v>217.5</v>
+        <v>238.5</v>
       </c>
       <c r="L49">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50">
-        <v>21854</v>
+        <v>46611</v>
       </c>
       <c r="B50">
-        <v>218.54</v>
+        <v>233.055</v>
       </c>
       <c r="C50">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="D50">
         <v>255</v>
       </c>
       <c r="E50">
-        <v>719.9276767676768</v>
+        <v>571.0773618090446</v>
       </c>
       <c r="F50">
-        <v>26.8314680322877</v>
+        <v>23.89722498134553</v>
       </c>
       <c r="G50">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="H50">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="I50">
         <v>255</v>
       </c>
       <c r="J50">
-        <v>194.75</v>
+        <v>220.5</v>
       </c>
       <c r="K50">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="L50">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51">
-        <v>21734</v>
+        <v>46639</v>
       </c>
       <c r="B51">
-        <v>217.34</v>
+        <v>233.195</v>
       </c>
       <c r="C51">
-        <v>209.5</v>
+        <v>237</v>
       </c>
       <c r="D51">
         <v>255</v>
       </c>
       <c r="E51">
-        <v>738.2064646464644</v>
+        <v>578.499472361809</v>
       </c>
       <c r="F51">
-        <v>27.16995518300434</v>
+        <v>24.05201597292437</v>
       </c>
       <c r="G51">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="H51">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="I51">
         <v>255</v>
       </c>
       <c r="J51">
-        <v>193.75</v>
+        <v>222</v>
       </c>
       <c r="K51">
-        <v>209.5</v>
+        <v>237</v>
       </c>
       <c r="L51">
-        <v>246.25</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52">
-        <v>21582</v>
+        <v>46632</v>
       </c>
       <c r="B52">
-        <v>215.82</v>
+        <v>233.16</v>
       </c>
       <c r="C52">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="D52">
         <v>255</v>
       </c>
       <c r="E52">
-        <v>763.2197979797983</v>
+        <v>536.9591959798998</v>
       </c>
       <c r="F52">
-        <v>27.62643295794443</v>
+        <v>23.1723800240696</v>
       </c>
       <c r="G52">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="H52">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="I52">
         <v>255</v>
       </c>
       <c r="J52">
-        <v>193.5</v>
+        <v>226.75</v>
       </c>
       <c r="K52">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="L52">
-        <v>246.25</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53">
-        <v>21426</v>
+        <v>46785</v>
       </c>
       <c r="B53">
-        <v>214.26</v>
+        <v>233.925</v>
       </c>
       <c r="C53">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="D53">
         <v>255</v>
       </c>
       <c r="E53">
-        <v>800.5983838383839</v>
+        <v>504.5018844221098</v>
       </c>
       <c r="F53">
-        <v>28.29484730190965</v>
+        <v>22.46111939379046</v>
       </c>
       <c r="G53">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="H53">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="I53">
         <v>255</v>
       </c>
       <c r="J53">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="K53">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="L53">
-        <v>246.25</v>
+        <v>254.25</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54">
-        <v>21326</v>
+        <v>46839</v>
       </c>
       <c r="B54">
-        <v>213.26</v>
+        <v>234.195</v>
       </c>
       <c r="C54">
-        <v>203.5</v>
+        <v>237</v>
       </c>
       <c r="D54">
         <v>255</v>
       </c>
       <c r="E54">
-        <v>830.6185858585858</v>
+        <v>498.7306281407036</v>
       </c>
       <c r="F54">
-        <v>28.82045429653366</v>
+        <v>22.33227771949614</v>
       </c>
       <c r="G54">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="H54">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="I54">
         <v>255</v>
       </c>
       <c r="J54">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="K54">
-        <v>203.5</v>
+        <v>237</v>
       </c>
       <c r="L54">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55">
-        <v>21338</v>
+        <v>46783</v>
       </c>
       <c r="B55">
-        <v>213.38</v>
+        <v>233.915</v>
       </c>
       <c r="C55">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="D55">
         <v>255</v>
       </c>
       <c r="E55">
-        <v>820.3793939393942</v>
+        <v>515.5354522613071</v>
       </c>
       <c r="F55">
-        <v>28.64226586601336</v>
+        <v>22.70540579380398</v>
       </c>
       <c r="G55">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="H55">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="I55">
         <v>255</v>
       </c>
       <c r="J55">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="K55">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="L55">
-        <v>245.25</v>
+        <v>254.25</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56">
-        <v>21312</v>
+        <v>46815</v>
       </c>
       <c r="B56">
-        <v>213.12</v>
+        <v>234.075</v>
       </c>
       <c r="C56">
-        <v>203.5</v>
+        <v>239</v>
       </c>
       <c r="D56">
         <v>255</v>
       </c>
       <c r="E56">
-        <v>805.379393939394</v>
+        <v>508.4918341708536</v>
       </c>
       <c r="F56">
-        <v>28.37920707030755</v>
+        <v>22.54976350587415</v>
       </c>
       <c r="G56">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="H56">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="I56">
         <v>255</v>
       </c>
       <c r="J56">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="K56">
-        <v>203.5</v>
+        <v>239</v>
       </c>
       <c r="L56">
-        <v>245.25</v>
+        <v>254</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57">
-        <v>21243</v>
+        <v>46795</v>
       </c>
       <c r="B57">
-        <v>212.43</v>
+        <v>233.975</v>
       </c>
       <c r="C57">
-        <v>199.5</v>
+        <v>238</v>
       </c>
       <c r="D57">
         <v>255</v>
       </c>
       <c r="E57">
-        <v>878.3081818181817</v>
+        <v>513.1501256281415</v>
       </c>
       <c r="F57">
-        <v>29.63626464010236</v>
+        <v>22.65281716758738</v>
       </c>
       <c r="G57">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="H57">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="I57">
         <v>255</v>
       </c>
       <c r="J57">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="K57">
-        <v>199.5</v>
+        <v>238</v>
       </c>
       <c r="L57">
-        <v>244.5</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58">
-        <v>21174</v>
+        <v>46747</v>
       </c>
       <c r="B58">
-        <v>211.74</v>
+        <v>233.735</v>
       </c>
       <c r="C58">
-        <v>199.5</v>
+        <v>238</v>
       </c>
       <c r="D58">
         <v>255</v>
       </c>
       <c r="E58">
-        <v>883.0428282828281</v>
+        <v>516.2560552763815</v>
       </c>
       <c r="F58">
-        <v>29.71603655070487</v>
+        <v>22.7212687866761</v>
       </c>
       <c r="G58">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="H58">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="I58">
         <v>255</v>
       </c>
       <c r="J58">
-        <v>186.75</v>
+        <v>226</v>
       </c>
       <c r="K58">
-        <v>199.5</v>
+        <v>238</v>
       </c>
       <c r="L58">
-        <v>240.75</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59">
-        <v>21165</v>
+        <v>46682</v>
       </c>
       <c r="B59">
-        <v>211.65</v>
+        <v>233.41</v>
       </c>
       <c r="C59">
-        <v>194.5</v>
+        <v>236.5</v>
       </c>
       <c r="D59">
         <v>255</v>
       </c>
       <c r="E59">
-        <v>903.2601010101017</v>
+        <v>524.8360804020101</v>
       </c>
       <c r="F59">
-        <v>30.05428590085117</v>
+        <v>22.90930117664024</v>
       </c>
       <c r="G59">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H59">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="I59">
         <v>255</v>
       </c>
       <c r="J59">
-        <v>186</v>
+        <v>226.75</v>
       </c>
       <c r="K59">
-        <v>194.5</v>
+        <v>236.5</v>
       </c>
       <c r="L59">
-        <v>245.5</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60">
-        <v>21270</v>
+        <v>46580</v>
       </c>
       <c r="B60">
-        <v>212.7</v>
+        <v>232.9</v>
       </c>
       <c r="C60">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="D60">
         <v>255</v>
       </c>
       <c r="E60">
-        <v>910.6565656565659</v>
+        <v>514.0502512562828</v>
       </c>
       <c r="F60">
-        <v>30.17708676556711</v>
+        <v>22.67267631437195</v>
       </c>
       <c r="G60">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H60">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="I60">
         <v>255</v>
       </c>
       <c r="J60">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="K60">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="L60">
-        <v>248.5</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61">
-        <v>21283</v>
+        <v>46528</v>
       </c>
       <c r="B61">
-        <v>212.83</v>
+        <v>232.64</v>
       </c>
       <c r="C61">
-        <v>198.5</v>
+        <v>236</v>
       </c>
       <c r="D61">
         <v>255</v>
       </c>
       <c r="E61">
-        <v>864.6273737373738</v>
+        <v>518.3722613065323</v>
       </c>
       <c r="F61">
-        <v>29.40454682081283</v>
+        <v>22.76778999610046</v>
       </c>
       <c r="G61">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H61">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="I61">
         <v>255</v>
       </c>
       <c r="J61">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="K61">
-        <v>198.5</v>
+        <v>236</v>
       </c>
       <c r="L61">
-        <v>246.25</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62">
-        <v>21293</v>
+        <v>46517</v>
       </c>
       <c r="B62">
-        <v>212.93</v>
+        <v>232.585</v>
       </c>
       <c r="C62">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="D62">
         <v>255</v>
       </c>
       <c r="E62">
-        <v>882.0253535353539</v>
+        <v>527.8922361809041</v>
       </c>
       <c r="F62">
-        <v>29.6989116557384</v>
+        <v>22.97590555736387</v>
       </c>
       <c r="G62">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="H62">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="I62">
         <v>255</v>
       </c>
       <c r="J62">
-        <v>185.75</v>
+        <v>224</v>
       </c>
       <c r="K62">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="L62">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63">
-        <v>21229</v>
+        <v>46500</v>
       </c>
       <c r="B63">
-        <v>212.29</v>
+        <v>232.5</v>
       </c>
       <c r="C63">
-        <v>198.5</v>
+        <v>237.5</v>
       </c>
       <c r="D63">
         <v>255</v>
       </c>
       <c r="E63">
-        <v>913.7433333333339</v>
+        <v>533.5477386934673</v>
       </c>
       <c r="F63">
-        <v>30.22818772823362</v>
+        <v>23.09865231335948</v>
       </c>
       <c r="G63">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="H63">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="I63">
         <v>255</v>
       </c>
       <c r="J63">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="K63">
-        <v>198.5</v>
+        <v>237.5</v>
       </c>
       <c r="L63">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64">
-        <v>21174</v>
+        <v>46453</v>
       </c>
       <c r="B64">
-        <v>211.74</v>
+        <v>232.265</v>
       </c>
       <c r="C64">
-        <v>194.5</v>
+        <v>237</v>
       </c>
       <c r="D64">
         <v>255</v>
       </c>
       <c r="E64">
-        <v>1001.16404040404</v>
+        <v>547.0902261306528</v>
       </c>
       <c r="F64">
-        <v>31.6411763435565</v>
+        <v>23.38995994290398</v>
       </c>
       <c r="G64">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="H64">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="I64">
         <v>255</v>
       </c>
       <c r="J64">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="K64">
-        <v>194.5</v>
+        <v>237</v>
       </c>
       <c r="L64">
-        <v>246.25</v>
+        <v>252.25</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65">
-        <v>21187</v>
+        <v>46382</v>
       </c>
       <c r="B65">
-        <v>211.87</v>
+        <v>231.91</v>
       </c>
       <c r="C65">
-        <v>195</v>
+        <v>237.5</v>
       </c>
       <c r="D65">
         <v>255</v>
       </c>
       <c r="E65">
-        <v>985.2253535353531</v>
+        <v>574.5647236180911</v>
       </c>
       <c r="F65">
-        <v>31.38829962797209</v>
+        <v>23.97007975827555</v>
       </c>
       <c r="G65">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="H65">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="I65">
         <v>255</v>
       </c>
       <c r="J65">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="K65">
-        <v>195</v>
+        <v>237.5</v>
       </c>
       <c r="L65">
-        <v>247.75</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66">
-        <v>21217</v>
+        <v>46252</v>
       </c>
       <c r="B66">
-        <v>212.17</v>
+        <v>231.26</v>
       </c>
       <c r="C66">
-        <v>204.5</v>
+        <v>237</v>
       </c>
       <c r="D66">
         <v>255</v>
       </c>
       <c r="E66">
-        <v>1002.849595959595</v>
+        <v>588.2938693467344</v>
       </c>
       <c r="F66">
-        <v>31.66780061765571</v>
+        <v>24.2547700328561</v>
       </c>
       <c r="G66">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="H66">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="I66">
         <v>255</v>
       </c>
       <c r="J66">
-        <v>181.75</v>
+        <v>218</v>
       </c>
       <c r="K66">
-        <v>204.5</v>
+        <v>237</v>
       </c>
       <c r="L66">
-        <v>249.25</v>
+        <v>252.25</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67">
-        <v>21128</v>
+        <v>46056</v>
       </c>
       <c r="B67">
-        <v>211.28</v>
+        <v>230.28</v>
       </c>
       <c r="C67">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="D67">
         <v>255</v>
       </c>
       <c r="E67">
-        <v>1134.870303030303</v>
+        <v>566.0116582914575</v>
       </c>
       <c r="F67">
-        <v>33.68783612864297</v>
+        <v>23.7909995227493</v>
       </c>
       <c r="G67">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H67">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="I67">
         <v>255</v>
       </c>
       <c r="J67">
-        <v>179.75</v>
+        <v>217</v>
       </c>
       <c r="K67">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="L67">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68">
-        <v>21155</v>
+        <v>46148</v>
       </c>
       <c r="B68">
-        <v>211.55</v>
+        <v>230.74</v>
       </c>
       <c r="C68">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="D68">
         <v>255</v>
       </c>
       <c r="E68">
-        <v>1155.684343434343</v>
+        <v>553.0074371859297</v>
       </c>
       <c r="F68">
-        <v>33.99535767475235</v>
+        <v>23.51611016273588</v>
       </c>
       <c r="G68">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H68">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I68">
         <v>255</v>
       </c>
       <c r="J68">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="K68">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="L68">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69">
-        <v>21271</v>
+        <v>46101</v>
       </c>
       <c r="B69">
-        <v>212.71</v>
+        <v>230.505</v>
       </c>
       <c r="C69">
-        <v>201.5</v>
+        <v>236.5</v>
       </c>
       <c r="D69">
         <v>255</v>
       </c>
       <c r="E69">
-        <v>1081.500909090908</v>
+        <v>573.8994723618093</v>
       </c>
       <c r="F69">
-        <v>32.88618112659036</v>
+        <v>23.95619903828254</v>
       </c>
       <c r="G69">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H69">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="I69">
         <v>255</v>
       </c>
       <c r="J69">
-        <v>182</v>
+        <v>217.75</v>
       </c>
       <c r="K69">
-        <v>201.5</v>
+        <v>236.5</v>
       </c>
       <c r="L69">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70">
-        <v>21187</v>
+        <v>45930</v>
       </c>
       <c r="B70">
-        <v>211.87</v>
+        <v>229.65</v>
       </c>
       <c r="C70">
-        <v>206</v>
+        <v>236.5</v>
       </c>
       <c r="D70">
         <v>255</v>
       </c>
       <c r="E70">
-        <v>1147.609191919192</v>
+        <v>622.1783919597991</v>
       </c>
       <c r="F70">
-        <v>33.87638103338654</v>
+        <v>24.94350400324299</v>
       </c>
       <c r="G70">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="H70">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I70">
         <v>255</v>
       </c>
       <c r="J70">
-        <v>181</v>
+        <v>213.75</v>
       </c>
       <c r="K70">
-        <v>206</v>
+        <v>236.5</v>
       </c>
       <c r="L70">
-        <v>254.25</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71">
-        <v>21261</v>
+        <v>45739</v>
       </c>
       <c r="B71">
-        <v>212.61</v>
+        <v>228.695</v>
       </c>
       <c r="C71">
-        <v>207.5</v>
+        <v>237</v>
       </c>
       <c r="D71">
         <v>255</v>
       </c>
       <c r="E71">
-        <v>1158.886767676768</v>
+        <v>657.3185678391957</v>
       </c>
       <c r="F71">
-        <v>34.04242599575959</v>
+        <v>25.63822474039877</v>
       </c>
       <c r="G71">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H71">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="I71">
         <v>255</v>
       </c>
       <c r="J71">
-        <v>179.75</v>
+        <v>211</v>
       </c>
       <c r="K71">
-        <v>207.5</v>
+        <v>237</v>
       </c>
       <c r="L71">
-        <v>254.25</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72">
-        <v>21291</v>
+        <v>45449</v>
       </c>
       <c r="B72">
-        <v>212.91</v>
+        <v>227.245</v>
       </c>
       <c r="C72">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="D72">
         <v>255</v>
       </c>
       <c r="E72">
-        <v>1234.365555555555</v>
+        <v>699.1004773869355</v>
       </c>
       <c r="F72">
-        <v>35.13353889882936</v>
+        <v>26.44050826642588</v>
       </c>
       <c r="G72">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H72">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I72">
         <v>255</v>
       </c>
       <c r="J72">
-        <v>175.75</v>
+        <v>208</v>
       </c>
       <c r="K72">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="L72">
-        <v>254</v>
+        <v>249.25</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73">
-        <v>21294</v>
+        <v>45190</v>
       </c>
       <c r="B73">
-        <v>212.94</v>
+        <v>225.95</v>
       </c>
       <c r="C73">
-        <v>212.5</v>
+        <v>237</v>
       </c>
       <c r="D73">
         <v>255</v>
       </c>
       <c r="E73">
-        <v>1259.168080808081</v>
+        <v>747.1432160804014</v>
       </c>
       <c r="F73">
-        <v>35.48475842961427</v>
+        <v>27.33392061304784</v>
       </c>
       <c r="G73">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H73">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I73">
         <v>255</v>
       </c>
       <c r="J73">
-        <v>176.75</v>
+        <v>207</v>
       </c>
       <c r="K73">
-        <v>212.5</v>
+        <v>237</v>
       </c>
       <c r="L73">
-        <v>254</v>
+        <v>249.25</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74">
-        <v>21399</v>
+        <v>45005</v>
       </c>
       <c r="B74">
-        <v>213.99</v>
+        <v>225.025</v>
       </c>
       <c r="C74">
-        <v>212.5</v>
+        <v>236.5</v>
       </c>
       <c r="D74">
         <v>255</v>
       </c>
       <c r="E74">
-        <v>1281.807979797979</v>
+        <v>780.7883165829136</v>
       </c>
       <c r="F74">
-        <v>35.80234600969577</v>
+        <v>27.94258965419836</v>
       </c>
       <c r="G74">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H74">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="I74">
         <v>255</v>
       </c>
       <c r="J74">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="K74">
-        <v>212.5</v>
+        <v>236.5</v>
       </c>
       <c r="L74">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75">
-        <v>21445</v>
+        <v>45004</v>
       </c>
       <c r="B75">
-        <v>214.45</v>
+        <v>225.02</v>
       </c>
       <c r="C75">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="D75">
         <v>255</v>
       </c>
       <c r="E75">
-        <v>1284.169191919193</v>
+        <v>751.1252261306535</v>
       </c>
       <c r="F75">
-        <v>35.83530649958491</v>
+        <v>27.40666390005638</v>
       </c>
       <c r="G75">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H75">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I75">
         <v>255</v>
       </c>
       <c r="J75">
-        <v>177.75</v>
+        <v>207</v>
       </c>
       <c r="K75">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="L75">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76">
-        <v>21594</v>
+        <v>44928</v>
       </c>
       <c r="B76">
-        <v>215.94</v>
+        <v>224.64</v>
       </c>
       <c r="C76">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="D76">
         <v>255</v>
       </c>
       <c r="E76">
-        <v>1229.592323232323</v>
+        <v>734.3622110552751</v>
       </c>
       <c r="F76">
-        <v>35.06554324735784</v>
+        <v>27.09911827080865</v>
       </c>
       <c r="G76">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H76">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I76">
         <v>255</v>
       </c>
       <c r="J76">
-        <v>178.75</v>
+        <v>206</v>
       </c>
       <c r="K76">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="L76">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77">
-        <v>21561</v>
+        <v>44867</v>
       </c>
       <c r="B77">
-        <v>215.61</v>
+        <v>224.335</v>
       </c>
       <c r="C77">
-        <v>216.5</v>
+        <v>232.5</v>
       </c>
       <c r="D77">
         <v>255</v>
       </c>
       <c r="E77">
-        <v>1294.422121212122</v>
+        <v>726.5957537688444</v>
       </c>
       <c r="F77">
-        <v>35.97807834240347</v>
+        <v>26.95544015164368</v>
       </c>
       <c r="G77">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H77">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I77">
         <v>255</v>
       </c>
       <c r="J77">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="K77">
-        <v>216.5</v>
+        <v>232.5</v>
       </c>
       <c r="L77">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78">
-        <v>21668</v>
+        <v>44850</v>
       </c>
       <c r="B78">
-        <v>216.68</v>
+        <v>224.25</v>
       </c>
       <c r="C78">
-        <v>218</v>
+        <v>233.5</v>
       </c>
       <c r="D78">
         <v>255</v>
       </c>
       <c r="E78">
-        <v>1324.219797979798</v>
+        <v>745.6356783919598</v>
       </c>
       <c r="F78">
-        <v>36.38983096937657</v>
+        <v>27.30633037213093</v>
       </c>
       <c r="G78">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H78">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="I78">
         <v>255</v>
       </c>
       <c r="J78">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="K78">
-        <v>218</v>
+        <v>233.5</v>
       </c>
       <c r="L78">
-        <v>252.25</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79">
-        <v>21724</v>
+        <v>44897</v>
       </c>
       <c r="B79">
-        <v>217.24</v>
+        <v>224.485</v>
       </c>
       <c r="C79">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D79">
         <v>255</v>
       </c>
       <c r="E79">
-        <v>1357.315555555555</v>
+        <v>755.2058040201009</v>
       </c>
       <c r="F79">
-        <v>36.84176374110712</v>
+        <v>27.4810080604788</v>
       </c>
       <c r="G79">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H79">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="I79">
         <v>255</v>
       </c>
       <c r="J79">
-        <v>177.75</v>
+        <v>205</v>
       </c>
       <c r="K79">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="L79">
-        <v>253</v>
+        <v>249.25</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80">
-        <v>21802</v>
+        <v>44838</v>
       </c>
       <c r="B80">
-        <v>218.02</v>
+        <v>224.19</v>
       </c>
       <c r="C80">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D80">
         <v>255</v>
       </c>
       <c r="E80">
-        <v>1346.524848484848</v>
+        <v>784.0843216080399</v>
       </c>
       <c r="F80">
-        <v>36.69502484649449</v>
+        <v>28.00150570251607</v>
       </c>
       <c r="G80">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="H80">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="I80">
         <v>255</v>
       </c>
       <c r="J80">
-        <v>179.25</v>
+        <v>204</v>
       </c>
       <c r="K80">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="L80">
-        <v>252.25</v>
+        <v>249.25</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81">
-        <v>21827</v>
+        <v>44782</v>
       </c>
       <c r="B81">
-        <v>218.27</v>
+        <v>223.91</v>
       </c>
       <c r="C81">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81">
         <v>255</v>
       </c>
       <c r="E81">
-        <v>1290.360707070707</v>
+        <v>796.1828140703516</v>
       </c>
       <c r="F81">
-        <v>35.92159109881838</v>
+        <v>28.2167116097952</v>
       </c>
       <c r="G81">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H81">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="I81">
         <v>255</v>
       </c>
       <c r="J81">
-        <v>183.75</v>
+        <v>204</v>
       </c>
       <c r="K81">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L81">
-        <v>252.25</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82">
-        <v>21934</v>
+        <v>44787</v>
       </c>
       <c r="B82">
-        <v>219.34</v>
+        <v>223.935</v>
       </c>
       <c r="C82">
         <v>234</v>
@@ -3505,139 +3505,139 @@
         <v>255</v>
       </c>
       <c r="E82">
-        <v>1182.004444444444</v>
+        <v>782.412839195981</v>
       </c>
       <c r="F82">
-        <v>34.38029151191775</v>
+        <v>27.97164348399967</v>
       </c>
       <c r="G82">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H82">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I82">
         <v>255</v>
       </c>
       <c r="J82">
-        <v>182.75</v>
+        <v>201.75</v>
       </c>
       <c r="K82">
         <v>234</v>
       </c>
       <c r="L82">
-        <v>252</v>
+        <v>247.25</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83">
-        <v>22002</v>
+        <v>44861</v>
       </c>
       <c r="B83">
-        <v>220.02</v>
+        <v>224.305</v>
       </c>
       <c r="C83">
-        <v>232.5</v>
+        <v>233.5</v>
       </c>
       <c r="D83">
         <v>255</v>
       </c>
       <c r="E83">
-        <v>1103.070303030303</v>
+        <v>752.6452010050253</v>
       </c>
       <c r="F83">
-        <v>33.21250220971469</v>
+        <v>27.43437990924937</v>
       </c>
       <c r="G83">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H83">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I83">
         <v>255</v>
       </c>
       <c r="J83">
-        <v>188.75</v>
+        <v>204</v>
       </c>
       <c r="K83">
-        <v>232.5</v>
+        <v>233.5</v>
       </c>
       <c r="L83">
-        <v>251.25</v>
+        <v>249.25</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84">
-        <v>22024</v>
+        <v>44743</v>
       </c>
       <c r="B84">
-        <v>220.24</v>
+        <v>223.715</v>
       </c>
       <c r="C84">
-        <v>235.5</v>
+        <v>232.5</v>
       </c>
       <c r="D84">
         <v>255</v>
       </c>
       <c r="E84">
-        <v>1096.224646464646</v>
+        <v>763.119371859295</v>
       </c>
       <c r="F84">
-        <v>33.10928338796608</v>
+        <v>27.62461532509177</v>
       </c>
       <c r="G84">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H84">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="I84">
         <v>255</v>
       </c>
       <c r="J84">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="K84">
-        <v>235.5</v>
+        <v>232.5</v>
       </c>
       <c r="L84">
-        <v>251.25</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85">
-        <v>21824</v>
+        <v>44557</v>
       </c>
       <c r="B85">
-        <v>218.24</v>
+        <v>222.785</v>
       </c>
       <c r="C85">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D85">
         <v>255</v>
       </c>
       <c r="E85">
-        <v>1270.628686868688</v>
+        <v>779.9183668341717</v>
       </c>
       <c r="F85">
-        <v>35.64587896052905</v>
+        <v>27.92701858119072</v>
       </c>
       <c r="G85">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H85">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="I85">
         <v>255</v>
       </c>
       <c r="J85">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="K85">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L85">
         <v>251.25</v>
@@ -3645,609 +3645,4409 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86">
-        <v>21624</v>
+        <v>44395</v>
       </c>
       <c r="B86">
-        <v>216.24</v>
+        <v>221.975</v>
       </c>
       <c r="C86">
-        <v>235.5</v>
+        <v>226.5</v>
       </c>
       <c r="D86">
         <v>255</v>
       </c>
       <c r="E86">
-        <v>1461.113535353535</v>
+        <v>799.9340452261308</v>
       </c>
       <c r="F86">
-        <v>38.22451484785039</v>
+        <v>28.28310529673379</v>
       </c>
       <c r="G86">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="H86">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="I86">
         <v>255</v>
       </c>
       <c r="J86">
-        <v>176.75</v>
+        <v>203</v>
       </c>
       <c r="K86">
-        <v>235.5</v>
+        <v>226.5</v>
       </c>
       <c r="L86">
-        <v>251.25</v>
+        <v>252.25</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87">
-        <v>21479</v>
+        <v>44488</v>
       </c>
       <c r="B87">
-        <v>214.79</v>
+        <v>222.44</v>
       </c>
       <c r="C87">
-        <v>232.5</v>
+        <v>226</v>
       </c>
       <c r="D87">
         <v>255</v>
       </c>
       <c r="E87">
-        <v>1606.187777777776</v>
+        <v>762.639597989949</v>
       </c>
       <c r="F87">
-        <v>40.07727258406909</v>
+        <v>27.61593014891856</v>
       </c>
       <c r="G87">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="H87">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="I87">
         <v>255</v>
       </c>
       <c r="J87">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="K87">
-        <v>232.5</v>
+        <v>226</v>
       </c>
       <c r="L87">
-        <v>251.25</v>
+        <v>251</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88">
-        <v>21405</v>
+        <v>44459</v>
       </c>
       <c r="B88">
-        <v>214.05</v>
+        <v>222.295</v>
       </c>
       <c r="C88">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D88">
         <v>255</v>
       </c>
       <c r="E88">
-        <v>1844.189393939394</v>
+        <v>750.4502261306543</v>
       </c>
       <c r="F88">
-        <v>42.94402628933847</v>
+        <v>27.39434660893839</v>
       </c>
       <c r="G88">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="H88">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="I88">
         <v>255</v>
       </c>
       <c r="J88">
-        <v>176.75</v>
+        <v>204.5</v>
       </c>
       <c r="K88">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L88">
-        <v>252.25</v>
+        <v>250</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89">
-        <v>21682</v>
+        <v>44424</v>
       </c>
       <c r="B89">
-        <v>216.82</v>
+        <v>222.12</v>
       </c>
       <c r="C89">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D89">
         <v>255</v>
       </c>
       <c r="E89">
-        <v>1763.341010101008</v>
+        <v>759.7342713567843</v>
       </c>
       <c r="F89">
-        <v>41.99215414932899</v>
+        <v>27.56327758734045</v>
       </c>
       <c r="G89">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="H89">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="I89">
         <v>255</v>
       </c>
       <c r="J89">
-        <v>183.25</v>
+        <v>203.5</v>
       </c>
       <c r="K89">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="L89">
-        <v>253</v>
+        <v>247.25</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90">
-        <v>22510</v>
+        <v>44409</v>
       </c>
       <c r="B90">
-        <v>225.1</v>
+        <v>222.045</v>
       </c>
       <c r="C90">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D90">
         <v>255</v>
       </c>
       <c r="E90">
-        <v>1035.121212121212</v>
+        <v>757.7718341708534</v>
       </c>
       <c r="F90">
-        <v>32.17329967723565</v>
+        <v>27.52765580595001</v>
       </c>
       <c r="G90">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H90">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I90">
         <v>255</v>
       </c>
       <c r="J90">
-        <v>199.5</v>
+        <v>200.75</v>
       </c>
       <c r="K90">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="L90">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91">
-        <v>23270</v>
+        <v>44383</v>
       </c>
       <c r="B91">
-        <v>232.7</v>
+        <v>221.915</v>
       </c>
       <c r="C91">
+        <v>227</v>
+      </c>
+      <c r="D91">
+        <v>255</v>
+      </c>
+      <c r="E91">
+        <v>731.7666080402005</v>
+      </c>
+      <c r="F91">
+        <v>27.05118496554634</v>
+      </c>
+      <c r="G91">
+        <v>89</v>
+      </c>
+      <c r="H91">
+        <v>166</v>
+      </c>
+      <c r="I91">
+        <v>255</v>
+      </c>
+      <c r="J91">
+        <v>200</v>
+      </c>
+      <c r="K91">
+        <v>227</v>
+      </c>
+      <c r="L91">
         <v>245</v>
-      </c>
-      <c r="D91">
-        <v>255</v>
-      </c>
-      <c r="E91">
-        <v>561.6868686868687</v>
-      </c>
-      <c r="F91">
-        <v>23.69993393844947</v>
-      </c>
-      <c r="G91">
-        <v>69</v>
-      </c>
-      <c r="H91">
-        <v>186</v>
-      </c>
-      <c r="I91">
-        <v>255</v>
-      </c>
-      <c r="J91">
-        <v>214</v>
-      </c>
-      <c r="K91">
-        <v>245</v>
-      </c>
-      <c r="L91">
-        <v>254</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92">
-        <v>23899</v>
+        <v>44288</v>
       </c>
       <c r="B92">
-        <v>238.99</v>
+        <v>221.44</v>
       </c>
       <c r="C92">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="D92">
         <v>255</v>
       </c>
       <c r="E92">
-        <v>292.959494949495</v>
+        <v>714.5189949748736</v>
       </c>
       <c r="F92">
-        <v>17.11605956257149</v>
+        <v>26.73048811703358</v>
       </c>
       <c r="G92">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="H92">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="I92">
         <v>255</v>
       </c>
       <c r="J92">
-        <v>223.75</v>
+        <v>200</v>
       </c>
       <c r="K92">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="L92">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93">
-        <v>24355</v>
+        <v>44147</v>
       </c>
       <c r="B93">
-        <v>243.55</v>
+        <v>220.735</v>
       </c>
       <c r="C93">
-        <v>251</v>
+        <v>218.5</v>
       </c>
       <c r="D93">
         <v>255</v>
       </c>
       <c r="E93">
-        <v>165.3611111111111</v>
+        <v>714.8188693467329</v>
       </c>
       <c r="F93">
-        <v>12.85928112730689</v>
+        <v>26.73609674852956</v>
       </c>
       <c r="G93">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="H93">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="I93">
         <v>255</v>
       </c>
       <c r="J93">
-        <v>231.75</v>
+        <v>200</v>
       </c>
       <c r="K93">
-        <v>251</v>
+        <v>218.5</v>
       </c>
       <c r="L93">
-        <v>255</v>
+        <v>247.25</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94">
-        <v>24745</v>
+        <v>43978</v>
       </c>
       <c r="B94">
-        <v>247.45</v>
+        <v>219.89</v>
       </c>
       <c r="C94">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="D94">
         <v>255</v>
       </c>
       <c r="E94">
-        <v>64.91666666666674</v>
+        <v>736.7114572864325</v>
       </c>
       <c r="F94">
-        <v>8.057087976847885</v>
+        <v>27.14242909701401</v>
       </c>
       <c r="G94">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H94">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c r="I94">
         <v>255</v>
       </c>
       <c r="J94">
-        <v>240</v>
+        <v>199.75</v>
       </c>
       <c r="K94">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="L94">
-        <v>255</v>
+        <v>249.25</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95">
-        <v>24964</v>
+        <v>43994</v>
       </c>
       <c r="B95">
-        <v>249.64</v>
+        <v>219.97</v>
       </c>
       <c r="C95">
-        <v>252</v>
+        <v>213.5</v>
       </c>
       <c r="D95">
         <v>255</v>
       </c>
       <c r="E95">
-        <v>31.76808080808082</v>
+        <v>726.1799999999997</v>
       </c>
       <c r="F95">
-        <v>5.636318018714063</v>
+        <v>26.94772717688821</v>
       </c>
       <c r="G95">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="H95">
-        <v>239</v>
+        <v>171</v>
       </c>
       <c r="I95">
         <v>255</v>
       </c>
       <c r="J95">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="K95">
-        <v>252</v>
+        <v>213.5</v>
       </c>
       <c r="L95">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96">
-        <v>25240</v>
+        <v>44008</v>
       </c>
       <c r="B96">
-        <v>252.4</v>
+        <v>220.04</v>
       </c>
       <c r="C96">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="D96">
         <v>255</v>
       </c>
       <c r="E96">
-        <v>9.353535353535353</v>
+        <v>710.1591959798994</v>
       </c>
       <c r="F96">
-        <v>3.058355007767305</v>
+        <v>26.64881228084845</v>
       </c>
       <c r="G96">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="H96">
-        <v>246</v>
+        <v>170</v>
       </c>
       <c r="I96">
         <v>255</v>
       </c>
       <c r="J96">
-        <v>251</v>
+        <v>199</v>
       </c>
       <c r="K96">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="L96">
-        <v>255</v>
+        <v>249.5</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97">
-        <v>25455</v>
+        <v>43972</v>
       </c>
       <c r="B97">
-        <v>254.55</v>
+        <v>219.86</v>
       </c>
       <c r="C97">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="D97">
         <v>255</v>
       </c>
       <c r="E97">
-        <v>0.4318181818181804</v>
+        <v>699.9099497487437</v>
       </c>
       <c r="F97">
-        <v>0.6571287406727698</v>
+        <v>26.45581126612343</v>
       </c>
       <c r="G97">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="H97">
-        <v>253</v>
+        <v>170</v>
       </c>
       <c r="I97">
         <v>255</v>
       </c>
       <c r="J97">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="K97">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="L97">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98">
-        <v>25456</v>
+        <v>43795</v>
       </c>
       <c r="B98">
-        <v>254.56</v>
+        <v>218.975</v>
       </c>
       <c r="C98">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="D98">
         <v>255</v>
       </c>
       <c r="E98">
-        <v>0.2892929292929285</v>
+        <v>724.034547738694</v>
       </c>
       <c r="F98">
-        <v>0.5378595813899094</v>
+        <v>26.90789006478758</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="H98">
-        <v>253</v>
+        <v>171</v>
       </c>
       <c r="I98">
         <v>255</v>
       </c>
       <c r="J98">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="K98">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="L98">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99">
-        <v>25485</v>
+        <v>43680</v>
       </c>
       <c r="B99">
-        <v>254.85</v>
+        <v>218.4</v>
       </c>
       <c r="C99">
-        <v>255</v>
+        <v>212.5</v>
       </c>
       <c r="D99">
         <v>255</v>
       </c>
       <c r="E99">
-        <v>0.1287878787878785</v>
+        <v>707.9497487437187</v>
       </c>
       <c r="F99">
-        <v>0.3588702812826363</v>
+        <v>26.60732509561453</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="H99">
-        <v>254</v>
+        <v>177</v>
       </c>
       <c r="I99">
         <v>255</v>
       </c>
       <c r="J99">
-        <v>255</v>
+        <v>193.75</v>
       </c>
       <c r="K99">
-        <v>255</v>
+        <v>212.5</v>
       </c>
       <c r="L99">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100">
-        <v>25500</v>
+        <v>43557</v>
       </c>
       <c r="B100">
-        <v>255</v>
+        <v>217.785</v>
       </c>
       <c r="C100">
-        <v>255</v>
+        <v>210.5</v>
       </c>
       <c r="D100">
         <v>255</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>718.832939698493</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>26.81106002564041</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="H100">
-        <v>255</v>
+        <v>178</v>
       </c>
       <c r="I100">
         <v>255</v>
       </c>
       <c r="J100">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c r="K100">
-        <v>255</v>
+        <v>210.5</v>
       </c>
       <c r="L100">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101">
-        <v>25500</v>
+        <v>43398</v>
       </c>
       <c r="B101">
-        <v>255</v>
+        <v>216.99</v>
       </c>
       <c r="C101">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="D101">
         <v>255</v>
       </c>
       <c r="E101">
+        <v>746.9245226130643</v>
+      </c>
+      <c r="F101">
+        <v>27.32991991596507</v>
+      </c>
+      <c r="G101">
+        <v>81</v>
+      </c>
+      <c r="H101">
+        <v>174</v>
+      </c>
+      <c r="I101">
+        <v>255</v>
+      </c>
+      <c r="J101">
+        <v>193</v>
+      </c>
+      <c r="K101">
+        <v>210</v>
+      </c>
+      <c r="L101">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102">
+        <v>43233</v>
+      </c>
+      <c r="B102">
+        <v>216.165</v>
+      </c>
+      <c r="C102">
+        <v>208.5</v>
+      </c>
+      <c r="D102">
+        <v>255</v>
+      </c>
+      <c r="E102">
+        <v>756.2691206030154</v>
+      </c>
+      <c r="F102">
+        <v>27.50034764513015</v>
+      </c>
+      <c r="G102">
+        <v>83</v>
+      </c>
+      <c r="H102">
+        <v>172</v>
+      </c>
+      <c r="I102">
+        <v>255</v>
+      </c>
+      <c r="J102">
+        <v>193.75</v>
+      </c>
+      <c r="K102">
+        <v>208.5</v>
+      </c>
+      <c r="L102">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103">
+        <v>43084</v>
+      </c>
+      <c r="B103">
+        <v>215.42</v>
+      </c>
+      <c r="C103">
+        <v>206</v>
+      </c>
+      <c r="D103">
+        <v>255</v>
+      </c>
+      <c r="E103">
+        <v>761.1191959798989</v>
+      </c>
+      <c r="F103">
+        <v>27.58838878912465</v>
+      </c>
+      <c r="G103">
+        <v>86</v>
+      </c>
+      <c r="H103">
+        <v>169</v>
+      </c>
+      <c r="I103">
+        <v>255</v>
+      </c>
+      <c r="J103">
+        <v>192</v>
+      </c>
+      <c r="K103">
+        <v>206</v>
+      </c>
+      <c r="L103">
+        <v>246.25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104">
+        <v>42923</v>
+      </c>
+      <c r="B104">
+        <v>214.615</v>
+      </c>
+      <c r="C104">
+        <v>204</v>
+      </c>
+      <c r="D104">
+        <v>255</v>
+      </c>
+      <c r="E104">
+        <v>776.5495226130649</v>
+      </c>
+      <c r="F104">
+        <v>27.86663816489289</v>
+      </c>
+      <c r="G104">
+        <v>83</v>
+      </c>
+      <c r="H104">
+        <v>172</v>
+      </c>
+      <c r="I104">
+        <v>255</v>
+      </c>
+      <c r="J104">
+        <v>190</v>
+      </c>
+      <c r="K104">
+        <v>204</v>
+      </c>
+      <c r="L104">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105">
+        <v>42757</v>
+      </c>
+      <c r="B105">
+        <v>213.785</v>
+      </c>
+      <c r="C105">
+        <v>204</v>
+      </c>
+      <c r="D105">
+        <v>255</v>
+      </c>
+      <c r="E105">
+        <v>802.5213819095482</v>
+      </c>
+      <c r="F105">
+        <v>28.32880833903092</v>
+      </c>
+      <c r="G105">
+        <v>80</v>
+      </c>
+      <c r="H105">
+        <v>175</v>
+      </c>
+      <c r="I105">
+        <v>255</v>
+      </c>
+      <c r="J105">
+        <v>190</v>
+      </c>
+      <c r="K105">
+        <v>204</v>
+      </c>
+      <c r="L105">
+        <v>245.25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106">
+        <v>42659</v>
+      </c>
+      <c r="B106">
+        <v>213.295</v>
+      </c>
+      <c r="C106">
+        <v>203</v>
+      </c>
+      <c r="D106">
+        <v>255</v>
+      </c>
+      <c r="E106">
+        <v>814.6411809045215</v>
+      </c>
+      <c r="F106">
+        <v>28.54191971302073</v>
+      </c>
+      <c r="G106">
+        <v>84</v>
+      </c>
+      <c r="H106">
+        <v>171</v>
+      </c>
+      <c r="I106">
+        <v>255</v>
+      </c>
+      <c r="J106">
+        <v>189</v>
+      </c>
+      <c r="K106">
+        <v>203</v>
+      </c>
+      <c r="L106">
+        <v>245.25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107">
+        <v>42664</v>
+      </c>
+      <c r="B107">
+        <v>213.32</v>
+      </c>
+      <c r="C107">
+        <v>203</v>
+      </c>
+      <c r="D107">
+        <v>255</v>
+      </c>
+      <c r="E107">
+        <v>807.3543718592965</v>
+      </c>
+      <c r="F107">
+        <v>28.41398197823207</v>
+      </c>
+      <c r="G107">
+        <v>87</v>
+      </c>
+      <c r="H107">
+        <v>168</v>
+      </c>
+      <c r="I107">
+        <v>255</v>
+      </c>
+      <c r="J107">
+        <v>189</v>
+      </c>
+      <c r="K107">
+        <v>203</v>
+      </c>
+      <c r="L107">
+        <v>244.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108">
+        <v>42679</v>
+      </c>
+      <c r="B108">
+        <v>213.395</v>
+      </c>
+      <c r="C108">
+        <v>203</v>
+      </c>
+      <c r="D108">
+        <v>255</v>
+      </c>
+      <c r="E108">
+        <v>802.2301256281416</v>
+      </c>
+      <c r="F108">
+        <v>28.3236672348081</v>
+      </c>
+      <c r="G108">
+        <v>83</v>
+      </c>
+      <c r="H108">
+        <v>172</v>
+      </c>
+      <c r="I108">
+        <v>255</v>
+      </c>
+      <c r="J108">
+        <v>190</v>
+      </c>
+      <c r="K108">
+        <v>203</v>
+      </c>
+      <c r="L108">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109">
+        <v>42697</v>
+      </c>
+      <c r="B109">
+        <v>213.485</v>
+      </c>
+      <c r="C109">
+        <v>203.5</v>
+      </c>
+      <c r="D109">
+        <v>255</v>
+      </c>
+      <c r="E109">
+        <v>813.9897236180901</v>
+      </c>
+      <c r="F109">
+        <v>28.53050514130604</v>
+      </c>
+      <c r="G109">
+        <v>83</v>
+      </c>
+      <c r="H109">
+        <v>172</v>
+      </c>
+      <c r="I109">
+        <v>255</v>
+      </c>
+      <c r="J109">
+        <v>189.75</v>
+      </c>
+      <c r="K109">
+        <v>203.5</v>
+      </c>
+      <c r="L109">
+        <v>244.25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110">
+        <v>42697</v>
+      </c>
+      <c r="B110">
+        <v>213.485</v>
+      </c>
+      <c r="C110">
+        <v>203</v>
+      </c>
+      <c r="D110">
+        <v>255</v>
+      </c>
+      <c r="E110">
+        <v>793.3163567839191</v>
+      </c>
+      <c r="F110">
+        <v>28.16587219995005</v>
+      </c>
+      <c r="G110">
+        <v>79</v>
+      </c>
+      <c r="H110">
+        <v>176</v>
+      </c>
+      <c r="I110">
+        <v>255</v>
+      </c>
+      <c r="J110">
+        <v>190</v>
+      </c>
+      <c r="K110">
+        <v>203</v>
+      </c>
+      <c r="L110">
+        <v>245.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111">
+        <v>42613</v>
+      </c>
+      <c r="B111">
+        <v>213.065</v>
+      </c>
+      <c r="C111">
+        <v>201.5</v>
+      </c>
+      <c r="D111">
+        <v>255</v>
+      </c>
+      <c r="E111">
+        <v>821.5987688442206</v>
+      </c>
+      <c r="F111">
+        <v>28.66354424777614</v>
+      </c>
+      <c r="G111">
+        <v>81</v>
+      </c>
+      <c r="H111">
+        <v>174</v>
+      </c>
+      <c r="I111">
+        <v>255</v>
+      </c>
+      <c r="J111">
+        <v>189</v>
+      </c>
+      <c r="K111">
+        <v>201.5</v>
+      </c>
+      <c r="L111">
+        <v>246.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112">
+        <v>42537</v>
+      </c>
+      <c r="B112">
+        <v>212.685</v>
+      </c>
+      <c r="C112">
+        <v>199</v>
+      </c>
+      <c r="D112">
+        <v>255</v>
+      </c>
+      <c r="E112">
+        <v>870.8299246231157</v>
+      </c>
+      <c r="F112">
+        <v>29.50982759392395</v>
+      </c>
+      <c r="G112">
+        <v>85</v>
+      </c>
+      <c r="H112">
+        <v>170</v>
+      </c>
+      <c r="I112">
+        <v>255</v>
+      </c>
+      <c r="J112">
+        <v>188</v>
+      </c>
+      <c r="K112">
+        <v>199</v>
+      </c>
+      <c r="L112">
+        <v>245.25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113">
+        <v>42484</v>
+      </c>
+      <c r="B113">
+        <v>212.42</v>
+      </c>
+      <c r="C113">
+        <v>200.5</v>
+      </c>
+      <c r="D113">
+        <v>255</v>
+      </c>
+      <c r="E113">
+        <v>904.2347738693469</v>
+      </c>
+      <c r="F113">
+        <v>30.07049673466248</v>
+      </c>
+      <c r="G113">
+        <v>86</v>
+      </c>
+      <c r="H113">
+        <v>169</v>
+      </c>
+      <c r="I113">
+        <v>255</v>
+      </c>
+      <c r="J113">
+        <v>186</v>
+      </c>
+      <c r="K113">
+        <v>200.5</v>
+      </c>
+      <c r="L113">
+        <v>246.25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114">
+        <v>42393</v>
+      </c>
+      <c r="B114">
+        <v>211.965</v>
+      </c>
+      <c r="C114">
+        <v>199</v>
+      </c>
+      <c r="D114">
+        <v>255</v>
+      </c>
+      <c r="E114">
+        <v>887.3605778894463</v>
+      </c>
+      <c r="F114">
+        <v>29.78859811890191</v>
+      </c>
+      <c r="G114">
+        <v>87</v>
+      </c>
+      <c r="H114">
+        <v>168</v>
+      </c>
+      <c r="I114">
+        <v>255</v>
+      </c>
+      <c r="J114">
+        <v>187</v>
+      </c>
+      <c r="K114">
+        <v>199</v>
+      </c>
+      <c r="L114">
+        <v>244.25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115">
+        <v>42324</v>
+      </c>
+      <c r="B115">
+        <v>211.62</v>
+      </c>
+      <c r="C115">
+        <v>196</v>
+      </c>
+      <c r="D115">
+        <v>255</v>
+      </c>
+      <c r="E115">
+        <v>889.9654271356796</v>
+      </c>
+      <c r="F115">
+        <v>29.83228833220274</v>
+      </c>
+      <c r="G115">
+        <v>85</v>
+      </c>
+      <c r="H115">
+        <v>170</v>
+      </c>
+      <c r="I115">
+        <v>255</v>
+      </c>
+      <c r="J115">
+        <v>187</v>
+      </c>
+      <c r="K115">
+        <v>196</v>
+      </c>
+      <c r="L115">
+        <v>245.25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116">
+        <v>42324</v>
+      </c>
+      <c r="B116">
+        <v>211.62</v>
+      </c>
+      <c r="C116">
+        <v>195</v>
+      </c>
+      <c r="D116">
+        <v>255</v>
+      </c>
+      <c r="E116">
+        <v>898.99055276382</v>
+      </c>
+      <c r="F116">
+        <v>29.98317115923231</v>
+      </c>
+      <c r="G116">
+        <v>85</v>
+      </c>
+      <c r="H116">
+        <v>170</v>
+      </c>
+      <c r="I116">
+        <v>255</v>
+      </c>
+      <c r="J116">
+        <v>186</v>
+      </c>
+      <c r="K116">
+        <v>195</v>
+      </c>
+      <c r="L116">
+        <v>245.25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117">
+        <v>42388</v>
+      </c>
+      <c r="B117">
+        <v>211.94</v>
+      </c>
+      <c r="C117">
+        <v>194</v>
+      </c>
+      <c r="D117">
+        <v>255</v>
+      </c>
+      <c r="E117">
+        <v>921.4335678391958</v>
+      </c>
+      <c r="F117">
+        <v>30.3551242435144</v>
+      </c>
+      <c r="G117">
+        <v>82</v>
+      </c>
+      <c r="H117">
+        <v>173</v>
+      </c>
+      <c r="I117">
+        <v>255</v>
+      </c>
+      <c r="J117">
+        <v>186</v>
+      </c>
+      <c r="K117">
+        <v>194</v>
+      </c>
+      <c r="L117">
+        <v>247.25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118">
+        <v>42506</v>
+      </c>
+      <c r="B118">
+        <v>212.53</v>
+      </c>
+      <c r="C118">
+        <v>197</v>
+      </c>
+      <c r="D118">
+        <v>255</v>
+      </c>
+      <c r="E118">
+        <v>909.9488442211049</v>
+      </c>
+      <c r="F118">
+        <v>30.16535834730138</v>
+      </c>
+      <c r="G118">
+        <v>80</v>
+      </c>
+      <c r="H118">
+        <v>175</v>
+      </c>
+      <c r="I118">
+        <v>255</v>
+      </c>
+      <c r="J118">
+        <v>187</v>
+      </c>
+      <c r="K118">
+        <v>197</v>
+      </c>
+      <c r="L118">
+        <v>248.75</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119">
+        <v>42576</v>
+      </c>
+      <c r="B119">
+        <v>212.88</v>
+      </c>
+      <c r="C119">
+        <v>198</v>
+      </c>
+      <c r="D119">
+        <v>255</v>
+      </c>
+      <c r="E119">
+        <v>883.5935678391963</v>
+      </c>
+      <c r="F119">
+        <v>29.72530181241557</v>
+      </c>
+      <c r="G119">
+        <v>81</v>
+      </c>
+      <c r="H119">
+        <v>174</v>
+      </c>
+      <c r="I119">
+        <v>255</v>
+      </c>
+      <c r="J119">
+        <v>187</v>
+      </c>
+      <c r="K119">
+        <v>198</v>
+      </c>
+      <c r="L119">
+        <v>248.25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120">
+        <v>42581</v>
+      </c>
+      <c r="B120">
+        <v>212.905</v>
+      </c>
+      <c r="C120">
+        <v>197.5</v>
+      </c>
+      <c r="D120">
+        <v>255</v>
+      </c>
+      <c r="E120">
+        <v>859.6441959798988</v>
+      </c>
+      <c r="F120">
+        <v>29.31968956145168</v>
+      </c>
+      <c r="G120">
+        <v>80</v>
+      </c>
+      <c r="H120">
+        <v>175</v>
+      </c>
+      <c r="I120">
+        <v>255</v>
+      </c>
+      <c r="J120">
+        <v>187</v>
+      </c>
+      <c r="K120">
+        <v>197.5</v>
+      </c>
+      <c r="L120">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121">
+        <v>42555</v>
+      </c>
+      <c r="B121">
+        <v>212.775</v>
+      </c>
+      <c r="C121">
+        <v>199</v>
+      </c>
+      <c r="D121">
+        <v>255</v>
+      </c>
+      <c r="E121">
+        <v>862.9993718592966</v>
+      </c>
+      <c r="F121">
+        <v>29.37685095205571</v>
+      </c>
+      <c r="G121">
+        <v>82</v>
+      </c>
+      <c r="H121">
+        <v>173</v>
+      </c>
+      <c r="I121">
+        <v>255</v>
+      </c>
+      <c r="J121">
+        <v>187</v>
+      </c>
+      <c r="K121">
+        <v>199</v>
+      </c>
+      <c r="L121">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122">
+        <v>42587</v>
+      </c>
+      <c r="B122">
+        <v>212.935</v>
+      </c>
+      <c r="C122">
+        <v>200</v>
+      </c>
+      <c r="D122">
+        <v>255</v>
+      </c>
+      <c r="E122">
+        <v>865.6691206030155</v>
+      </c>
+      <c r="F122">
+        <v>29.42225553221601</v>
+      </c>
+      <c r="G122">
+        <v>79</v>
+      </c>
+      <c r="H122">
+        <v>176</v>
+      </c>
+      <c r="I122">
+        <v>255</v>
+      </c>
+      <c r="J122">
+        <v>186</v>
+      </c>
+      <c r="K122">
+        <v>200</v>
+      </c>
+      <c r="L122">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123">
+        <v>42570</v>
+      </c>
+      <c r="B123">
+        <v>212.85</v>
+      </c>
+      <c r="C123">
+        <v>201</v>
+      </c>
+      <c r="D123">
+        <v>255</v>
+      </c>
+      <c r="E123">
+        <v>878.0979899497486</v>
+      </c>
+      <c r="F123">
+        <v>29.63271823423812</v>
+      </c>
+      <c r="G123">
+        <v>80</v>
+      </c>
+      <c r="H123">
+        <v>175</v>
+      </c>
+      <c r="I123">
+        <v>255</v>
+      </c>
+      <c r="J123">
+        <v>186.75</v>
+      </c>
+      <c r="K123">
+        <v>201</v>
+      </c>
+      <c r="L123">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124">
+        <v>42522</v>
+      </c>
+      <c r="B124">
+        <v>212.61</v>
+      </c>
+      <c r="C124">
+        <v>201</v>
+      </c>
+      <c r="D124">
+        <v>255</v>
+      </c>
+      <c r="E124">
+        <v>899.0129648241194</v>
+      </c>
+      <c r="F124">
+        <v>29.98354490089721</v>
+      </c>
+      <c r="G124">
+        <v>81</v>
+      </c>
+      <c r="H124">
+        <v>174</v>
+      </c>
+      <c r="I124">
+        <v>255</v>
+      </c>
+      <c r="J124">
+        <v>186</v>
+      </c>
+      <c r="K124">
+        <v>201</v>
+      </c>
+      <c r="L124">
+        <v>247.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125">
+        <v>42400</v>
+      </c>
+      <c r="B125">
+        <v>212</v>
+      </c>
+      <c r="C125">
+        <v>197.5</v>
+      </c>
+      <c r="D125">
+        <v>255</v>
+      </c>
+      <c r="E125">
+        <v>932.8341708542714</v>
+      </c>
+      <c r="F125">
+        <v>30.54233407672491</v>
+      </c>
+      <c r="G125">
+        <v>81</v>
+      </c>
+      <c r="H125">
+        <v>174</v>
+      </c>
+      <c r="I125">
+        <v>255</v>
+      </c>
+      <c r="J125">
+        <v>185</v>
+      </c>
+      <c r="K125">
+        <v>197.5</v>
+      </c>
+      <c r="L125">
+        <v>248.25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126">
+        <v>42342</v>
+      </c>
+      <c r="B126">
+        <v>211.71</v>
+      </c>
+      <c r="C126">
+        <v>197</v>
+      </c>
+      <c r="D126">
+        <v>255</v>
+      </c>
+      <c r="E126">
+        <v>970.6089447236182</v>
+      </c>
+      <c r="F126">
+        <v>31.15459748935329</v>
+      </c>
+      <c r="G126">
+        <v>84</v>
+      </c>
+      <c r="H126">
+        <v>171</v>
+      </c>
+      <c r="I126">
+        <v>255</v>
+      </c>
+      <c r="J126">
+        <v>184</v>
+      </c>
+      <c r="K126">
+        <v>197</v>
+      </c>
+      <c r="L126">
+        <v>247.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127">
+        <v>42309</v>
+      </c>
+      <c r="B127">
+        <v>211.545</v>
+      </c>
+      <c r="C127">
+        <v>195</v>
+      </c>
+      <c r="D127">
+        <v>255</v>
+      </c>
+      <c r="E127">
+        <v>996.5607788944736</v>
+      </c>
+      <c r="F127">
+        <v>31.56835090552678</v>
+      </c>
+      <c r="G127">
+        <v>86</v>
+      </c>
+      <c r="H127">
+        <v>169</v>
+      </c>
+      <c r="I127">
+        <v>255</v>
+      </c>
+      <c r="J127">
+        <v>184</v>
+      </c>
+      <c r="K127">
+        <v>195</v>
+      </c>
+      <c r="L127">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128">
+        <v>42321</v>
+      </c>
+      <c r="B128">
+        <v>211.605</v>
+      </c>
+      <c r="C128">
+        <v>195</v>
+      </c>
+      <c r="D128">
+        <v>255</v>
+      </c>
+      <c r="E128">
+        <v>999.1245979899493</v>
+      </c>
+      <c r="F128">
+        <v>31.60893225007687</v>
+      </c>
+      <c r="G128">
+        <v>87</v>
+      </c>
+      <c r="H128">
+        <v>168</v>
+      </c>
+      <c r="I128">
+        <v>255</v>
+      </c>
+      <c r="J128">
+        <v>183.75</v>
+      </c>
+      <c r="K128">
+        <v>195</v>
+      </c>
+      <c r="L128">
+        <v>248.25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129">
+        <v>42412</v>
+      </c>
+      <c r="B129">
+        <v>212.06</v>
+      </c>
+      <c r="C129">
+        <v>197.5</v>
+      </c>
+      <c r="D129">
+        <v>255</v>
+      </c>
+      <c r="E129">
+        <v>973.3632160804016</v>
+      </c>
+      <c r="F129">
+        <v>31.19876946420165</v>
+      </c>
+      <c r="G129">
+        <v>81</v>
+      </c>
+      <c r="H129">
+        <v>174</v>
+      </c>
+      <c r="I129">
+        <v>255</v>
+      </c>
+      <c r="J129">
+        <v>183</v>
+      </c>
+      <c r="K129">
+        <v>197.5</v>
+      </c>
+      <c r="L129">
+        <v>248.25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130">
+        <v>42435</v>
+      </c>
+      <c r="B130">
+        <v>212.175</v>
+      </c>
+      <c r="C130">
+        <v>203</v>
+      </c>
+      <c r="D130">
+        <v>255</v>
+      </c>
+      <c r="E130">
+        <v>982.4064070351759</v>
+      </c>
+      <c r="F130">
+        <v>31.34336304602899</v>
+      </c>
+      <c r="G130">
+        <v>84</v>
+      </c>
+      <c r="H130">
+        <v>171</v>
+      </c>
+      <c r="I130">
+        <v>255</v>
+      </c>
+      <c r="J130">
+        <v>183</v>
+      </c>
+      <c r="K130">
+        <v>203</v>
+      </c>
+      <c r="L130">
+        <v>249.25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131">
+        <v>42372</v>
+      </c>
+      <c r="B131">
+        <v>211.86</v>
+      </c>
+      <c r="C131">
+        <v>204</v>
+      </c>
+      <c r="D131">
+        <v>255</v>
+      </c>
+      <c r="E131">
+        <v>1032.784321608042</v>
+      </c>
+      <c r="F131">
+        <v>32.13696192249731</v>
+      </c>
+      <c r="G131">
+        <v>86</v>
+      </c>
+      <c r="H131">
+        <v>169</v>
+      </c>
+      <c r="I131">
+        <v>255</v>
+      </c>
+      <c r="J131">
+        <v>181</v>
+      </c>
+      <c r="K131">
+        <v>204</v>
+      </c>
+      <c r="L131">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132">
+        <v>42255</v>
+      </c>
+      <c r="B132">
+        <v>211.275</v>
+      </c>
+      <c r="C132">
+        <v>201.5</v>
+      </c>
+      <c r="D132">
+        <v>255</v>
+      </c>
+      <c r="E132">
+        <v>1122.592336683415</v>
+      </c>
+      <c r="F132">
+        <v>33.50510911313997</v>
+      </c>
+      <c r="G132">
+        <v>89</v>
+      </c>
+      <c r="H132">
+        <v>166</v>
+      </c>
+      <c r="I132">
+        <v>255</v>
+      </c>
+      <c r="J132">
+        <v>179</v>
+      </c>
+      <c r="K132">
+        <v>201.5</v>
+      </c>
+      <c r="L132">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133">
+        <v>42239</v>
+      </c>
+      <c r="B133">
+        <v>211.195</v>
+      </c>
+      <c r="C133">
+        <v>198.5</v>
+      </c>
+      <c r="D133">
+        <v>255</v>
+      </c>
+      <c r="E133">
+        <v>1142.007010050253</v>
+      </c>
+      <c r="F133">
+        <v>33.79359421621578</v>
+      </c>
+      <c r="G133">
+        <v>88</v>
+      </c>
+      <c r="H133">
+        <v>167</v>
+      </c>
+      <c r="I133">
+        <v>255</v>
+      </c>
+      <c r="J133">
+        <v>180</v>
+      </c>
+      <c r="K133">
+        <v>198.5</v>
+      </c>
+      <c r="L133">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134">
+        <v>42273</v>
+      </c>
+      <c r="B134">
+        <v>211.365</v>
+      </c>
+      <c r="C134">
+        <v>199</v>
+      </c>
+      <c r="D134">
+        <v>255</v>
+      </c>
+      <c r="E134">
+        <v>1139.358567839196</v>
+      </c>
+      <c r="F134">
+        <v>33.7543859052301</v>
+      </c>
+      <c r="G134">
+        <v>89</v>
+      </c>
+      <c r="H134">
+        <v>166</v>
+      </c>
+      <c r="I134">
+        <v>255</v>
+      </c>
+      <c r="J134">
+        <v>180</v>
+      </c>
+      <c r="K134">
+        <v>199</v>
+      </c>
+      <c r="L134">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135">
+        <v>42396</v>
+      </c>
+      <c r="B135">
+        <v>211.98</v>
+      </c>
+      <c r="C135">
+        <v>201.5</v>
+      </c>
+      <c r="D135">
+        <v>255</v>
+      </c>
+      <c r="E135">
+        <v>1116.371457286431</v>
+      </c>
+      <c r="F135">
+        <v>33.41214535593952</v>
+      </c>
+      <c r="G135">
+        <v>88</v>
+      </c>
+      <c r="H135">
+        <v>167</v>
+      </c>
+      <c r="I135">
+        <v>255</v>
+      </c>
+      <c r="J135">
+        <v>181</v>
+      </c>
+      <c r="K135">
+        <v>201.5</v>
+      </c>
+      <c r="L135">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136">
+        <v>42583</v>
+      </c>
+      <c r="B136">
+        <v>212.915</v>
+      </c>
+      <c r="C136">
+        <v>202.5</v>
+      </c>
+      <c r="D136">
+        <v>255</v>
+      </c>
+      <c r="E136">
+        <v>1068.369623115577</v>
+      </c>
+      <c r="F136">
+        <v>32.68592392935493</v>
+      </c>
+      <c r="G136">
+        <v>87</v>
+      </c>
+      <c r="H136">
+        <v>168</v>
+      </c>
+      <c r="I136">
+        <v>255</v>
+      </c>
+      <c r="J136">
+        <v>183</v>
+      </c>
+      <c r="K136">
+        <v>202.5</v>
+      </c>
+      <c r="L136">
+        <v>254.25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137">
+        <v>42522</v>
+      </c>
+      <c r="B137">
+        <v>212.61</v>
+      </c>
+      <c r="C137">
+        <v>202</v>
+      </c>
+      <c r="D137">
+        <v>255</v>
+      </c>
+      <c r="E137">
+        <v>1082.892361809043</v>
+      </c>
+      <c r="F137">
+        <v>32.90732991005262</v>
+      </c>
+      <c r="G137">
+        <v>86</v>
+      </c>
+      <c r="H137">
+        <v>169</v>
+      </c>
+      <c r="I137">
+        <v>255</v>
+      </c>
+      <c r="J137">
+        <v>182</v>
+      </c>
+      <c r="K137">
+        <v>202</v>
+      </c>
+      <c r="L137">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138">
+        <v>42431</v>
+      </c>
+      <c r="B138">
+        <v>212.155</v>
+      </c>
+      <c r="C138">
+        <v>204.5</v>
+      </c>
+      <c r="D138">
+        <v>255</v>
+      </c>
+      <c r="E138">
+        <v>1112.553743718594</v>
+      </c>
+      <c r="F138">
+        <v>33.35496580298942</v>
+      </c>
+      <c r="G138">
+        <v>88</v>
+      </c>
+      <c r="H138">
+        <v>167</v>
+      </c>
+      <c r="I138">
+        <v>255</v>
+      </c>
+      <c r="J138">
+        <v>181.75</v>
+      </c>
+      <c r="K138">
+        <v>204.5</v>
+      </c>
+      <c r="L138">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139">
+        <v>42415</v>
+      </c>
+      <c r="B139">
+        <v>212.075</v>
+      </c>
+      <c r="C139">
+        <v>207</v>
+      </c>
+      <c r="D139">
+        <v>255</v>
+      </c>
+      <c r="E139">
+        <v>1137.969221105529</v>
+      </c>
+      <c r="F139">
+        <v>33.73379938734339</v>
+      </c>
+      <c r="G139">
+        <v>88</v>
+      </c>
+      <c r="H139">
+        <v>167</v>
+      </c>
+      <c r="I139">
+        <v>255</v>
+      </c>
+      <c r="J139">
+        <v>181</v>
+      </c>
+      <c r="K139">
+        <v>207</v>
+      </c>
+      <c r="L139">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140">
+        <v>42551</v>
+      </c>
+      <c r="B140">
+        <v>212.755</v>
+      </c>
+      <c r="C140">
+        <v>205.5</v>
+      </c>
+      <c r="D140">
+        <v>255</v>
+      </c>
+      <c r="E140">
+        <v>1140.899472361808</v>
+      </c>
+      <c r="F140">
+        <v>33.77720344199336</v>
+      </c>
+      <c r="G140">
+        <v>90</v>
+      </c>
+      <c r="H140">
+        <v>165</v>
+      </c>
+      <c r="I140">
+        <v>255</v>
+      </c>
+      <c r="J140">
+        <v>180.75</v>
+      </c>
+      <c r="K140">
+        <v>205.5</v>
+      </c>
+      <c r="L140">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141">
+        <v>42514</v>
+      </c>
+      <c r="B141">
+        <v>212.57</v>
+      </c>
+      <c r="C141">
+        <v>208.5</v>
+      </c>
+      <c r="D141">
+        <v>255</v>
+      </c>
+      <c r="E141">
+        <v>1176.175979899496</v>
+      </c>
+      <c r="F141">
+        <v>34.29542214202205</v>
+      </c>
+      <c r="G141">
+        <v>93</v>
+      </c>
+      <c r="H141">
+        <v>162</v>
+      </c>
+      <c r="I141">
+        <v>255</v>
+      </c>
+      <c r="J141">
+        <v>178</v>
+      </c>
+      <c r="K141">
+        <v>208.5</v>
+      </c>
+      <c r="L141">
+        <v>254.25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142">
+        <v>42548</v>
+      </c>
+      <c r="B142">
+        <v>212.74</v>
+      </c>
+      <c r="C142">
+        <v>210.5</v>
+      </c>
+      <c r="D142">
+        <v>255</v>
+      </c>
+      <c r="E142">
+        <v>1202.937085427136</v>
+      </c>
+      <c r="F142">
+        <v>34.68338341954452</v>
+      </c>
+      <c r="G142">
+        <v>92</v>
+      </c>
+      <c r="H142">
+        <v>163</v>
+      </c>
+      <c r="I142">
+        <v>255</v>
+      </c>
+      <c r="J142">
+        <v>176</v>
+      </c>
+      <c r="K142">
+        <v>210.5</v>
+      </c>
+      <c r="L142">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143">
+        <v>42608</v>
+      </c>
+      <c r="B143">
+        <v>213.04</v>
+      </c>
+      <c r="C143">
+        <v>212</v>
+      </c>
+      <c r="D143">
+        <v>255</v>
+      </c>
+      <c r="E143">
+        <v>1244.541105527638</v>
+      </c>
+      <c r="F143">
+        <v>35.27805416300109</v>
+      </c>
+      <c r="G143">
+        <v>90</v>
+      </c>
+      <c r="H143">
+        <v>165</v>
+      </c>
+      <c r="I143">
+        <v>255</v>
+      </c>
+      <c r="J143">
+        <v>176</v>
+      </c>
+      <c r="K143">
+        <v>212</v>
+      </c>
+      <c r="L143">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144">
+        <v>42603</v>
+      </c>
+      <c r="B144">
+        <v>213.015</v>
+      </c>
+      <c r="C144">
+        <v>212</v>
+      </c>
+      <c r="D144">
+        <v>255</v>
+      </c>
+      <c r="E144">
+        <v>1249.492236180905</v>
+      </c>
+      <c r="F144">
+        <v>35.34815746514809</v>
+      </c>
+      <c r="G144">
+        <v>91</v>
+      </c>
+      <c r="H144">
+        <v>164</v>
+      </c>
+      <c r="I144">
+        <v>255</v>
+      </c>
+      <c r="J144">
+        <v>177</v>
+      </c>
+      <c r="K144">
+        <v>212</v>
+      </c>
+      <c r="L144">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145">
+        <v>42663</v>
+      </c>
+      <c r="B145">
+        <v>213.315</v>
+      </c>
+      <c r="C145">
+        <v>211.5</v>
+      </c>
+      <c r="D145">
+        <v>255</v>
+      </c>
+      <c r="E145">
+        <v>1250.809824120602</v>
+      </c>
+      <c r="F145">
+        <v>35.36678984754768</v>
+      </c>
+      <c r="G145">
+        <v>91</v>
+      </c>
+      <c r="H145">
+        <v>164</v>
+      </c>
+      <c r="I145">
+        <v>255</v>
+      </c>
+      <c r="J145">
+        <v>177</v>
+      </c>
+      <c r="K145">
+        <v>211.5</v>
+      </c>
+      <c r="L145">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146">
+        <v>42756</v>
+      </c>
+      <c r="B146">
+        <v>213.78</v>
+      </c>
+      <c r="C146">
+        <v>213</v>
+      </c>
+      <c r="D146">
+        <v>255</v>
+      </c>
+      <c r="E146">
+        <v>1261.056884422112</v>
+      </c>
+      <c r="F146">
+        <v>35.51136275084514</v>
+      </c>
+      <c r="G146">
+        <v>90</v>
+      </c>
+      <c r="H146">
+        <v>165</v>
+      </c>
+      <c r="I146">
+        <v>255</v>
+      </c>
+      <c r="J146">
+        <v>177.75</v>
+      </c>
+      <c r="K146">
+        <v>213</v>
+      </c>
+      <c r="L146">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147">
+        <v>42844</v>
+      </c>
+      <c r="B147">
+        <v>214.22</v>
+      </c>
+      <c r="C147">
+        <v>214</v>
+      </c>
+      <c r="D147">
+        <v>255</v>
+      </c>
+      <c r="E147">
+        <v>1274.373467336682</v>
+      </c>
+      <c r="F147">
+        <v>35.6983678525599</v>
+      </c>
+      <c r="G147">
+        <v>91</v>
+      </c>
+      <c r="H147">
+        <v>164</v>
+      </c>
+      <c r="I147">
+        <v>255</v>
+      </c>
+      <c r="J147">
+        <v>177</v>
+      </c>
+      <c r="K147">
+        <v>214</v>
+      </c>
+      <c r="L147">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148">
+        <v>42861</v>
+      </c>
+      <c r="B148">
+        <v>214.305</v>
+      </c>
+      <c r="C148">
+        <v>213.5</v>
+      </c>
+      <c r="D148">
+        <v>255</v>
+      </c>
+      <c r="E148">
+        <v>1282.785904522612</v>
+      </c>
+      <c r="F148">
+        <v>35.81600067738736</v>
+      </c>
+      <c r="G148">
+        <v>93</v>
+      </c>
+      <c r="H148">
+        <v>162</v>
+      </c>
+      <c r="I148">
+        <v>255</v>
+      </c>
+      <c r="J148">
+        <v>177</v>
+      </c>
+      <c r="K148">
+        <v>213.5</v>
+      </c>
+      <c r="L148">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149">
+        <v>42972</v>
+      </c>
+      <c r="B149">
+        <v>214.86</v>
+      </c>
+      <c r="C149">
+        <v>213</v>
+      </c>
+      <c r="D149">
+        <v>255</v>
+      </c>
+      <c r="E149">
+        <v>1270.543115577892</v>
+      </c>
+      <c r="F149">
+        <v>35.64467864321254</v>
+      </c>
+      <c r="G149">
+        <v>95</v>
+      </c>
+      <c r="H149">
+        <v>160</v>
+      </c>
+      <c r="I149">
+        <v>255</v>
+      </c>
+      <c r="J149">
+        <v>178</v>
+      </c>
+      <c r="K149">
+        <v>213</v>
+      </c>
+      <c r="L149">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150">
+        <v>43103</v>
+      </c>
+      <c r="B150">
+        <v>215.515</v>
+      </c>
+      <c r="C150">
+        <v>215.5</v>
+      </c>
+      <c r="D150">
+        <v>255</v>
+      </c>
+      <c r="E150">
+        <v>1241.406809045225</v>
+      </c>
+      <c r="F150">
+        <v>35.23360340704915</v>
+      </c>
+      <c r="G150">
+        <v>94</v>
+      </c>
+      <c r="H150">
+        <v>161</v>
+      </c>
+      <c r="I150">
+        <v>255</v>
+      </c>
+      <c r="J150">
+        <v>179</v>
+      </c>
+      <c r="K150">
+        <v>215.5</v>
+      </c>
+      <c r="L150">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151">
+        <v>43213</v>
+      </c>
+      <c r="B151">
+        <v>216.065</v>
+      </c>
+      <c r="C151">
+        <v>219</v>
+      </c>
+      <c r="D151">
+        <v>255</v>
+      </c>
+      <c r="E151">
+        <v>1238.432939698493</v>
+      </c>
+      <c r="F151">
+        <v>35.19137592789593</v>
+      </c>
+      <c r="G151">
+        <v>94</v>
+      </c>
+      <c r="H151">
+        <v>161</v>
+      </c>
+      <c r="I151">
+        <v>255</v>
+      </c>
+      <c r="J151">
+        <v>178</v>
+      </c>
+      <c r="K151">
+        <v>219</v>
+      </c>
+      <c r="L151">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152">
+        <v>43106</v>
+      </c>
+      <c r="B152">
+        <v>215.53</v>
+      </c>
+      <c r="C152">
+        <v>215.5</v>
+      </c>
+      <c r="D152">
+        <v>255</v>
+      </c>
+      <c r="E152">
+        <v>1283.587035175878</v>
+      </c>
+      <c r="F152">
+        <v>35.82718290873395</v>
+      </c>
+      <c r="G152">
+        <v>97</v>
+      </c>
+      <c r="H152">
+        <v>158</v>
+      </c>
+      <c r="I152">
+        <v>255</v>
+      </c>
+      <c r="J152">
+        <v>179</v>
+      </c>
+      <c r="K152">
+        <v>215.5</v>
+      </c>
+      <c r="L152">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153">
+        <v>43153</v>
+      </c>
+      <c r="B153">
+        <v>215.765</v>
+      </c>
+      <c r="C153">
+        <v>217.5</v>
+      </c>
+      <c r="D153">
+        <v>255</v>
+      </c>
+      <c r="E153">
+        <v>1313.346507537688</v>
+      </c>
+      <c r="F153">
+        <v>36.2401228962829</v>
+      </c>
+      <c r="G153">
+        <v>96</v>
+      </c>
+      <c r="H153">
+        <v>159</v>
+      </c>
+      <c r="I153">
+        <v>255</v>
+      </c>
+      <c r="J153">
+        <v>177</v>
+      </c>
+      <c r="K153">
+        <v>217.5</v>
+      </c>
+      <c r="L153">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154">
+        <v>43265</v>
+      </c>
+      <c r="B154">
+        <v>216.325</v>
+      </c>
+      <c r="C154">
+        <v>217</v>
+      </c>
+      <c r="D154">
+        <v>255</v>
+      </c>
+      <c r="E154">
+        <v>1324.552135678392</v>
+      </c>
+      <c r="F154">
+        <v>36.39439703688457</v>
+      </c>
+      <c r="G154">
+        <v>96</v>
+      </c>
+      <c r="H154">
+        <v>159</v>
+      </c>
+      <c r="I154">
+        <v>255</v>
+      </c>
+      <c r="J154">
+        <v>176.75</v>
+      </c>
+      <c r="K154">
+        <v>217</v>
+      </c>
+      <c r="L154">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155">
+        <v>43411</v>
+      </c>
+      <c r="B155">
+        <v>217.055</v>
+      </c>
+      <c r="C155">
+        <v>216.5</v>
+      </c>
+      <c r="D155">
+        <v>255</v>
+      </c>
+      <c r="E155">
+        <v>1316.916557788945</v>
+      </c>
+      <c r="F155">
+        <v>36.28934496224677</v>
+      </c>
+      <c r="G155">
+        <v>96</v>
+      </c>
+      <c r="H155">
+        <v>159</v>
+      </c>
+      <c r="I155">
+        <v>255</v>
+      </c>
+      <c r="J155">
+        <v>179</v>
+      </c>
+      <c r="K155">
+        <v>216.5</v>
+      </c>
+      <c r="L155">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156">
+        <v>43432</v>
+      </c>
+      <c r="B156">
+        <v>217.16</v>
+      </c>
+      <c r="C156">
+        <v>232</v>
+      </c>
+      <c r="D156">
+        <v>255</v>
+      </c>
+      <c r="E156">
+        <v>1345.682814070351</v>
+      </c>
+      <c r="F156">
+        <v>36.68354963836448</v>
+      </c>
+      <c r="G156">
+        <v>94</v>
+      </c>
+      <c r="H156">
+        <v>161</v>
+      </c>
+      <c r="I156">
+        <v>255</v>
+      </c>
+      <c r="J156">
+        <v>178</v>
+      </c>
+      <c r="K156">
+        <v>232</v>
+      </c>
+      <c r="L156">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157">
+        <v>43505</v>
+      </c>
+      <c r="B157">
+        <v>217.525</v>
+      </c>
+      <c r="C157">
+        <v>243</v>
+      </c>
+      <c r="D157">
+        <v>255</v>
+      </c>
+      <c r="E157">
+        <v>1348.210427135677</v>
+      </c>
+      <c r="F157">
+        <v>36.71798506366705</v>
+      </c>
+      <c r="G157">
+        <v>95</v>
+      </c>
+      <c r="H157">
+        <v>160</v>
+      </c>
+      <c r="I157">
+        <v>255</v>
+      </c>
+      <c r="J157">
+        <v>177.75</v>
+      </c>
+      <c r="K157">
+        <v>243</v>
+      </c>
+      <c r="L157">
+        <v>252.25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158">
+        <v>43587</v>
+      </c>
+      <c r="B158">
+        <v>217.935</v>
+      </c>
+      <c r="C158">
+        <v>243</v>
+      </c>
+      <c r="D158">
+        <v>255</v>
+      </c>
+      <c r="E158">
+        <v>1350.252035175879</v>
+      </c>
+      <c r="F158">
+        <v>36.74577574600758</v>
+      </c>
+      <c r="G158">
+        <v>101</v>
+      </c>
+      <c r="H158">
+        <v>154</v>
+      </c>
+      <c r="I158">
+        <v>255</v>
+      </c>
+      <c r="J158">
+        <v>178</v>
+      </c>
+      <c r="K158">
+        <v>243</v>
+      </c>
+      <c r="L158">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159">
+        <v>43655</v>
+      </c>
+      <c r="B159">
+        <v>218.275</v>
+      </c>
+      <c r="C159">
+        <v>240.5</v>
+      </c>
+      <c r="D159">
+        <v>255</v>
+      </c>
+      <c r="E159">
+        <v>1332.431532663315</v>
+      </c>
+      <c r="F159">
+        <v>36.50248666410707</v>
+      </c>
+      <c r="G159">
+        <v>107</v>
+      </c>
+      <c r="H159">
+        <v>148</v>
+      </c>
+      <c r="I159">
+        <v>255</v>
+      </c>
+      <c r="J159">
+        <v>181</v>
+      </c>
+      <c r="K159">
+        <v>240.5</v>
+      </c>
+      <c r="L159">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160">
+        <v>43634</v>
+      </c>
+      <c r="B160">
+        <v>218.17</v>
+      </c>
+      <c r="C160">
+        <v>238</v>
+      </c>
+      <c r="D160">
+        <v>255</v>
+      </c>
+      <c r="E160">
+        <v>1297.197085427135</v>
+      </c>
+      <c r="F160">
+        <v>36.01662234895348</v>
+      </c>
+      <c r="G160">
+        <v>106</v>
+      </c>
+      <c r="H160">
+        <v>149</v>
+      </c>
+      <c r="I160">
+        <v>255</v>
+      </c>
+      <c r="J160">
+        <v>181.75</v>
+      </c>
+      <c r="K160">
+        <v>238</v>
+      </c>
+      <c r="L160">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161">
+        <v>43737</v>
+      </c>
+      <c r="B161">
+        <v>218.685</v>
+      </c>
+      <c r="C161">
+        <v>237</v>
+      </c>
+      <c r="D161">
+        <v>255</v>
+      </c>
+      <c r="E161">
+        <v>1244.659070351759</v>
+      </c>
+      <c r="F161">
+        <v>35.27972605267449</v>
+      </c>
+      <c r="G161">
+        <v>102</v>
+      </c>
+      <c r="H161">
+        <v>153</v>
+      </c>
+      <c r="I161">
+        <v>255</v>
+      </c>
+      <c r="J161">
+        <v>182.5</v>
+      </c>
+      <c r="K161">
+        <v>237</v>
+      </c>
+      <c r="L161">
+        <v>252.25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162">
+        <v>43861</v>
+      </c>
+      <c r="B162">
+        <v>219.305</v>
+      </c>
+      <c r="C162">
+        <v>235</v>
+      </c>
+      <c r="D162">
+        <v>255</v>
+      </c>
+      <c r="E162">
+        <v>1194.645201005024</v>
+      </c>
+      <c r="F162">
+        <v>34.56363986916054</v>
+      </c>
+      <c r="G162">
+        <v>94</v>
+      </c>
+      <c r="H162">
+        <v>161</v>
+      </c>
+      <c r="I162">
+        <v>255</v>
+      </c>
+      <c r="J162">
+        <v>182.75</v>
+      </c>
+      <c r="K162">
+        <v>235</v>
+      </c>
+      <c r="L162">
+        <v>252.25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163">
+        <v>43889</v>
+      </c>
+      <c r="B163">
+        <v>219.445</v>
+      </c>
+      <c r="C163">
+        <v>236</v>
+      </c>
+      <c r="D163">
+        <v>255</v>
+      </c>
+      <c r="E163">
+        <v>1176.077361809047</v>
+      </c>
+      <c r="F163">
+        <v>34.29398433849655</v>
+      </c>
+      <c r="G163">
+        <v>100</v>
+      </c>
+      <c r="H163">
+        <v>155</v>
+      </c>
+      <c r="I163">
+        <v>255</v>
+      </c>
+      <c r="J163">
+        <v>184</v>
+      </c>
+      <c r="K163">
+        <v>236</v>
+      </c>
+      <c r="L163">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164">
+        <v>43968</v>
+      </c>
+      <c r="B164">
+        <v>219.84</v>
+      </c>
+      <c r="C164">
+        <v>233</v>
+      </c>
+      <c r="D164">
+        <v>255</v>
+      </c>
+      <c r="E164">
+        <v>1112.346130653267</v>
+      </c>
+      <c r="F164">
+        <v>33.35185348152733</v>
+      </c>
+      <c r="G164">
+        <v>101</v>
+      </c>
+      <c r="H164">
+        <v>154</v>
+      </c>
+      <c r="I164">
+        <v>255</v>
+      </c>
+      <c r="J164">
+        <v>186.75</v>
+      </c>
+      <c r="K164">
+        <v>233</v>
+      </c>
+      <c r="L164">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165">
+        <v>44026</v>
+      </c>
+      <c r="B165">
+        <v>220.13</v>
+      </c>
+      <c r="C165">
+        <v>233.5</v>
+      </c>
+      <c r="D165">
+        <v>255</v>
+      </c>
+      <c r="E165">
+        <v>1087.108643216082</v>
+      </c>
+      <c r="F165">
+        <v>32.97133062550072</v>
+      </c>
+      <c r="G165">
+        <v>96</v>
+      </c>
+      <c r="H165">
+        <v>159</v>
+      </c>
+      <c r="I165">
+        <v>255</v>
+      </c>
+      <c r="J165">
+        <v>186.75</v>
+      </c>
+      <c r="K165">
+        <v>233.5</v>
+      </c>
+      <c r="L165">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166">
+        <v>44051</v>
+      </c>
+      <c r="B166">
+        <v>220.255</v>
+      </c>
+      <c r="C166">
+        <v>234</v>
+      </c>
+      <c r="D166">
+        <v>255</v>
+      </c>
+      <c r="E166">
+        <v>1085.788919597992</v>
+      </c>
+      <c r="F166">
+        <v>32.95131134868522</v>
+      </c>
+      <c r="G166">
+        <v>98</v>
+      </c>
+      <c r="H166">
+        <v>157</v>
+      </c>
+      <c r="I166">
+        <v>255</v>
+      </c>
+      <c r="J166">
+        <v>187</v>
+      </c>
+      <c r="K166">
+        <v>234</v>
+      </c>
+      <c r="L166">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167">
+        <v>44056</v>
+      </c>
+      <c r="B167">
+        <v>220.28</v>
+      </c>
+      <c r="C167">
+        <v>236</v>
+      </c>
+      <c r="D167">
+        <v>255</v>
+      </c>
+      <c r="E167">
+        <v>1108.222713567838</v>
+      </c>
+      <c r="F167">
+        <v>33.28997917644044</v>
+      </c>
+      <c r="G167">
+        <v>101</v>
+      </c>
+      <c r="H167">
+        <v>154</v>
+      </c>
+      <c r="I167">
+        <v>255</v>
+      </c>
+      <c r="J167">
+        <v>187</v>
+      </c>
+      <c r="K167">
+        <v>236</v>
+      </c>
+      <c r="L167">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168">
+        <v>43795</v>
+      </c>
+      <c r="B168">
+        <v>218.975</v>
+      </c>
+      <c r="C168">
+        <v>235</v>
+      </c>
+      <c r="D168">
+        <v>255</v>
+      </c>
+      <c r="E168">
+        <v>1202.858668341708</v>
+      </c>
+      <c r="F168">
+        <v>34.68225293059417</v>
+      </c>
+      <c r="G168">
+        <v>103</v>
+      </c>
+      <c r="H168">
+        <v>152</v>
+      </c>
+      <c r="I168">
+        <v>255</v>
+      </c>
+      <c r="J168">
+        <v>183</v>
+      </c>
+      <c r="K168">
+        <v>235</v>
+      </c>
+      <c r="L168">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169">
+        <v>43540</v>
+      </c>
+      <c r="B169">
+        <v>217.7</v>
+      </c>
+      <c r="C169">
+        <v>235.5</v>
+      </c>
+      <c r="D169">
+        <v>255</v>
+      </c>
+      <c r="E169">
+        <v>1314.472361809046</v>
+      </c>
+      <c r="F169">
+        <v>36.25565282558081</v>
+      </c>
+      <c r="G169">
+        <v>107</v>
+      </c>
+      <c r="H169">
+        <v>148</v>
+      </c>
+      <c r="I169">
+        <v>255</v>
+      </c>
+      <c r="J169">
+        <v>179</v>
+      </c>
+      <c r="K169">
+        <v>235.5</v>
+      </c>
+      <c r="L169">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170">
+        <v>43320</v>
+      </c>
+      <c r="B170">
+        <v>216.6</v>
+      </c>
+      <c r="C170">
+        <v>235.5</v>
+      </c>
+      <c r="D170">
+        <v>255</v>
+      </c>
+      <c r="E170">
+        <v>1420.984924623115</v>
+      </c>
+      <c r="F170">
+        <v>37.69595369032484</v>
+      </c>
+      <c r="G170">
+        <v>109</v>
+      </c>
+      <c r="H170">
+        <v>146</v>
+      </c>
+      <c r="I170">
+        <v>255</v>
+      </c>
+      <c r="J170">
+        <v>174.75</v>
+      </c>
+      <c r="K170">
+        <v>235.5</v>
+      </c>
+      <c r="L170">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171">
+        <v>43169</v>
+      </c>
+      <c r="B171">
+        <v>215.845</v>
+      </c>
+      <c r="C171">
+        <v>235</v>
+      </c>
+      <c r="D171">
+        <v>255</v>
+      </c>
+      <c r="E171">
+        <v>1501.267311557792</v>
+      </c>
+      <c r="F171">
+        <v>38.74619092966162</v>
+      </c>
+      <c r="G171">
+        <v>109</v>
+      </c>
+      <c r="H171">
+        <v>146</v>
+      </c>
+      <c r="I171">
+        <v>255</v>
+      </c>
+      <c r="J171">
+        <v>176.75</v>
+      </c>
+      <c r="K171">
+        <v>235</v>
+      </c>
+      <c r="L171">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172">
+        <v>43026</v>
+      </c>
+      <c r="B172">
+        <v>215.13</v>
+      </c>
+      <c r="C172">
+        <v>233</v>
+      </c>
+      <c r="D172">
+        <v>255</v>
+      </c>
+      <c r="E172">
+        <v>1564.797085427138</v>
+      </c>
+      <c r="F172">
+        <v>39.55751616857583</v>
+      </c>
+      <c r="G172">
+        <v>111</v>
+      </c>
+      <c r="H172">
+        <v>144</v>
+      </c>
+      <c r="I172">
+        <v>255</v>
+      </c>
+      <c r="J172">
+        <v>173</v>
+      </c>
+      <c r="K172">
+        <v>233</v>
+      </c>
+      <c r="L172">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173">
+        <v>42895</v>
+      </c>
+      <c r="B173">
+        <v>214.475</v>
+      </c>
+      <c r="C173">
+        <v>232</v>
+      </c>
+      <c r="D173">
+        <v>255</v>
+      </c>
+      <c r="E173">
+        <v>1649.366206030151</v>
+      </c>
+      <c r="F173">
+        <v>40.61238980939377</v>
+      </c>
+      <c r="G173">
+        <v>112</v>
+      </c>
+      <c r="H173">
+        <v>143</v>
+      </c>
+      <c r="I173">
+        <v>255</v>
+      </c>
+      <c r="J173">
+        <v>173.75</v>
+      </c>
+      <c r="K173">
+        <v>232</v>
+      </c>
+      <c r="L173">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174">
+        <v>42789</v>
+      </c>
+      <c r="B174">
+        <v>213.945</v>
+      </c>
+      <c r="C174">
+        <v>232.5</v>
+      </c>
+      <c r="D174">
+        <v>255</v>
+      </c>
+      <c r="E174">
+        <v>1768.705502512562</v>
+      </c>
+      <c r="F174">
+        <v>42.05598057961033</v>
+      </c>
+      <c r="G174">
+        <v>119</v>
+      </c>
+      <c r="H174">
+        <v>136</v>
+      </c>
+      <c r="I174">
+        <v>255</v>
+      </c>
+      <c r="J174">
+        <v>177</v>
+      </c>
+      <c r="K174">
+        <v>232.5</v>
+      </c>
+      <c r="L174">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175">
+        <v>42827</v>
+      </c>
+      <c r="B175">
+        <v>214.135</v>
+      </c>
+      <c r="C175">
+        <v>235.5</v>
+      </c>
+      <c r="D175">
+        <v>255</v>
+      </c>
+      <c r="E175">
+        <v>1911.504296482413</v>
+      </c>
+      <c r="F175">
+        <v>43.72075361292864</v>
+      </c>
+      <c r="G175">
+        <v>124</v>
+      </c>
+      <c r="H175">
+        <v>131</v>
+      </c>
+      <c r="I175">
+        <v>255</v>
+      </c>
+      <c r="J175">
+        <v>176.5</v>
+      </c>
+      <c r="K175">
+        <v>235.5</v>
+      </c>
+      <c r="L175">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176">
+        <v>43147</v>
+      </c>
+      <c r="B176">
+        <v>215.735</v>
+      </c>
+      <c r="C176">
+        <v>237</v>
+      </c>
+      <c r="D176">
+        <v>255</v>
+      </c>
+      <c r="E176">
+        <v>1819.803793969852</v>
+      </c>
+      <c r="F176">
+        <v>42.65915838328098</v>
+      </c>
+      <c r="G176">
+        <v>122</v>
+      </c>
+      <c r="H176">
+        <v>133</v>
+      </c>
+      <c r="I176">
+        <v>255</v>
+      </c>
+      <c r="J176">
+        <v>180.5</v>
+      </c>
+      <c r="K176">
+        <v>237</v>
+      </c>
+      <c r="L176">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="A177">
+        <v>43769</v>
+      </c>
+      <c r="B177">
+        <v>218.845</v>
+      </c>
+      <c r="C177">
+        <v>238.5</v>
+      </c>
+      <c r="D177">
+        <v>255</v>
+      </c>
+      <c r="E177">
+        <v>1543.196959798997</v>
+      </c>
+      <c r="F177">
+        <v>39.28354566226166</v>
+      </c>
+      <c r="G177">
+        <v>112</v>
+      </c>
+      <c r="H177">
+        <v>143</v>
+      </c>
+      <c r="I177">
+        <v>255</v>
+      </c>
+      <c r="J177">
+        <v>186.75</v>
+      </c>
+      <c r="K177">
+        <v>238.5</v>
+      </c>
+      <c r="L177">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178">
+        <v>44628</v>
+      </c>
+      <c r="B178">
+        <v>223.14</v>
+      </c>
+      <c r="C178">
+        <v>240.5</v>
+      </c>
+      <c r="D178">
+        <v>255</v>
+      </c>
+      <c r="E178">
+        <v>1173.588341708542</v>
+      </c>
+      <c r="F178">
+        <v>34.25767566120828</v>
+      </c>
+      <c r="G178">
+        <v>97</v>
+      </c>
+      <c r="H178">
+        <v>158</v>
+      </c>
+      <c r="I178">
+        <v>255</v>
+      </c>
+      <c r="J178">
+        <v>194.75</v>
+      </c>
+      <c r="K178">
+        <v>240.5</v>
+      </c>
+      <c r="L178">
+        <v>253.25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179">
+        <v>45426</v>
+      </c>
+      <c r="B179">
+        <v>227.13</v>
+      </c>
+      <c r="C179">
+        <v>242.5</v>
+      </c>
+      <c r="D179">
+        <v>255</v>
+      </c>
+      <c r="E179">
+        <v>893.219195979899</v>
+      </c>
+      <c r="F179">
+        <v>29.88677292683001</v>
+      </c>
+      <c r="G179">
+        <v>84</v>
+      </c>
+      <c r="H179">
+        <v>171</v>
+      </c>
+      <c r="I179">
+        <v>255</v>
+      </c>
+      <c r="J179">
+        <v>203</v>
+      </c>
+      <c r="K179">
+        <v>242.5</v>
+      </c>
+      <c r="L179">
+        <v>253.25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="A180">
+        <v>46162</v>
+      </c>
+      <c r="B180">
+        <v>230.81</v>
+      </c>
+      <c r="C180">
+        <v>244</v>
+      </c>
+      <c r="D180">
+        <v>255</v>
+      </c>
+      <c r="E180">
+        <v>660.4662311557784</v>
+      </c>
+      <c r="F180">
+        <v>25.6995375669637</v>
+      </c>
+      <c r="G180">
+        <v>73</v>
+      </c>
+      <c r="H180">
+        <v>182</v>
+      </c>
+      <c r="I180">
+        <v>255</v>
+      </c>
+      <c r="J180">
+        <v>210.5</v>
+      </c>
+      <c r="K180">
+        <v>244</v>
+      </c>
+      <c r="L180">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
+      <c r="A181">
+        <v>46868</v>
+      </c>
+      <c r="B181">
+        <v>234.34</v>
+      </c>
+      <c r="C181">
+        <v>245.5</v>
+      </c>
+      <c r="D181">
+        <v>255</v>
+      </c>
+      <c r="E181">
+        <v>476.5873366834181</v>
+      </c>
+      <c r="F181">
+        <v>21.83088034604693</v>
+      </c>
+      <c r="G181">
+        <v>63</v>
+      </c>
+      <c r="H181">
+        <v>192</v>
+      </c>
+      <c r="I181">
+        <v>255</v>
+      </c>
+      <c r="J181">
+        <v>216.5</v>
+      </c>
+      <c r="K181">
+        <v>245.5</v>
+      </c>
+      <c r="L181">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="A182">
+        <v>47523</v>
+      </c>
+      <c r="B182">
+        <v>237.615</v>
+      </c>
+      <c r="C182">
+        <v>247.5</v>
+      </c>
+      <c r="D182">
+        <v>255</v>
+      </c>
+      <c r="E182">
+        <v>341.2932412060302</v>
+      </c>
+      <c r="F182">
+        <v>18.47412355718209</v>
+      </c>
+      <c r="G182">
+        <v>52</v>
+      </c>
+      <c r="H182">
+        <v>203</v>
+      </c>
+      <c r="I182">
+        <v>255</v>
+      </c>
+      <c r="J182">
+        <v>221.75</v>
+      </c>
+      <c r="K182">
+        <v>247.5</v>
+      </c>
+      <c r="L182">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
+      <c r="A183">
+        <v>48086</v>
+      </c>
+      <c r="B183">
+        <v>240.43</v>
+      </c>
+      <c r="C183">
+        <v>249.5</v>
+      </c>
+      <c r="D183">
+        <v>255</v>
+      </c>
+      <c r="E183">
+        <v>248.7387939698493</v>
+      </c>
+      <c r="F183">
+        <v>15.77145503654781</v>
+      </c>
+      <c r="G183">
+        <v>43</v>
+      </c>
+      <c r="H183">
+        <v>212</v>
+      </c>
+      <c r="I183">
+        <v>255</v>
+      </c>
+      <c r="J183">
+        <v>226</v>
+      </c>
+      <c r="K183">
+        <v>249.5</v>
+      </c>
+      <c r="L183">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
+      <c r="A184">
+        <v>48524</v>
+      </c>
+      <c r="B184">
+        <v>242.62</v>
+      </c>
+      <c r="C184">
+        <v>250.5</v>
+      </c>
+      <c r="D184">
+        <v>255</v>
+      </c>
+      <c r="E184">
+        <v>186.8196984924623</v>
+      </c>
+      <c r="F184">
+        <v>13.66820026530422</v>
+      </c>
+      <c r="G184">
+        <v>38</v>
+      </c>
+      <c r="H184">
+        <v>217</v>
+      </c>
+      <c r="I184">
+        <v>255</v>
+      </c>
+      <c r="J184">
+        <v>230</v>
+      </c>
+      <c r="K184">
+        <v>250.5</v>
+      </c>
+      <c r="L184">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
+      <c r="A185">
+        <v>48926</v>
+      </c>
+      <c r="B185">
+        <v>244.63</v>
+      </c>
+      <c r="C185">
+        <v>251</v>
+      </c>
+      <c r="D185">
+        <v>255</v>
+      </c>
+      <c r="E185">
+        <v>130.9176884422111</v>
+      </c>
+      <c r="F185">
+        <v>11.44192678014551</v>
+      </c>
+      <c r="G185">
+        <v>33</v>
+      </c>
+      <c r="H185">
+        <v>222</v>
+      </c>
+      <c r="I185">
+        <v>255</v>
+      </c>
+      <c r="J185">
+        <v>234.75</v>
+      </c>
+      <c r="K185">
+        <v>251</v>
+      </c>
+      <c r="L185">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
+      <c r="A186">
+        <v>49386</v>
+      </c>
+      <c r="B186">
+        <v>246.93</v>
+      </c>
+      <c r="C186">
+        <v>250</v>
+      </c>
+      <c r="D186">
+        <v>255</v>
+      </c>
+      <c r="E186">
+        <v>75.29155778894491</v>
+      </c>
+      <c r="F186">
+        <v>8.677070806956971</v>
+      </c>
+      <c r="G186">
+        <v>25</v>
+      </c>
+      <c r="H186">
+        <v>230</v>
+      </c>
+      <c r="I186">
+        <v>255</v>
+      </c>
+      <c r="J186">
+        <v>239</v>
+      </c>
+      <c r="K186">
+        <v>250</v>
+      </c>
+      <c r="L186">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
+      <c r="A187">
+        <v>49598</v>
+      </c>
+      <c r="B187">
+        <v>247.99</v>
+      </c>
+      <c r="C187">
+        <v>251</v>
+      </c>
+      <c r="D187">
+        <v>255</v>
+      </c>
+      <c r="E187">
+        <v>55.31648241206043</v>
+      </c>
+      <c r="F187">
+        <v>7.437505120136754</v>
+      </c>
+      <c r="G187">
+        <v>21</v>
+      </c>
+      <c r="H187">
+        <v>234</v>
+      </c>
+      <c r="I187">
+        <v>255</v>
+      </c>
+      <c r="J187">
+        <v>241</v>
+      </c>
+      <c r="K187">
+        <v>251</v>
+      </c>
+      <c r="L187">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="A188">
+        <v>49812</v>
+      </c>
+      <c r="B188">
+        <v>249.06</v>
+      </c>
+      <c r="C188">
+        <v>251</v>
+      </c>
+      <c r="D188">
+        <v>255</v>
+      </c>
+      <c r="E188">
+        <v>38.04663316582909</v>
+      </c>
+      <c r="F188">
+        <v>6.168195292452168</v>
+      </c>
+      <c r="G188">
+        <v>17</v>
+      </c>
+      <c r="H188">
+        <v>238</v>
+      </c>
+      <c r="I188">
+        <v>255</v>
+      </c>
+      <c r="J188">
+        <v>243</v>
+      </c>
+      <c r="K188">
+        <v>251</v>
+      </c>
+      <c r="L188">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="A189">
+        <v>50077</v>
+      </c>
+      <c r="B189">
+        <v>250.385</v>
+      </c>
+      <c r="C189">
+        <v>253</v>
+      </c>
+      <c r="D189">
+        <v>255</v>
+      </c>
+      <c r="E189">
+        <v>23.63494974874374</v>
+      </c>
+      <c r="F189">
+        <v>4.861578935772178</v>
+      </c>
+      <c r="G189">
+        <v>14</v>
+      </c>
+      <c r="H189">
+        <v>241</v>
+      </c>
+      <c r="I189">
+        <v>255</v>
+      </c>
+      <c r="J189">
+        <v>246</v>
+      </c>
+      <c r="K189">
+        <v>253</v>
+      </c>
+      <c r="L189">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="A190">
+        <v>50367</v>
+      </c>
+      <c r="B190">
+        <v>251.835</v>
+      </c>
+      <c r="C190">
+        <v>254</v>
+      </c>
+      <c r="D190">
+        <v>255</v>
+      </c>
+      <c r="E190">
+        <v>13.55555276381913</v>
+      </c>
+      <c r="F190">
+        <v>3.681786626601157</v>
+      </c>
+      <c r="G190">
+        <v>11</v>
+      </c>
+      <c r="H190">
+        <v>244</v>
+      </c>
+      <c r="I190">
+        <v>255</v>
+      </c>
+      <c r="J190">
+        <v>250</v>
+      </c>
+      <c r="K190">
+        <v>254</v>
+      </c>
+      <c r="L190">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
+      <c r="A191">
+        <v>50594</v>
+      </c>
+      <c r="B191">
+        <v>252.97</v>
+      </c>
+      <c r="C191">
+        <v>254</v>
+      </c>
+      <c r="D191">
+        <v>255</v>
+      </c>
+      <c r="E191">
+        <v>5.838291457286408</v>
+      </c>
+      <c r="F191">
+        <v>2.416255668857584</v>
+      </c>
+      <c r="G191">
+        <v>7</v>
+      </c>
+      <c r="H191">
+        <v>248</v>
+      </c>
+      <c r="I191">
+        <v>255</v>
+      </c>
+      <c r="J191">
+        <v>252</v>
+      </c>
+      <c r="K191">
+        <v>254</v>
+      </c>
+      <c r="L191">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="A192">
+        <v>50777</v>
+      </c>
+      <c r="B192">
+        <v>253.885</v>
+      </c>
+      <c r="C192">
+        <v>254</v>
+      </c>
+      <c r="D192">
+        <v>255</v>
+      </c>
+      <c r="E192">
+        <v>1.690226130653257</v>
+      </c>
+      <c r="F192">
+        <v>1.300086970419001</v>
+      </c>
+      <c r="G192">
+        <v>4</v>
+      </c>
+      <c r="H192">
+        <v>251</v>
+      </c>
+      <c r="I192">
+        <v>255</v>
+      </c>
+      <c r="J192">
+        <v>253</v>
+      </c>
+      <c r="K192">
+        <v>254</v>
+      </c>
+      <c r="L192">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
+      <c r="A193">
+        <v>50947</v>
+      </c>
+      <c r="B193">
+        <v>254.735</v>
+      </c>
+      <c r="C193">
+        <v>255</v>
+      </c>
+      <c r="D193">
+        <v>255</v>
+      </c>
+      <c r="E193">
+        <v>0.1957537688442215</v>
+      </c>
+      <c r="F193">
+        <v>0.4424406952849405</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <v>254</v>
+      </c>
+      <c r="I193">
+        <v>255</v>
+      </c>
+      <c r="J193">
+        <v>254</v>
+      </c>
+      <c r="K193">
+        <v>255</v>
+      </c>
+      <c r="L193">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
+      <c r="A194">
+        <v>50930</v>
+      </c>
+      <c r="B194">
+        <v>254.65</v>
+      </c>
+      <c r="C194">
+        <v>255</v>
+      </c>
+      <c r="D194">
+        <v>255</v>
+      </c>
+      <c r="E194">
+        <v>0.2788944723618084</v>
+      </c>
+      <c r="F194">
+        <v>0.5281046036173217</v>
+      </c>
+      <c r="G194">
+        <v>2</v>
+      </c>
+      <c r="H194">
+        <v>253</v>
+      </c>
+      <c r="I194">
+        <v>255</v>
+      </c>
+      <c r="J194">
+        <v>254</v>
+      </c>
+      <c r="K194">
+        <v>255</v>
+      </c>
+      <c r="L194">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
+      <c r="A195">
+        <v>50893</v>
+      </c>
+      <c r="B195">
+        <v>254.465</v>
+      </c>
+      <c r="C195">
+        <v>255</v>
+      </c>
+      <c r="D195">
+        <v>255</v>
+      </c>
+      <c r="E195">
+        <v>0.4811809045226145</v>
+      </c>
+      <c r="F195">
+        <v>0.6936720439246593</v>
+      </c>
+      <c r="G195">
+        <v>2</v>
+      </c>
+      <c r="H195">
+        <v>253</v>
+      </c>
+      <c r="I195">
+        <v>255</v>
+      </c>
+      <c r="J195">
+        <v>254</v>
+      </c>
+      <c r="K195">
+        <v>255</v>
+      </c>
+      <c r="L195">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
+      <c r="A196">
+        <v>50921</v>
+      </c>
+      <c r="B196">
+        <v>254.605</v>
+      </c>
+      <c r="C196">
+        <v>255</v>
+      </c>
+      <c r="D196">
+        <v>255</v>
+      </c>
+      <c r="E196">
+        <v>0.2401758793969842</v>
+      </c>
+      <c r="F196">
+        <v>0.4900774218396357</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+      <c r="H196">
+        <v>254</v>
+      </c>
+      <c r="I196">
+        <v>255</v>
+      </c>
+      <c r="J196">
+        <v>254</v>
+      </c>
+      <c r="K196">
+        <v>255</v>
+      </c>
+      <c r="L196">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
+      <c r="A197">
+        <v>51000</v>
+      </c>
+      <c r="B197">
+        <v>255</v>
+      </c>
+      <c r="C197">
+        <v>255</v>
+      </c>
+      <c r="D197">
+        <v>255</v>
+      </c>
+      <c r="E197">
         <v>0</v>
       </c>
-      <c r="F101">
+      <c r="F197">
         <v>0</v>
       </c>
-      <c r="G101">
+      <c r="G197">
         <v>0</v>
       </c>
-      <c r="H101">
-        <v>255</v>
-      </c>
-      <c r="I101">
-        <v>255</v>
-      </c>
-      <c r="J101">
-        <v>255</v>
-      </c>
-      <c r="K101">
-        <v>255</v>
-      </c>
-      <c r="L101">
+      <c r="H197">
+        <v>255</v>
+      </c>
+      <c r="I197">
+        <v>255</v>
+      </c>
+      <c r="J197">
+        <v>255</v>
+      </c>
+      <c r="K197">
+        <v>255</v>
+      </c>
+      <c r="L197">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
+      <c r="A198">
+        <v>51000</v>
+      </c>
+      <c r="B198">
+        <v>255</v>
+      </c>
+      <c r="C198">
+        <v>255</v>
+      </c>
+      <c r="D198">
+        <v>255</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>255</v>
+      </c>
+      <c r="I198">
+        <v>255</v>
+      </c>
+      <c r="J198">
+        <v>255</v>
+      </c>
+      <c r="K198">
+        <v>255</v>
+      </c>
+      <c r="L198">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
+      <c r="A199">
+        <v>51000</v>
+      </c>
+      <c r="B199">
+        <v>255</v>
+      </c>
+      <c r="C199">
+        <v>255</v>
+      </c>
+      <c r="D199">
+        <v>255</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>255</v>
+      </c>
+      <c r="I199">
+        <v>255</v>
+      </c>
+      <c r="J199">
+        <v>255</v>
+      </c>
+      <c r="K199">
+        <v>255</v>
+      </c>
+      <c r="L199">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
+      <c r="A200">
+        <v>51000</v>
+      </c>
+      <c r="B200">
+        <v>255</v>
+      </c>
+      <c r="C200">
+        <v>255</v>
+      </c>
+      <c r="D200">
+        <v>255</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>255</v>
+      </c>
+      <c r="I200">
+        <v>255</v>
+      </c>
+      <c r="J200">
+        <v>255</v>
+      </c>
+      <c r="K200">
+        <v>255</v>
+      </c>
+      <c r="L200">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="A201">
+        <v>51000</v>
+      </c>
+      <c r="B201">
+        <v>255</v>
+      </c>
+      <c r="C201">
+        <v>255</v>
+      </c>
+      <c r="D201">
+        <v>255</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>255</v>
+      </c>
+      <c r="I201">
+        <v>255</v>
+      </c>
+      <c r="J201">
+        <v>255</v>
+      </c>
+      <c r="K201">
+        <v>255</v>
+      </c>
+      <c r="L201">
         <v>255</v>
       </c>
     </row>
